--- a/anki_deque/darakwon_n2_grammar.xlsx
+++ b/anki_deque/darakwon_n2_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14BE6ED-9D67-4FCB-8C14-5592A36CFC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB17E2-172F-4286-90FE-B93F571D6828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="211">
   <si>
     <t>あれこれ質問にこたえさせられたあげく</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1776,12 +1776,1517 @@
     <t>今は食事の最中だから、タバコは遠慮したほうがいいですよ。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～さえ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にさえ・でさえ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・～すら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~조차, ~마저, ~도)
+&lt;명사 + さえ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・すら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：あいさつさえ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(인사조차)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、大学生にさえ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(대학생조차)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、温厚なあの人でさえ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(온화한 그 사람도)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、食事すら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(식사조차)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、名前すら知らない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(이름도 모른다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>質問の内容すら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今の調子では、予選に出ることさえ難しい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漢字どころか、ひらがなすら読めない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문의 내용조차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 상태로는 예선에 나가는 것조차 어렵다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한자는커녕 히라가나조차 읽지 못한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～さえ～ば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~만 ~하면)
+&lt;동사 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">형 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>さえすれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt; &lt;동사 て형 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>さえいれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">형용사(い삭제) + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>くさえあれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형용사(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">삭제) + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でさえあれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：白でさえあれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(흰색이기만 하면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、天気さえよければ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(날씨만 좋으면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、電話番号さえわかれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(전화번호만 알면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、雨がやみさえすれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(비가 그치기만 하면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、薬を飲みさえすれ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(약을 먹기만 하면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、だまってさえいれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(잠자코 있기만 하면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、新聞に名前さえ出なければ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(신문에 이름만 나오지 않으면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、安くさえあれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(싸기만 하면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、ひまさえあれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(틈만 있으면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、衣類は丈夫でさえあれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(옷은 튼튼하기만 하면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전에 목록을 제대로 확인만 해 두면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 주는 것을 잊지만 않으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재밌기만 하면 어떤 책이든 좋습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀는 틈만 나면 패션 잡지를 읽고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事前にリストをしっかり確認さえしておけば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水やりを忘れさえしなければ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 시합에 이기기만 하면 올림픽에 출전할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この試合に勝ちさえすれば、オリンピックに出場できる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面白くさえあればどんな本でもけっこうです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼女はひまさえあればファッション雑誌を読んでいる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～ざるをえない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~할 수밖에 없다, ~해야만 한다)
+&lt;동사 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형 + ざるをえない&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>せざるをえない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+(例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>漢字を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>覚えざるをえない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(한자를 외워야만 한다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、行くのをあきらめざるをえない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(가는 것을 단념할 수밖에 없다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、値下げせざるをえない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(가격을 내릴 수밖에 없다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 사건에서는 회사에 문제가 있었다고 말할 수밖에 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今回の事件では会社に問題があったと言わざるをえない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2回も同じ間違いをするとは、注意が足りなかったと言わざるをえない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번이나 같은 실수를 하다니, 주의가 부족했다고 말할 수밖에 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここまでマスコミにたたかれれば、彼も謝罪せざるをえないだろう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 정도로 매스컴이 비난하면 그도 사죄할 수밖에 없을 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～次第だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~나름이다, ~한 것이다)
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：あとは本人次第だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(나머지는 본인 하기 나름이다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、私が代わりに来た次第です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(제가 대신 온 것입니다))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～次第では</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~에 따라서(는))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;명사 + 次第では&gt;
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：先生のご都合次第では</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(선생님의 사정에 따라서는)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、頼み方次第では</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(부탁하기에 따라서는)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、成績次第では</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(성적에 따라서는)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、検査の結果次第では</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(검사 결과에 따라서는)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安い材料でも工夫次第で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저렴한 재료라도 궁리하기에 따라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日の試合は天気次第では中止になるかも知れない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일 시합은 날씨에 따라서는 중지가 될지도 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일전에 전해 드린 일정에 착오가 있어 이번에 다시 연락을 드린 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先日お伝えした日程に誤りがありましたので、今回改めてご連絡した次第です。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約10年の工事の末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약 10년의 공사 끝에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あれこれ悩んだ末に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러모로 고민한 끝에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この新しい薬は、何年にもわたる研究の末に作り出されたものだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 신약은 몇 년에 걸친 연구 끝에 만들어진 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～(の)末(に)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>た</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>末</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (~한 끝에)
+&lt;명사 + (の)末(に)&gt; &lt;동사 과거형(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～た</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) + (た)末&gt;
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：苦心の末に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(고심 끝에)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、長時間の協議の末に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(오랜 시간 협의 끝에)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、きびしいレースを勝ちぬいた末に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)힘든 경주를 이겨낸 끝에)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+≒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～あげく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~한 끝에)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼の努力をずっと見てきただけに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人が魚屋も経営しているだけあって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼女は日本に留学していただけあって、日本語がよくできる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この家は、さすが金をかけただけに、大地震でも倒れなかった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼の作業は速くて確実だ。さすがに、ベテランだけのことはある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그의 노력을 쭉 보아 온 만큼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남편이 생선 가게도 경영하고 있는 만큼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그녀는 일본에 유학했던 만큼 일본어를 아주 잘한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 집은 과연 돈을 들인 만큼 대지진에도 무너지지 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그의 작업은 빠르고 확실하다. 과연 베테랑은 다르다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～だけあって・～だけに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ((과연) ~인 만큼)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;명사 + だけあって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・だけに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;
+(例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>チ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ームのキャプテンだけあって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(팀의 주장인 만큼)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、日本に住んでいただけあって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(일본에 살았던 만큼)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、長い間楽しみに待っていただけに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(오랫동안 낙으로 기다리고 있었던 만큼)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、苦労して作った本だけに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(고생해서 만든 책인 만큼))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>～だけのことはある ((과연) ~은/는 다르다, ~라 할 만하다)
+&lt;명사 + だけのことはある&gt;
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：さすがに元アナウンサーだっただけのことはある(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과연 아나운서 출신은 다르다)、チャンピオンだけのことはある(과연 챔피언이라 할 만하다))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1837,6 +3342,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2216,10 +3728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE3EC4-AD3B-4030-96E8-1E76FF9B4BDB}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -2274,7 +3786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="69">
+    <row r="5" spans="1:3" ht="86.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2285,7 +3797,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="69">
+    <row r="6" spans="1:3" ht="86.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2296,7 +3808,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="86.25">
+    <row r="7" spans="1:3" ht="103.5">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2307,7 +3819,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="69">
+    <row r="8" spans="1:3" ht="86.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -2318,7 +3830,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="86.25">
+    <row r="9" spans="1:3" ht="103.5">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -2329,7 +3841,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="86.25">
+    <row r="10" spans="1:3" ht="103.5">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -2340,7 +3852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="51.75">
+    <row r="11" spans="1:3" ht="69">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2351,7 +3863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="51.75">
+    <row r="12" spans="1:3" ht="69">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -2362,7 +3874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="69">
+    <row r="13" spans="1:3" ht="86.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -2384,7 +3896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="103.5">
+    <row r="15" spans="1:3" ht="138">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -2395,7 +3907,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="103.5">
+    <row r="16" spans="1:3" ht="138">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -2494,7 +4006,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="69">
+    <row r="25" spans="1:3" ht="86.25">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
@@ -2910,6 +4422,248 @@
       </c>
       <c r="C62" s="3" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="78">
+      <c r="A63" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="78">
+      <c r="A64" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="78">
+      <c r="A65" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="136.5">
+      <c r="A66" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="136.5">
+      <c r="A67" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="136.5">
+      <c r="A68" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="136.5">
+      <c r="A69" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="136.5">
+      <c r="A70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="78">
+      <c r="A71" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="78">
+      <c r="A72" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="78">
+      <c r="A73" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="75.75">
+      <c r="A74" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="75.75">
+      <c r="A75" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="39">
+      <c r="A76" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="95.25">
+      <c r="A77" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="95.25">
+      <c r="A78" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="95.25">
+      <c r="A79" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="95.25">
+      <c r="A80" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="95.25">
+      <c r="A81" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="95.25">
+      <c r="A82" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="95.25">
+      <c r="A83" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="71.25">
+      <c r="A84" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/anki_deque/darakwon_n2_grammar.xlsx
+++ b/anki_deque/darakwon_n2_grammar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DB17E2-172F-4286-90FE-B93F571D6828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91024885-A1D8-44E0-85D9-104F24E435C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="221">
   <si>
     <t>あれこれ質問にこたえさせられたあげく</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3279,6 +3279,320 @@
       </rPr>
       <t>과연 아나운서 출신은 다르다)、チャンピオンだけのことはある(과연 챔피언이라 할 만하다))</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病院に行ったところ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠くを見るようにしたところ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久しぶりにに故郷に帰ってみたところ、すっかり変わっていて少し悲しかった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원에 갔더니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼 곳을 보도록 했더니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만에 고향에 돌아가 봤더니 완전히 변해있어서 조금 슬펐다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～たところ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~했더니)
+&lt;동사 과거형(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～た</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>) + たところ&gt;
+(例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会場の問い合わせをしたところ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(모임 장소를 문의했더니)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、電話帳で調べたところ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(전화번호부에서 찾아봤더니)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、先生のお宅へうかがったところ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(선생님 댁으로 찾아뵈었더니))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+≒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～たところで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~해본들, ~해봤자)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～たとたん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> (~한 순간(에), ~하자마자)
+&lt;동사 과거형(～た) + たとたん(に)&gt;
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：写真を見たとたん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(사진을 보자마자)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、椅子から立ったとたん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(의자에서 일어난 순간)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、窓を開けたとたんに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(창문을 연 순간에)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、家を出たとたんに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(집을 나서자마자)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)
+≒ ～か～ないかのうちに (~하자마자)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二人は出会ったとたんに恋に落ちたそうです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 사람은 만나자마자 사랑에 빠졌다고 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3728,13 +4042,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE3EC4-AD3B-4030-96E8-1E76FF9B4BDB}">
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
   <cols>
     <col min="1" max="1" width="61.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="61.625" style="2" customWidth="1"/>
@@ -3742,7 +4056,7 @@
     <col min="4" max="4" width="58.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69">
+    <row r="1" spans="1:3" ht="76.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +4067,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="69">
+    <row r="2" spans="1:3" ht="76.5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3764,7 +4078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="69">
+    <row r="3" spans="1:3" ht="76.5">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3775,7 +4089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="69">
+    <row r="4" spans="1:3" ht="76.5">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3786,7 +4100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="86.25">
+    <row r="5" spans="1:3" ht="95.65">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3797,7 +4111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="86.25">
+    <row r="6" spans="1:3" ht="95.65">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3808,7 +4122,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="103.5">
+    <row r="7" spans="1:3" ht="114.75">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -3819,7 +4133,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="86.25">
+    <row r="8" spans="1:3" ht="95.65">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -3830,7 +4144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="103.5">
+    <row r="9" spans="1:3" ht="95.65">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -3841,7 +4155,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="103.5">
+    <row r="10" spans="1:3" ht="95.65">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3852,7 +4166,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="69">
+    <row r="11" spans="1:3" ht="76.5">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -3863,7 +4177,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="69">
+    <row r="12" spans="1:3" ht="76.5">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -3874,7 +4188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="86.25">
+    <row r="13" spans="1:3" ht="95.65">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -3885,7 +4199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="69">
+    <row r="14" spans="1:3" ht="76.5">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -3896,7 +4210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="138">
+    <row r="15" spans="1:3" ht="153">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -3907,7 +4221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="138">
+    <row r="16" spans="1:3" ht="153">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -3918,7 +4232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="69">
+    <row r="17" spans="1:3" ht="76.5">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -3929,7 +4243,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="69">
+    <row r="18" spans="1:3" ht="76.5">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3940,7 +4254,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="51.75">
+    <row r="19" spans="1:3" ht="57.4">
       <c r="A19" s="4" t="s">
         <v>37</v>
       </c>
@@ -3951,7 +4265,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51.75">
+    <row r="20" spans="1:3" ht="57.4">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -3962,7 +4276,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="51.75">
+    <row r="21" spans="1:3" ht="57.4">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -3973,7 +4287,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="69">
+    <row r="22" spans="1:3" ht="76.5">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -3984,7 +4298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="86.25">
+    <row r="23" spans="1:3" ht="95.65">
       <c r="A23" s="4" t="s">
         <v>48</v>
       </c>
@@ -3995,7 +4309,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="86.25">
+    <row r="24" spans="1:3" ht="95.65">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
@@ -4006,7 +4320,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="86.25">
+    <row r="25" spans="1:3" ht="95.65">
       <c r="A25" s="4" t="s">
         <v>52</v>
       </c>
@@ -4017,7 +4331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="69">
+    <row r="26" spans="1:3" ht="76.5">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -4028,7 +4342,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="69">
+    <row r="27" spans="1:3" ht="76.5">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -4039,7 +4353,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="69">
+    <row r="28" spans="1:3" ht="76.5">
       <c r="A28" s="4" t="s">
         <v>58</v>
       </c>
@@ -4050,7 +4364,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="86.25">
+    <row r="29" spans="1:3" ht="95.65">
       <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
@@ -4061,7 +4375,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="86.25">
+    <row r="30" spans="1:3" ht="95.65">
       <c r="A30" s="4" t="s">
         <v>62</v>
       </c>
@@ -4072,7 +4386,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="69">
+    <row r="31" spans="1:3" ht="76.5">
       <c r="A31" s="4" t="s">
         <v>65</v>
       </c>
@@ -4083,7 +4397,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="69">
+    <row r="32" spans="1:3" ht="76.5">
       <c r="A32" s="4" t="s">
         <v>66</v>
       </c>
@@ -4094,7 +4408,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="86.25">
+    <row r="33" spans="1:3" ht="95.65">
       <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
@@ -4105,7 +4419,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="86.25">
+    <row r="34" spans="1:3" ht="95.65">
       <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
@@ -4116,7 +4430,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51.75">
+    <row r="35" spans="1:3" ht="57.4">
       <c r="A35" s="4" t="s">
         <v>74</v>
       </c>
@@ -4127,7 +4441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="51.75">
+    <row r="36" spans="1:3" ht="57.4">
       <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
@@ -4138,7 +4452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="86.25">
+    <row r="37" spans="1:3" ht="95.65">
       <c r="A37" s="4" t="s">
         <v>78</v>
       </c>
@@ -4149,7 +4463,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="86.25">
+    <row r="38" spans="1:3" ht="95.65">
       <c r="A38" s="4" t="s">
         <v>80</v>
       </c>
@@ -4160,7 +4474,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="69">
+    <row r="39" spans="1:3" ht="76.5">
       <c r="A39" s="4" t="s">
         <v>84</v>
       </c>
@@ -4171,7 +4485,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="69">
+    <row r="40" spans="1:3" ht="76.5">
       <c r="A40" s="4" t="s">
         <v>85</v>
       </c>
@@ -4182,7 +4496,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="69">
+    <row r="41" spans="1:3" ht="76.5">
       <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
@@ -4193,7 +4507,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="69">
+    <row r="42" spans="1:3" ht="76.5">
       <c r="A42" s="4" t="s">
         <v>90</v>
       </c>
@@ -4204,7 +4518,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="69">
+    <row r="43" spans="1:3" ht="76.5">
       <c r="A43" s="4" t="s">
         <v>91</v>
       </c>
@@ -4215,7 +4529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="51.75">
+    <row r="44" spans="1:3" ht="57.4">
       <c r="A44" s="4" t="s">
         <v>112</v>
       </c>
@@ -4226,7 +4540,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="51.75">
+    <row r="45" spans="1:3" ht="57.4">
       <c r="A45" s="4" t="s">
         <v>113</v>
       </c>
@@ -4237,7 +4551,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="58.5">
+    <row r="46" spans="1:3" ht="59.65">
       <c r="A46" s="4" t="s">
         <v>118</v>
       </c>
@@ -4248,7 +4562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="39">
+    <row r="47" spans="1:3" ht="39.75">
       <c r="A47" s="4" t="s">
         <v>122</v>
       </c>
@@ -4259,7 +4573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="39">
+    <row r="48" spans="1:3" ht="39.75">
       <c r="A48" s="4" t="s">
         <v>123</v>
       </c>
@@ -4270,7 +4584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="39">
+    <row r="49" spans="1:3" ht="39.75">
       <c r="A49" s="4" t="s">
         <v>124</v>
       </c>
@@ -4281,7 +4595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="36.75">
+    <row r="50" spans="1:3" ht="39">
       <c r="A50" s="4" t="s">
         <v>125</v>
       </c>
@@ -4303,7 +4617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="93">
+    <row r="52" spans="1:3" ht="97.9">
       <c r="A52" s="4" t="s">
         <v>132</v>
       </c>
@@ -4314,7 +4628,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="93">
+    <row r="53" spans="1:3" ht="97.9">
       <c r="A53" s="4" t="s">
         <v>133</v>
       </c>
@@ -4325,7 +4639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="78">
+    <row r="54" spans="1:3" ht="79.5">
       <c r="A54" s="4" t="s">
         <v>137</v>
       </c>
@@ -4336,7 +4650,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="78">
+    <row r="55" spans="1:3" ht="79.5">
       <c r="A55" s="4" t="s">
         <v>138</v>
       </c>
@@ -4347,7 +4661,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="78">
+    <row r="56" spans="1:3" ht="79.5">
       <c r="A56" s="4" t="s">
         <v>139</v>
       </c>
@@ -4358,7 +4672,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="78">
+    <row r="57" spans="1:3" ht="79.5">
       <c r="A57" s="4" t="s">
         <v>140</v>
       </c>
@@ -4369,7 +4683,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="97.5">
+    <row r="58" spans="1:3" ht="99.4">
       <c r="A58" s="4" t="s">
         <v>146</v>
       </c>
@@ -4380,7 +4694,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="78">
+    <row r="59" spans="1:3" ht="79.5">
       <c r="A59" s="4" t="s">
         <v>150</v>
       </c>
@@ -4391,7 +4705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="90.75">
+    <row r="60" spans="1:3" ht="97.15">
       <c r="A60" s="4" t="s">
         <v>152</v>
       </c>
@@ -4402,7 +4716,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="90.75">
+    <row r="61" spans="1:3" ht="97.15">
       <c r="A61" s="4" t="s">
         <v>153</v>
       </c>
@@ -4413,7 +4727,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="75.75">
+    <row r="62" spans="1:3" ht="78.75">
       <c r="A62" s="4" t="s">
         <v>158</v>
       </c>
@@ -4424,7 +4738,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="78">
+    <row r="63" spans="1:3" ht="79.5">
       <c r="A63" s="4" t="s">
         <v>160</v>
       </c>
@@ -4435,7 +4749,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="78">
+    <row r="64" spans="1:3" ht="79.5">
       <c r="A64" s="4" t="s">
         <v>161</v>
       </c>
@@ -4446,7 +4760,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="78">
+    <row r="65" spans="1:3" ht="79.5">
       <c r="A65" s="4" t="s">
         <v>162</v>
       </c>
@@ -4457,7 +4771,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="136.5">
+    <row r="66" spans="1:3" ht="139.15">
       <c r="A66" s="4" t="s">
         <v>171</v>
       </c>
@@ -4468,7 +4782,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="136.5">
+    <row r="67" spans="1:3" ht="139.15">
       <c r="A67" s="4" t="s">
         <v>172</v>
       </c>
@@ -4479,7 +4793,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="136.5">
+    <row r="68" spans="1:3" ht="139.15">
       <c r="A68" s="4" t="s">
         <v>174</v>
       </c>
@@ -4490,7 +4804,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="136.5">
+    <row r="69" spans="1:3" ht="139.15">
       <c r="A69" s="4" t="s">
         <v>175</v>
       </c>
@@ -4501,7 +4815,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="136.5">
+    <row r="70" spans="1:3" ht="139.15">
       <c r="A70" s="4" t="s">
         <v>176</v>
       </c>
@@ -4512,7 +4826,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="78">
+    <row r="71" spans="1:3" ht="79.5">
       <c r="A71" s="4" t="s">
         <v>179</v>
       </c>
@@ -4523,7 +4837,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="78">
+    <row r="72" spans="1:3" ht="79.5">
       <c r="A72" s="4" t="s">
         <v>180</v>
       </c>
@@ -4534,7 +4848,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="78">
+    <row r="73" spans="1:3" ht="79.5">
       <c r="A73" s="4" t="s">
         <v>182</v>
       </c>
@@ -4545,7 +4859,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="75.75">
+    <row r="74" spans="1:3" ht="78.75">
       <c r="A74" s="4" t="s">
         <v>186</v>
       </c>
@@ -4556,7 +4870,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="75.75">
+    <row r="75" spans="1:3" ht="78.75">
       <c r="A75" s="4" t="s">
         <v>188</v>
       </c>
@@ -4567,7 +4881,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="39">
+    <row r="76" spans="1:3" ht="39.75">
       <c r="A76" s="4" t="s">
         <v>191</v>
       </c>
@@ -4578,7 +4892,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="95.25">
+    <row r="77" spans="1:3" ht="98.65">
       <c r="A77" s="4" t="s">
         <v>192</v>
       </c>
@@ -4589,7 +4903,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="95.25">
+    <row r="78" spans="1:3" ht="98.65">
       <c r="A78" s="4" t="s">
         <v>194</v>
       </c>
@@ -4600,7 +4914,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="95.25">
+    <row r="79" spans="1:3" ht="98.65">
       <c r="A79" s="4" t="s">
         <v>196</v>
       </c>
@@ -4611,7 +4925,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="95.25">
+    <row r="80" spans="1:3" ht="98.65">
       <c r="A80" s="4" t="s">
         <v>199</v>
       </c>
@@ -4622,7 +4936,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="95.25">
+    <row r="81" spans="1:3" ht="98.65">
       <c r="A81" s="4" t="s">
         <v>200</v>
       </c>
@@ -4633,7 +4947,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="95.25">
+    <row r="82" spans="1:3" ht="98.65">
       <c r="A82" s="4" t="s">
         <v>201</v>
       </c>
@@ -4644,7 +4958,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="95.25">
+    <row r="83" spans="1:3" ht="98.65">
       <c r="A83" s="4" t="s">
         <v>202</v>
       </c>
@@ -4655,7 +4969,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="71.25">
+    <row r="84" spans="1:3" ht="77.25">
       <c r="A84" s="4" t="s">
         <v>203</v>
       </c>
@@ -4664,6 +4978,50 @@
       </c>
       <c r="C84" s="2" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="99.4">
+      <c r="A85" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="99.4">
+      <c r="A86" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="99.4">
+      <c r="A87" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="97.9">
+      <c r="A88" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/anki_deque/darakwon_n2_grammar.xlsx
+++ b/anki_deque/darakwon_n2_grammar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91024885-A1D8-44E0-85D9-104F24E435C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC946C7-68FC-4A70-99C3-3A79BFE0C8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,447 +36,683 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="242">
   <si>
     <t>あれこれ質問にこたえさせられたあげく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>さんざん悩んだ挙句、思い切って彼女に結婚を申し込むことにした。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <rPh sb="4" eb="6">
+      <t>しつもん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>여러 가지 질문에 억지로 대답한 끝에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～あげく (~한 끝에) [あれこれ(여러 가지로)、さんざん(몹시) 등과 호응]
+&lt;동사 과거형 + あげく&gt;
+(例：悩んだあげく(고심한 끝에)、困ったあげく(난처한 끝에)、考えたあげく(생각한 끝에))
+≒ ～の末に「のすえに」 (~한 끝에)</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>몹시 고심한 끝에 과감히 그녀에게 청혼을 하기로 했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼女は一番行きたかった大学に合格し、うれしさのあまり跳び上がった。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 가장 가고 싶었던 대학에 합격하여 기쁜 나머지 껑충 뛰었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼女は一番行きたかった大学に合格し、うれしさのあまり跳び上がった。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仕事をする一方で、遊ぶことも忘れない、そんな若者が増えている。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일을 하는 한편으로 노는 것도 잊지 않는 그런 젊은이가 늘고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警察の呼びかけにもかかわらず、オートバイの事故は増える一方だ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경찰의 호소에도 불구하고 오토바이 사고는 늘어나기만 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>~あまり (~한 나머지)
 &lt;형용사와 동사의 명사형 + の + あまり&gt; &lt;동사 과거형(～た) + あまり&gt; &lt;동사 사전형 + あまり&gt;
 (例：心配のあまり(걱정한 나머지)、悲しみのあまり(슬픈 나머지)、うれしさのあまり(기쁜 나머지)、考えすぎたあまり(너무 생각한 나머지))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>仕事をする一方で、遊ぶことも忘れない、そんな若者が増えている。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>일을 하는 한편으로 노는 것도 잊지 않는 그런 젊은이가 늘고 있다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～一方で (~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한편으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>) [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사항에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>면을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대비시켜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나타낼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]
+&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사전형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> + 一方で&gt;
+(例：収入が減る一方で(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수입이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>줄어드는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한편으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)、平均寿命がのびる一方で(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평균</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수명이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>늘어나는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한편으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)、子供を厳しくしかる一方で(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자식을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엄하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꾸짖는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한편으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>いっぽう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>警察の呼びかけにもかかわらず、オートバイの事故は増える一方だ。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>경찰의 호소에도 불구하고 오토바이 사고는 늘어나기만 한다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～一方だ「いっぽうだ」((오로지) ~할 뿐이다, ~하기만 하다)
+&lt;동사 사전형 + 一方だ&gt;
+(例：増える一方だ(늘어나기만 한다)、減る一方だ(줄어들기만 한다)、失業率はあがる一方だ(실업률은 올라가기만 한다))
+≒ ～ばかりだ (~하기만 하다)</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>周囲の期待は高まる一方だ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>주위의 기대는 높아만 진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>このへんは物価が高いうえに交通も不便なので暮らしにくい。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 근처는 물가가 비싼 데다가 교통도 불편하기 때문에 살기 불편하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～うえ(に) (~인 데다가)
+&lt;な형용사/い형용사 + うえ(に)&gt; &lt;명사 + の + うえ(に)&gt; &lt;동사 과거형(～た) + うえ(に)&gt; &lt;동사 사전형 + うえ(に)&gt;
+(例：面倒なうえに(귀찮은 데다가)、責任感が強いうえに(책임감이 강한 데다가)、練習不足のうえに(연습 부족인 데다가)、事業に失敗した上に(사업에 실패한 데다가)、よく効くうえに(잘 듣는 데다가))
+≒ ~上 (~상)</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>こうなったうえは、何としても責任をとるつもりです。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이렇게 된 바에는 어떻게든 책임을 질 작정입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>この辺りはにぎやかだか、夜になると人通りもなくなるから、明るいうちに帰ろう。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 부근은 붐비지만 밤이 되면 인적도 뜸해지니 밝을 때에 돌아가자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMなどで何度か見ているうちに</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고 방송 등에서 몇 번인가 보는 동안에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷めないうちに、召し上がってください。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식기 전에 드세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>何か月もしないうちに</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몇 개월도 지나기 전에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼の取った態度は、私には十分理解しうるものであった。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그가 취한 태도는 내가 충분히 이해할 수 있는 것이었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大雨で裏山がくずれるおそれがあるため、近くの公民館に避難した。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭우로 뒷산이 무너질 우려가 있어 근처에 있는 주민회관으로 피난했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私が記憶するかぎり、彼は結婚したことはない。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 기억하는 한 그는 결혼한 적이 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>あの人が謝らないかぎり、私は許しません。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 사람이 사과하지 않는 한 나는 용서하지 않겠습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>椅子に編みかけのセーターが置いてあった。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷蔵庫のなかの野菜がくさりかけている。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의자에 뜨다 만 스웨터가 놓여 있었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>냉장고 안의 야채가 썩으려고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>つい思ってしまいがちだ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病気がちの彼には、こんな激しいスポーツはできない。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一つ悪いことがあると、何につけても悪く考えがちになる。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그만 생각해 버리는 경우가 많다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔병치레가 잦은 그는 이런 과격한 운동은 할 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 가지 나쁜 일이 있으면 뭐든지 나쁘게 생각하게 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ぴかっと光ったかと思ったら、しばらくしてかみなりが鳴った。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번쩍 빛이 나는가 싶더니 잠시 후에 천둥이 쳤다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～ないうちに (~하지 않는 사이에, ~하기 전에)
-&lt;～うちに의 부정&gt;
-(例：雨が降らないうちに(비가 오기 전에)、暗くならないうちに(어두워지기 전에)、忘れないうちに(잊어버리기 전에))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～おそれがある (~할 우려가 있다)
-&lt;おそれ가 명사이므로 그에 준하는 접속&gt; &lt;동사 사전형 + おそれがある&gt; &lt;명사 + の + おそれがある&gt;
-(例：大事故につながるおそれがある(대형 사고로 이어질 우려가 있다)、こわれるおそれがある(부서질 우려가 있다)、倒産のおそれがある(도산의 우려가 있다))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～うえは (~한 이상에는, ~한 바에는) [문어적, 딱딱한 표현으로 제한적으로 사용]
 &lt;동사 과거형(～た) + うえは&gt;
 (例：こうなったうえは(이렇게 된 바에는)、約束したうえは(약속한 이상에는)、秘密を知ったうえは(비밀을 안 이상에는))
 ≒ ～以上は / ～からには (~한 이상에는)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娘は「いってきます」と言い終わるか終わらないかのうちに</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸은 '다녀오겠습니다'라고 말을 끝내자마자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼は、問題を見るか見ないかのうちに、もう答えを書き始めていた。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그는 문제를 보자마자 벌써 답을 적기 시작했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>もう３がつなのに、今日は真冬にでも戻ったかのようだ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 3월인데 오늘은 마치 한겨울로 돌아간 듯하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～かのようだ ((마치) ~인 듯하다, ~인 것 같다)
-&lt;동사의 과거형 + かのようだ&gt; &lt;동사의 현재진행형 + かのようだ&gt;
-(例：まるで夏になったかのようだ(마치 여름이 된 것 같다)、有名人にでもなったかのようだ(유명인이라도 된 것 같다)、生きているかのようだ(마치 살아 있는 것 같다)、まるですべてを知っているかのようだ(마치 전부 알고 있는 듯하다))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明日の夕方から夜にかけて</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내일 저녁부터 밤에 걸쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本では、8月の下旬から9月の上旬にかけて台風が多い。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>発達する低気圧の影響で、土曜日の夕方から日曜日の朝にかけて、激しい雨が降るおそれがあります。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본에서는 8월 하순부터 9월 초순에 걸쳐 태풍이 많다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발달하는 저기압의 영향으로 토요일 저녁부터 일요일 아침에 걸쳐 심한 비가 내릴 우려가 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今の状況からいって、このまま計画をすすめるのは無理です。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私の経験から言うと、留学はした方がいいよ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 상황으로 보건대 이 상태로 계획을 추진하는 것은 무리입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 경험으로 보아 유학은 하는 편이 좋아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼に伝わっていないことからして</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私は彼のことが大嫌いだ。彼の話し方や服装からしてがまんならない。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 그 사람을 무척 싫어한다. 그 사람의 말투나 복장부터가 참을 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그에게 전해지지 않은 것부터가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>実務経験者ということからすると</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>アクセントからすると、どうやらあの人は外国出身らしい。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실무 경험자라는 것으로 보아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>악센트로 보아 아무래도 그 사람은 외국 출신인 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～からといって (~라고 해서)
-&lt;～からといって + 부분 부정 표현 (例：～(という)わけではない((~라는) 것은 아니다)、～とはかぎらない(~라고는 할 수 없다)、～とはいえない(~라고는 말할 수 없다))&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>親が頭がいいからといって、子どもも必ず頭がいいとはかぎらない。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>しばらく連絡がないからといって、そんなに心配することはないよ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부모가 머리가 좋다고 해서 자식도 꼭 머리가 좋다고는 할 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠시 연락이 없다고 해서 그렇게 걱정할 필요는 없어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いったん仕事を引き受けたからには</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 일을 맡은 이상에는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一度やると決めたからには途中でやめるわけにないかない。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한번 하겠다고 결정한 이상에는 도중에 그만둘 수는 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전에 비해 관광객이 조금 줄어든 듯합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요즘 바빠서 조금 피곤한 듯해서 오늘은 일찍 들어가기로 했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以前と比べると観光客が少し減り気味です。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>このところ忙しくて少し疲れ気味だから、今日は早く帰ることにした。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>髪は半年前に切ったきり</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리는 반년 전에 자른 이래로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 사람은 나간 채 돌아오지 않았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼다 씨와는 3년 전에 한 번 만났을 뿐이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>あの人は出かけたきり戻ってこなかった。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本田さんとは3年前に一度会ったきりだ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～か～ないのうちに (~하자마자)
-&lt;동사 사전형 + ～か～ないかのうちに&gt; &lt;동사의 과거형 + ～か～ないかのうちに&gt;
-(例：家に着くか着かないかのうちに(집에 도착하자마자)、先生の講義が終わるか終わらないかのうちに(선생님의 강의가 끝나자마자)、そう言ったか言わないかのうちに(그렇게 말하자마자))
-≒ たとたん(に) (~한 순간(에))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～から～にかけて (~부터 ~에 걸쳐)
-(例：おとといから今日にかけて(그저께부터 오늘에 걸쳐)、2月から3月にかけて(2월부터 3월에 걸쳐)、1丁目から3丁目にかけて(1가부터 3가에 걸쳐))
-≒ ～にわたって (~에 걸쳐)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～あげく (~한 끝에) [あれこれ(여러 가지로)、さんざん(몹시) 등과 호응]
-&lt;동사 과거형 + あげく&gt;
-(例：悩んだあげく(고심한 끝에)、困ったあげく(난처한 끝에)、考えたあげく(생각한 끝에))
-≒ ～の末に「のすえに」 (~한 끝에)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～一方で「いっぽうで」 (~하는 한편으로) [어떤 사항에 대해 두 가지 면을 대비시켜 나타낼 때]
-&lt;동사 사전형 + 一方で&gt;
-(例：収入が減る一方で(수입이 줄어드는 한편으로)、平均寿命がのびる一方で(평균 수명이 늘어나는 한편으로)、子供を厳しくしかる一方で(자식을 엄하게 꾸짖는 한편으로))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～一方だ「いっぽうだ」((오로지) ~할 뿐이다, ~하기만 하다)
-&lt;동사 사전형 + 一方だ&gt;
-(例：増える一方だ(늘어나기만 한다)、減る一方だ(줄어들기만 한다)、失業率はあがる一方だ(실업률은 올라가기만 한다))
-≒ ～ばかりだ (~하기만 하다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～うえ(に) (~인 데다가)
-&lt;な형용사/い형용사 + うえ(に)&gt; &lt;명사 + の + うえ(に)&gt; &lt;동사 과거형(～た) + うえ(に)&gt; &lt;동사 사전형 + うえ(に)&gt;
-(例：面倒なうえに(귀찮은 데다가)、責任感が強いうえに(책임감이 강한 데다가)、練習不足のうえに(연습 부족인 데다가)、事業に失敗した上に(사업에 실패한 데다가)、よく効くうえに(잘 듣는 데다가))
-≒ ~上 (~상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この辺りはにぎやかだか、夜になると人通りもなくなるから、明るいうちに帰ろう。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 부근은 붐비지만 밤이 되면 인적도 뜸해지니 밝을 때에 돌아가자.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～うちに (~하는 동안에, ~중에, ~할 때에)
 &lt;うち가 명사 역할&gt;
 (例：その日のうちに(그날 중으로)、暖かいうちに(따뜻할 때에)、両親が元気なうちに(부모님이 건강할 때에)、テレビを見ているうちに(텔레비전을 보고 있는 동안에)、手紙を読んでいるうちに(편지를 읽고 있는 중에))
 [참고] ～うちは (~할 때에는) (例：若いうちは(젊을 때에는)、体が健康なうちは(몸이 건강할 때에는))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>CMなどで何度か見ているうちに</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>광고 방송 등에서 몇 번인가 보는 동안에</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～うちに (~하는 동안에, ~중에, ~할 때에)
 &lt;うち가 명사 역할이므로 그에 준하는 접속&gt;
 (例：その日のうちに(그날 중으로)、暖かいうちに(따뜻할 때에)、両親が元気なうちに(부모님이 건강할 때에)、テレビを見ているうちに(텔레비전을 보고 있는 동안에)、手紙を読んでいるうちに(편지를 읽고 있는 중에))
 [참고] ～うちは (~할 때에는) (例：若いうちは(젊을 때에는)、体が健康なうちは(몸이 건강할 때에는))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>冷めないうちに、召し上がってください。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>식기 전에 드세요.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～ないうちに (~하지 않는 사이에, ~하기 전에)
+&lt;～うちに의 부정&gt;
+(例：雨が降らないうちに(비가 오기 전에)、暗くならないうちに(어두워지기 전에)、忘れないうちに(잊어버리기 전에))</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>何か月もしないうちに</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>몇 개월도 지나기 전에</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼の取った態度は、私には十分理解しうるものであった。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그가 취한 태도는 내가 충분히 이해할 수 있는 것이었다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～うる・える / ～えない (~할 수 있다 / ~할 수 없다)
 &lt;동사 ます형 + うる・える / えない&gt;
 (例：考えうる(생각할 수 있다)、理解しうる(이해할 수 있다)、ありえない(있을 수 없다)、判定しえない(판정할 수 없다))
 ≒ やむをえない (어쩔 수 없다, 하는 수 없다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大雨で裏山がくずれるおそれがあるため、近くの公民館に避難した。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>폭우로 뒷산이 무너질 우려가 있어 근처에 있는 주민회관으로 피난했다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～おそれがある (~할 우려가 있다)
+&lt;おそれ가 명사이므로 그에 준하는 접속&gt; &lt;동사 사전형 + おそれがある&gt; &lt;명사 + の + おそれがある&gt;
+(例：大事故につながるおそれがある(대형 사고로 이어질 우려가 있다)、こわれるおそれがある(부서질 우려가 있다)、倒産のおそれがある(도산의 우려가 있다))</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>私が記憶するかぎり、彼は結婚したことはない。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>내가 기억하는 한 그는 결혼한 적이 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～かぎり / ～ないかぎり (~하는 한 / ~하지 않는 한)
@@ -485,89 +721,341 @@
 (例：何か対策を立てないかぎり(뭔가 대책을 세우지 않는 한)、夜遅く一人で歩かないかぎり(밤늦게 혼자서 걷지 않는 한))
 [참고] &lt;～かぎり + の + 명사&gt; (~하는 한의 ~) (例：持てるかぎりの荷物(들 수 있는 한의 짐))
 [참고2] ～かぎりでは (~하는 바로는) (例：君がここにいるかぎりでは(네가 여기 있는 한))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>あの人が謝らないかぎり、私は許しません。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그 사람이 사과하지 않는 한 나는 용서하지 않겠습니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>椅子に編みかけのセーターが置いてあった。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>의자에 뜨다 만 스웨터가 놓여 있었다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～かけの / ～かける (~하다 만 / ~하다 말다, ~할 뻔하다)
 &lt;동사 ます형 + かけの / かける&gt;
 (例：読みかけの本(읽다 만 책)、食べかけのパン(먹다 만 빵)、夕飯を作りかけて(저녁밥을 만들다 말고)、彼は何か言いかけて(그는 뭔가 말하려다 말고)、前の人にぶつかりかけた(앞사람과 부딪칠 뻔했다))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>冷蔵庫のなかの野菜がくさりかけている。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>냉장고 안의 야채가 썩으려고 한다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>つい思ってしまいがちだ。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그만 생각해 버리는 경우가 많다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～がち (자주 ~함, ~하는 경향이 있음)
 &lt;동사 ます형 + がち&gt; &lt;명사 + がち&gt;
 (例：休みがちだ(자주 쉰다)、くもりがち天気(자주 흐린 날씨)、忘れがちになる(자주 잊게 되다))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>病気がちの彼には、こんな激しいスポーツはできない。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>잔병치레가 잦은 그는 이런 과격한 운동은 할 수 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>一つ悪いことがあると、何につけても悪く考えがちになる。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>한 가지 나쁜 일이 있으면 뭐든지 나쁘게 생각하게 된다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ぴかっと光ったかと思ったら、しばらくしてかみなりが鳴った。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>번쩍 빛이 나는가 싶더니 잠시 후에 천둥이 쳤다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～かと思ったら・かと思うと (~(하)나 싶더니 (곧))
 &lt;동사의 과거형 + かと思ったら・かと思うと&gt;
 (例：今勉強を始めたかと思ったら(방금 공부를 시작했나 싶더니)、泣き止んだかと思ったら(울음을 그쳤나 했더니)、出かけたかと思ったら(외출했나 싶더니)、空が暗くなったかと思うと(하늘이 어두워졌나 싶더니))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>娘は「いってきます」と言い終わるか終わらないかのうちに</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>딸은 '다녀오겠습니다'라고 말을 끝내자마자</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～か～ないのうちに (~하자마자)
+&lt;동사 사전형 + ～か～ないかのうちに&gt; &lt;동사의 과거형 + ～か～ないかのうちに&gt;
+(例：家に着くか着かないかのうちに(집에 도착하자마자)、先生の講義が終わるか終わらないかのうちに(선생님의 강의가 끝나자마자)、そう言ったか言わないかのうちに(그렇게 말하자마자))
+≒ たとたん(に) (~한 순간(에))</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼は、問題を見るか見ないかのうちに、もう答えを書き始めていた。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그는 문제를 보자마자 벌써 답을 적기 시작했다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>もう３がつなのに、今日は真冬にでも戻ったかのようだ。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이제 3월인데 오늘은 마치 한겨울로 돌아간 듯하다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～かのようだ ((마치) ~인 듯하다, ~인 것 같다)
+&lt;동사의 과거형 + かのようだ&gt; &lt;동사의 현재진행형 + かのようだ&gt;
+(例：まるで夏になったかのようだ(마치 여름이 된 것 같다)、有名人にでもなったかのようだ(유명인이라도 된 것 같다)、生きているかのようだ(마치 살아 있는 것 같다)、まるですべてを知っているかのようだ(마치 전부 알고 있는 듯하다))</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>明日の夕方から夜にかけて</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>내일 저녁부터 밤에 걸쳐</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～から～にかけて (~부터 ~에 걸쳐)
+(例：おとといから今日にかけて(그저께부터 오늘에 걸쳐)、2月から3月にかけて(2월부터 3월에 걸쳐)、1丁目から3丁目にかけて(1가부터 3가에 걸쳐))
+≒ ～にわたって (~에 걸쳐)</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>日本では、8月の下旬から9月の上旬にかけて台風が多い。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>일본에서는 8월 하순부터 9월 초순에 걸쳐 태풍이 많다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>発達する低気圧の影響で、土曜日の夕方から日曜日の朝にかけて、激しい雨が降るおそれがあります。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>발달하는 저기압의 영향으로 토요일 저녁부터 일요일 아침에 걸쳐 심한 비가 내릴 우려가 있습니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今の状況からいって、このまま計画をすすめるのは無理です。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>지금 상황으로 보건대 이 상태로 계획을 추진하는 것은 무리입니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～から言って・～から言うと (~으로 보아, ~으로 보건대)
 &lt;명사 + ～からいって・～からいうと&gt;
 (例：現象から言って(현상으로 보아)、うちの経済状況から言って(우리의 경제 상황으로 보건대)、私の立場から言うと(내 입장으로 보아))
 ≒ ～から言えば、～からすると・～からすれば (~으로 보아)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>私の経験から言うと、留学はした方がいいよ。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>내 경험으로 보아 유학은 하는 편이 좋아.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼に伝わっていないことからして</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그에게 전해지지 않은 것부터가</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～からして (~부터가)
 &lt;명사 + からして&gt;
 (例：その発想からして(그 발상부터가)、彼の態度からして(그의 태도부터가)、この会社は社長からして(이 회사는 사장부터가)、あの店のパンはにおいからして(그 가게의 빵은 냄새부터가))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>私は彼のことが大嫌いだ。彼の話し方や服装からしてがまんならない。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>나는 그 사람을 무척 싫어한다. 그 사람의 말투나 복장부터가 참을 수 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>実務経験者ということからすると</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>실무 경험자라는 것으로 보아</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～からすると・～からすれば (~으로 보아)
 &lt;명사 + からすると・からすれば&gt;
 (例：話し方からすると(말투로 보아)、さっきの態度からすれば(조금 전의 태도로 보아)、科学の観点からすれば(과학의 관점으로 보아))
 ≒ ～から言って・～から言うと (~으로 보아)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>アクセントからすると、どうやらあの人は外国出身らしい。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>악센트로 보아 아무래도 그 사람은 외국 출신인 것 같다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>親が頭がいいからといって、子どもも必ず頭がいいとはかぎらない。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>부모가 머리가 좋다고 해서 자식도 꼭 머리가 좋다고는 할 수 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～からといって (~라고 해서)
+&lt;～からといって + 부분 부정 표현 (例：～(という)わけではない((~라는) 것은 아니다)、～とはかぎらない(~라고는 할 수 없다)、～とはいえない(~라고는 말할 수 없다))&gt;</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>しばらく連絡がないからといって、そんなに心配することはないよ。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>잠시 연락이 없다고 해서 그렇게 걱정할 필요는 없어.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>いったん仕事を引き受けたからには</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>일단 일을 맡은 이상에는</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～からには (~할 바에는, ~한 이상에는)
 &lt;동사 사전형 + からには&gt; &lt;동사의 과거형 + からには&gt;
 (例：この仕事を引き受けるからには(이 일을 맡을 바에는)、やるからには(할 바에는)、約束したからには(약속한 이상에는)、先生に頼まれたからには(선생님께 부탁받은 이상에는))
 ≒ ～以上は・～うえは (~한 이상에는)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>一度やると決めたからには途中でやめるわけにないかない。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>한번 하겠다고 결정한 이상에는 도중에 그만둘 수는 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>以前と比べると観光客が少し減り気味です。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이전에 비해 관광객이 조금 줄어든 듯합니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～気味 (~기운이 있음, ~경향임)
 &lt;명사 + 気味&gt; &lt;동사 ます형 + 気味&gt;
 (例：風邪気味だから(감기 기운이 있으니까)、疲れ気味だから(조금 피곤한 듯해서)、あせり気味(초조해 하는 기색)、遅れ気味(늦는 경향))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>このところ忙しくて少し疲れ気味だから、今日は早く帰ることにした。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>요즘 바빠서 조금 피곤한 듯해서 오늘은 일찍 들어가기로 했다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>髪は半年前に切ったきり</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>머리는 반년 전에 자른 이래로</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～きり / ～きりだ (~한 이래로 / ~한 채이다, ~했을 뿐이다)
 &lt;동사 과거형 + きり / きりだ&gt;
 (例：出ていったきり(나간 이래로)、卒業した翌年に一度会ったきりだ(졸업한 이듬해에 한 번 만났을 뿐이다)、10年前に習ったきりだ(10년 전에 배웠을 뿐이다))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>あの人は出かけたきり戻ってこなかった。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그 사람은 나간 채 돌아오지 않았다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>本田さんとは3年前に一度会ったきりだ。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>혼다 씨와는 3년 전에 한 번 만났을 뿐이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼はまだ学生のくせに外車をのりまわしているそうだ。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그는 아직 학생인 주제에 외제차를 타고 다닌다고 한다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～くせに (~인 주제에, ~이면서도)
 (例：知らないくせに(알지도 못하는 주제에)、きらいなくせに(싫어하는 주제에)、まだ子どものくせに(아직 어린애인 주제에)、日本に3年もいたくせに(일본에 3년이나 있었으면서도))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼はまだ学生のくせに外車をのりまわしているそうだ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>山田さんは大学で英語を専攻したくせに簡単な挨拶もできない。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그는 아직 학생인 주제에 외제차를 타고 다닌다고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>야마다 씨는 대학에서 영어를 전공했으면서도 간단한 인사도 못한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>近くの公園で子どもたちが楽しげに遊んでいる。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>근처 공원에서 아이들이 즐거운 듯이 놀고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -712,11 +1200,103 @@
       </rPr>
       <t>(의미가 있는 듯이))</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近くの公園で子どもたちが楽しげに遊んでいる。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今年こそ結婚を申し込もう</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>올해야말로 청혼을 해야지</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～こそ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~야말로)
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：こちらこそ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(저야말로)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、今でこそ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(지금에서야말로)) </t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今でこそ一流企業と言われる</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>지금에서야말로 일류기업이라 불리는</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>いつも約束の時間に遅れて迷惑をかけるので、今度こそ、遅刻をしないようにしよう。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>항상 약속 시간에 늦어 폐를 끼치기 때문에 이번에야말로 지각을 하지 않도록 하자.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>一度は経験させたいと願うからこそだ。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>한 번은 경험하게 하고 싶다고 바라기 때문이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -737,118 +1317,30 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t>かっているからこそ(알고 있기 때문에)、あなたのことを思っているからこそ(당신을 생각하기 때문에))</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～こそ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (~야말로)
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>例：こちらこそ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(저야말로)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、今でこそ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">(지금에서야말로)) </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올해야말로 청혼을 해야지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今年こそ結婚を申し込もう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今でこそ一流企業と言われる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いつも約束の時間に遅れて迷惑をかけるので、今度こそ、遅刻をしないようにしよう。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一度は経験させたいと願うからこそだ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>自分の才能を信じ続けてきたからこそ、彼女は成功することができる。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금에서야말로 일류기업이라 불리는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항상 약속 시간에 늦어 폐를 끼치기 때문에 이번에야말로 지각을 하지 않도록 하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 번은 경험하게 하고 싶다고 바라기 때문이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>자신의 재능을 계속 믿어왔기 때문에 그녀는 성공할 수 있었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>どんなに大変なことかわかりました。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>얼마나 힘든지 알았습니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -997,23 +1489,23 @@
       <t>(얼마나 쓸쓸한지))
 ≒ ～ものか (~할까 보냐)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>どんなに大変なことかわかりました。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>日本に来たばかりの時、あなたの親切がどんなにうれしかったことか。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일본에 온 지 얼마 되지 않았을 때, 당신의 친절이 얼마나 기뻤던지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼마나 힘든지 알았습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>腰の曲がった老人に似ているところから</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>허리가 굽은 노인을 닮았다는 점에서</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -1157,39 +1649,39 @@
       </rPr>
       <t>(새우와 닮아서))</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腰の曲がった老人に似ているところから</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>「百」の字から「一」をとると「白」という字になることから</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>百'이라는 글자에서 '一'을 빼면 '白'이라는 글자가 되기 때문에</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>岡田さんは何でもよく知っていることから、友達に「博士」と呼ばれている。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>오카다 씨는 뭐든지 잘 알고 있어서 친구들에게 '박사'라고 불리고 있다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は父親が韓国人であるところから、韓国人の知り合いも多い。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허리가 굽은 노인을 닮았다는 점에서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百'이라는 글자에서 '一'을 빼면 '白'이라는 글자가 되기 때문에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오카다 씨는 뭐든지 잘 알고 있어서 친구들에게 '박사'라고 불리고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 아버지가 한국인이어서 한국인 친구도 많다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>あの人のことだから、どうせ時間どおりには来ないだろう。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그 사람이니까 어차피 시간대로는 오지 않을 것이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -1365,15 +1857,15 @@
       </rPr>
       <t xml:space="preserve"> (~이기 때문에)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>あの人のことだから、どうせ時間どおりには来ないだろう。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 사람이니까 어차피 시간대로는 오지 않을 것이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>失敗をおそれることなく挑戦してほしい。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>실패를 두려워하지 말고 도전해주었으면 한다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -1488,15 +1980,15 @@
       </rPr>
       <t>(신념을 굽히지 않고))</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실패를 두려워하지 말고 도전해주었으면 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失敗をおそれることなく挑戦してほしい。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>不思議なことに</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>신기하게도</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -1625,23 +2117,23 @@
       </rPr>
       <t xml:space="preserve"> (~하게도)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不思議なことに</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>困ったことに、操作ミスでコンピューターが動かなくなってしまった。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신기하게도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>난처하게도 조작 실수로 컴퓨터가 작동하지 않게 되어버렸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今は食事の最中だから、タバコは遠慮したほうがいいですよ。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>지금은 한창 식사 중이니 담배는 삼가는 것이 좋아요.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -1766,15 +2258,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금은 한창 식사 중이니 담배는 삼가는 것이 좋아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今は食事の最中だから、タバコは遠慮したほうがいいですよ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>質問の内容すら</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>질문의 내용조차</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -1979,31 +2471,31 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>質問の内容すら</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今の調子では、予選に出ることさえ難しい。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>지금 상태로는 예선에 나가는 것조차 어렵다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>漢字どころか、ひらがなすら読めない。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문의 내용조차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 상태로는 예선에 나가는 것조차 어렵다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>한자는커녕 히라가나조차 읽지 못한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>事前にリストをしっかり確認さえしておけば</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>사전에 목록을 제대로 확인만 해 두면</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2408,47 +2900,47 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전에 목록을 제대로 확인만 해 두면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>水やりを忘れさえしなければ</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>물 주는 것을 잊지만 않으면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この試合に勝ちさえすれば、オリンピックに出場できる。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 시합에 이기기만 하면 올림픽에 출전할 수 있다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>面白くさえあればどんな本でもけっこうです。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>재밌기만 하면 어떤 책이든 좋습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼女はひまさえあればファッション雑誌を読んでいる。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 틈만 나면 패션 잡지를 읽고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事前にリストをしっかり確認さえしておけば</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水やりを忘れさえしなければ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 시합에 이기기만 하면 올림픽에 출전할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>この試合に勝ちさえすれば、オリンピックに出場できる。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面白くさえあればどんな本でもけっこうです。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼女はひまさえあればファッション雑誌を読んでいる。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今回の事件では会社に問題があったと言わざるをえない。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이번 사건에서는 회사에 문제가 있었다고 말할 수밖에 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2623,95 +3115,31 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번 사건에서는 회사에 문제가 있었다고 말할 수밖에 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今回の事件では会社に問題があったと言わざるをえない。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>2回も同じ間違いをするとは、注意が足りなかったと言わざるをえない。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>두 번이나 같은 실수를 하다니, 주의가 부족했다고 말할 수밖에 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ここまでマスコミにたたかれれば、彼も謝罪せざるをえないだろう。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 정도로 매스컴이 비난하면 그도 사죄할 수밖에 없을 것이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>～次第だ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (~나름이다, ~한 것이다)
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>例：あとは本人次第だ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(나머지는 본인 하기 나름이다)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、私が代わりに来た次第です</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(제가 대신 온 것입니다))</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>安い材料でも工夫次第で</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>저렴한 재료라도 궁리하기에 따라</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2836,55 +3264,95 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安い材料でも工夫次第で</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저렴한 재료라도 궁리하기에 따라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>明日の試合は天気次第では中止になるかも知れない。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>내일 시합은 날씨에 따라서는 중지가 될지도 모른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>先日お伝えした日程に誤りがありましたので、今回改めてご連絡した次第です。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일전에 전해 드린 일정에 착오가 있어 이번에 다시 연락을 드린 것입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先日お伝えした日程に誤りがありましたので、今回改めてご連絡した次第です。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～次第だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~나름이다, ~한 것이다)
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：あとは本人次第だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(나머지는 본인 하기 나름이다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、私が代わりに来た次第です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(제가 대신 온 것입니다))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>約10年の工事の末</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>약 10년의 공사 끝에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>あれこれ悩んだ末に</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러모로 고민한 끝에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>この新しい薬は、何年にもわたる研究の末に作り出されたものだ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 신약은 몇 년에 걸친 연구 끝에 만들어진 것이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2944,7 +3412,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -2966,7 +3434,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3038,7 +3506,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -3066,47 +3534,31 @@
       </rPr>
       <t xml:space="preserve"> (~한 끝에)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>あれこれ悩んだ末に</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>여러모로 고민한 끝에</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この新しい薬は、何年にもわたる研究の末に作り出されたものだ。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 신약은 몇 년에 걸친 연구 끝에 만들어진 것이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼の努力をずっと見てきただけに</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主人が魚屋も経営しているだけあって</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼女は日本に留学していただけあって、日本語がよくできる。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>この家は、さすが金をかけただけに、大地震でも倒れなかった。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼の作業は速くて確実だ。さすがに、ベテランだけのことはある。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그의 노력을 쭉 보아 온 만큼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남편이 생선 가게도 경영하고 있는 만큼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그녀는 일본에 유학했던 만큼 일본어를 아주 잘한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 집은 과연 돈을 들인 만큼 대지진에도 무너지지 않았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그의 작업은 빠르고 확실하다. 과연 베테랑은 다르다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3251,7 +3703,39 @@
       </rPr>
       <t>(고생해서 만든 책인 만큼))</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>主人が魚屋も経営しているだけあって</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>남편이 생선 가게도 경영하고 있는 만큼</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼女は日本に留学していただけあって、日本語がよくできる。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그녀는 일본에 유학했던 만큼 일본어를 아주 잘한다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この家は、さすが金をかけただけに、大地震でも倒れなかった。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 집은 과연 돈을 들인 만큼 대지진에도 무너지지 않았다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼の作業は速くて確実だ。さすがに、ベテランだけのことはある。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그의 작업은 빠르고 확실하다. 과연 베테랑은 다르다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3279,31 +3763,15 @@
       </rPr>
       <t>과연 아나운서 출신은 다르다)、チャンピオンだけのことはある(과연 챔피언이라 할 만하다))</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>病院に行ったところ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠くを見るようにしたところ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>久しぶりにに故郷に帰ってみたところ、すっかり変わっていて少し悲しかった。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>병원에 갔더니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먼 곳을 보도록 했더니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오랜만에 고향에 돌아가 봤더니 완전히 변해있어서 조금 슬펐다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3439,7 +3907,31 @@
       </rPr>
       <t xml:space="preserve"> (~해본들, ~해봤자)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>遠くを見るようにしたところ</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>먼 곳을 보도록 했더니</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>久しぶりにに故郷に帰ってみたところ、すっかり変わっていて少し悲しかった。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>오랜만에 고향에 돌아가 봤더니 완전히 변해있어서 조금 슬펐다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>二人は出会ったとたんに恋に落ちたそうです。</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>두 사람은 만나자마자 사랑에 빠졌다고 합니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3585,33 +4077,1434 @@
       <t>)
 ≒ ～か～ないかのうちに (~하자마자)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二人は出会ったとたんに恋に落ちたそうです。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 사람은 만나자마자 사랑에 빠졌다고 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～ついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~하는 김에)
+&lt;동사 과거형/사전형/진행형 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt; &lt;명사 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 단독으로 부사로 사용&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：駅まで行ったついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(역까지 간 김에)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、夕飯を作るついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(저녁밥을 만드는 김에)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、出張のついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(출장 가는 김에)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">≒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ついでで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~하는 김으로)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～あげく (~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>) [あれこれ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)、さんざん(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몹시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호응</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]
+&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과거형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> + あげく&gt;
+例：悩んだあげく(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고심한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)、困ったあげく(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>난처한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)、考えたあげく(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)
+≒ ～の末に「のすえに」 (~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>さんざん悩んだあげく、思い切って彼女に結婚を申し込むことにした。</t>
+    <rPh sb="4" eb="5">
+      <t>なや</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>買い物のついでに</t>
+    <rPh sb="0" eb="1">
+      <t>か</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>もの</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>コンビニでお弁当を買うついでに、ジュースも買った。</t>
+    <rPh sb="6" eb="8">
+      <t>べんとう</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>か</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ついでに本屋で週刊誌を買ってきて。</t>
+    <rPh sb="4" eb="6">
+      <t>ほんや</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>しゅうかんし</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>쇼핑하는 김에</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>편의점에서 도시락을 사는 김에 주스도 샀다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>가는 김에 서점에서 그 주간지 사다 줘.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～ついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~하는 김에)
+&lt;동사 과거형/사전형/진행형 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt; &lt;명사 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(하는 김에, 단독 사용)&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：駅まで行ったついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(역까지 간 김에)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、夕飯を作るついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(저녁밥을 만드는 김에)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、出張のついでに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(출장 가는 김에)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">≒ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ついでで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~하는 김으로)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～がてら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~할 겸) [부차적인 행동]
+&lt;명사 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>がてら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：散歩がてら、買い物に行こう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(산책할 겸 쇼핑하러 가자)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、広島へ調査旅行がてら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(히로시마에 조사여행을 할 겸)</t>
+    </r>
+    <rPh sb="33" eb="34">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>さんぽ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>か</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>もの</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>い</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ひろしま</t>
+    </rPh>
+    <rPh sb="67" eb="71">
+      <t>ちょうさりょこう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～をかねて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~을 겸해서) [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>兼ねる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(겸하다)의 문법화]
+&lt;명사 + をかねて&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：買い物をかねて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(쇼핑을 겸해)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、観光と市場調査をかねて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(관광과 시장 조사를 겸해)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、ドライブをかねて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(드라이브를 겸해)</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>か</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>か</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>もの</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>かんこう</t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t>しじょうちょうさ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>차를 사서 드라이브를 겸해 고향에 계신 부모님집에 갔다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>개와 산책할 겸 우체국에 들려 우표를 샀다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>車を買ったので、ドライブをかねてふるさとの両親の家に行った。</t>
+    <rPh sb="0" eb="1">
+      <t>くるま</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>か</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>りょうしん</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>いえ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>犬と散歩がてら郵便局に寄って切手を買った。</t>
+    <rPh sb="0" eb="1">
+      <t>いぬ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>さんぽ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ゆうびんきょく</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>よ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>きって</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～っけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~던가, ~였더라)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&lt;명사의 과거형 + っけ＞ &lt;동사의 과거형 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>っけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：今日は日曜日だっけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(오늘이 일요일이던가?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、あの人、林さんと言ったっけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(그 사람, 하야시 씨라고 했던가?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、先生のお宅はどこだったっけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(선생님 댁이 어디였더라?)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、いつからだっけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(언제부터였더라?)</t>
+    </r>
+    <rPh sb="46" eb="47">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>きょう</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>にちようび</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>はやし</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>い</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>せんせい</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>たく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>えっ？今日が大学入試でしたっけ。</t>
+    <rPh sb="3" eb="5">
+      <t>きょう</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>だいがくにゅうし</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>네? 오늘이 대학 입학 시험이었던가요?</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～っこない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~할 리 없다)
+&lt;동사 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">형 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>っこない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>例：私の気持ちはわかりっこない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(내 마음은 알 리가 없다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、いくら買っても当たりっこない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(아무리 사도 당첨될 리 없다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、恋人なんかできっこない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(애인따위 생길 리 없다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+≒ ～わけがない・～はずがない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~(일/할) 리가 없다)</t>
+    </r>
+    <rPh sb="32" eb="33">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>きも</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>か</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>あ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>こいびと</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>야마모토 씨에게 부탁해 봤자 해 줄 리 없어.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>山本さんに頼んだってやってくれっこないよ。</t>
+    <rPh sb="0" eb="2">
+      <t>やまもと</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>たの</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3626,7 +5519,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3666,6 +5559,27 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕 Semilight"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3689,7 +5603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3705,7 +5619,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4042,554 +5959,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE3EC4-AD3B-4030-96E8-1E76FF9B4BDB}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.149999999999999"/>
+  <sheetFormatPr defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="61.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="61.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="100" style="2" customWidth="1"/>
     <col min="4" max="4" width="58.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="76.5">
+    <row r="1" spans="1:3" ht="78">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="78">
+      <c r="A2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="78">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="78">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="97.5">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="97.5">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="117">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="97.5">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="117">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="117">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="78">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="78">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="97.5">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="78">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="156">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="156">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="78">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="78">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="58.5">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="58.5">
+      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="58.5">
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="78">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="97.5">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="97.5">
+      <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="97.5">
+      <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="78">
+      <c r="A26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="78">
+      <c r="A27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="78">
+      <c r="A28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="97.5">
+      <c r="A29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="97.5">
+      <c r="A30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="78">
+      <c r="A31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="78">
+      <c r="A32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="97.5">
+      <c r="A33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="97.5">
+      <c r="A34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="58.5">
+      <c r="A35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="58.5">
+      <c r="A36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="97.5">
+      <c r="A37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="76.5">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="76.5">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="76.5">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="95.65">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="38" spans="1:3" ht="97.5">
+      <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="95.65">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="114.75">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="95.65">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="95.65">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="78">
+      <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="95.65">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="76.5">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="76.5">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="95.65">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="76.5">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="153">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="40" spans="1:3" ht="78">
+      <c r="A40" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="153">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="76.5">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="76.5">
-      <c r="A18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="57.4">
-      <c r="A19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="78">
+      <c r="A41" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="57.4">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="57.4">
-      <c r="A21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="76.5">
-      <c r="A22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="95.65">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="95.65">
-      <c r="A24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="95.65">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="76.5">
-      <c r="A26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="76.5">
-      <c r="A27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="76.5">
-      <c r="A28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="95.65">
-      <c r="A29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="95.65">
-      <c r="A30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    <row r="42" spans="1:3" ht="78">
+      <c r="A42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="76.5">
-      <c r="A31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="76.5">
-      <c r="A32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="95.65">
-      <c r="A33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="95.65">
-      <c r="A34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="57.4">
-      <c r="A35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="57.4">
-      <c r="A36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="95.65">
-      <c r="A37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    <row r="43" spans="1:3" ht="78">
+      <c r="A43" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="95.65">
-      <c r="A38" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="76.5">
-      <c r="A39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="76.5">
-      <c r="A40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="76.5">
-      <c r="A41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="58.5">
+      <c r="A44" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="76.5">
-      <c r="A42" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="76.5">
-      <c r="A43" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="57.4">
-      <c r="A44" s="4" t="s">
+      <c r="B44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="57.4">
+    </row>
+    <row r="45" spans="1:3" ht="58.5">
       <c r="A45" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="58.5">
+      <c r="A46" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="59.65">
-      <c r="A46" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="39.75">
+    <row r="47" spans="1:3" ht="39">
       <c r="A47" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="39.75">
+    <row r="48" spans="1:3" ht="39">
       <c r="A48" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="39.75">
+    <row r="49" spans="1:3" ht="39">
       <c r="A49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>120</v>
@@ -4599,433 +6516,510 @@
       <c r="A50" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>129</v>
+      <c r="B50" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="39">
       <c r="A51" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="95.25">
+      <c r="A52" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="97.9">
-      <c r="A52" s="4" t="s">
+      <c r="B52" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="97.9">
+    </row>
+    <row r="53" spans="1:3" ht="95.25">
       <c r="A53" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="79.5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="78">
       <c r="A54" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="79.5">
+    </row>
+    <row r="55" spans="1:3" ht="78">
       <c r="A55" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="78">
+      <c r="A56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="78">
+      <c r="A57" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="79.5">
-      <c r="A56" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="79.5">
-      <c r="A57" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="97.5">
+      <c r="A58" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="99.4">
-      <c r="A58" s="4" t="s">
+      <c r="B58" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="78">
+      <c r="A59" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="79.5">
-      <c r="A59" s="4" t="s">
+      <c r="B59" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="93">
+      <c r="A60" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="97.15">
-      <c r="A60" s="4" t="s">
+      <c r="B60" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="97.15">
+    </row>
+    <row r="61" spans="1:3" ht="93">
       <c r="A61" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="75.75">
+      <c r="A62" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="78.75">
-      <c r="A62" s="4" t="s">
+      <c r="B62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="78">
+      <c r="A63" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="79.5">
-      <c r="A63" s="4" t="s">
+      <c r="B63" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="79.5">
+    </row>
+    <row r="64" spans="1:3" ht="78">
       <c r="A64" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="78">
+      <c r="A65" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="79.5">
-      <c r="A65" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="136.5">
+      <c r="A66" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="139.15">
-      <c r="A66" s="4" t="s">
+      <c r="B66" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="136.5">
+      <c r="A67" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="136.5">
+      <c r="A68" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="139.15">
-      <c r="A67" s="4" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="136.5">
+      <c r="A69" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="139.15">
-      <c r="A68" s="4" t="s">
+      <c r="B69" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="136.5">
+      <c r="A70" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="139.15">
-      <c r="A69" s="4" t="s">
+      <c r="B70" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="139.15">
-      <c r="A70" s="4" t="s">
+      <c r="C70" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="78">
+      <c r="A71" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="79.5">
-      <c r="A71" s="4" t="s">
+      <c r="B71" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="78">
+      <c r="A72" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="79.5">
-      <c r="A72" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="78">
+      <c r="A73" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="79.5">
-      <c r="A73" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="75.75">
+      <c r="A74" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="78.75">
-      <c r="A74" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>187</v>
+      <c r="B74" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="78.75">
+    <row r="75" spans="1:3" ht="75.75">
       <c r="A75" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="39.75">
+    <row r="76" spans="1:3" ht="39">
       <c r="A76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="97.5">
+      <c r="A77" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="98.65">
-      <c r="A77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="98.65">
+    </row>
+    <row r="78" spans="1:3" ht="97.5">
       <c r="A78" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="5" t="s">
         <v>195</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="98.65">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="97.5">
       <c r="A79" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="5" t="s">
         <v>197</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="95.25">
+      <c r="A80" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="98.65">
-      <c r="A80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="95.25">
+      <c r="A81" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="95.25">
+      <c r="A82" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C82" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="95.25">
+      <c r="A83" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="75.75">
+      <c r="A84" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="98.65">
-      <c r="A81" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="98.65">
-      <c r="A82" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="98.65">
-      <c r="A83" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="77.25">
-      <c r="A84" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C84" s="2" t="s">
+    <row r="85" spans="1:3" ht="97.5">
+      <c r="A85" s="4" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="99.4">
-      <c r="A85" s="4" t="s">
+      <c r="B85" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="97.5">
+      <c r="A86" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="97.5">
+      <c r="A87" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="93">
+      <c r="A88" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="99.4">
-      <c r="A86" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="99.4">
-      <c r="A87" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="97.9">
-      <c r="A88" s="4" t="s">
+      <c r="B88" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B88" s="2" t="s">
+    </row>
+    <row r="89" spans="1:3" ht="95.25">
+      <c r="A89" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>218</v>
+    </row>
+    <row r="90" spans="1:3" ht="95.25">
+      <c r="A90" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="95.25">
+      <c r="A91" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="73.5">
+      <c r="A92" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="75.75">
+      <c r="A93" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="78">
+      <c r="A94" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="97.5">
+      <c r="A95" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/anki_deque/darakwon_n2_grammar.xlsx
+++ b/anki_deque/darakwon_n2_grammar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BFB5ED-2B35-4768-89D3-B773BCD69B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44B3D21-A6B3-4237-90C4-B483B6A35EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="372">
   <si>
     <t>あれこれ質問にこたえさせられたあげく</t>
     <rPh sb="4" eb="6">
@@ -49,13 +49,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～あげく (~한 끝에) [あれこれ(여러 가지로)、さんざん(몹시) 등과 호응]
-&lt;동사 과거형 + あげく&gt;
-(例：悩んだあげく(고심한 끝에)、困ったあげく(난처한 끝에)、考えたあげく(생각한 끝에))
-≒ ～の末に「のすえに」 (~한 끝에)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>몹시 고심한 끝에 과감히 그녀에게 청혼을 하기로 했다.</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -90,13 +83,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～一方だ「いっぽうだ」((오로지) ~할 뿐이다, ~하기만 하다)
-&lt;동사 사전형 + 一方だ&gt;
-(例：増える一方だ(늘어나기만 한다)、減る一方だ(줄어들기만 한다)、失業率はあがる一方だ(실업률은 올라가기만 한다))
-≒ ～ばかりだ (~하기만 하다)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>周囲の期待は高まる一方だ。</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -110,13 +96,6 @@
   </si>
   <si>
     <t>이 근처는 물가가 비싼 데다가 교통도 불편하기 때문에 살기 불편하다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～うえ(に) (~인 데다가)
-&lt;な형용사/い형용사 + うえ(に)&gt; &lt;명사 + の + うえ(に)&gt; &lt;동사 과거형(～た) + うえ(に)&gt; &lt;동사 사전형 + うえ(に)&gt;
-(例：面倒なうえに(귀찮은 데다가)、責任感が強いうえに(책임감이 강한 데다가)、練習不足のうえに(연습 부족인 데다가)、事業に失敗した上に(사업에 실패한 데다가)、よく効くうえに(잘 듣는 데다가))
-≒ ~上 (~상)</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
@@ -143,25 +122,11 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～うちに (~하는 동안에, ~중에, ~할 때에)
-&lt;うち가 명사 역할&gt;
-(例：その日のうちに(그날 중으로)、暖かいうちに(따뜻할 때에)、両親が元気なうちに(부모님이 건강할 때에)、テレビを見ているうちに(텔레비전을 보고 있는 동안에)、手紙を読んでいるうちに(편지를 읽고 있는 중에))
-[참고] ～うちは (~할 때에는) (例：若いうちは(젊을 때에는)、体が健康なうちは(몸이 건강할 때에는))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>CMなどで何度か見ているうちに</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>광고 방송 등에서 몇 번인가 보는 동안에</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～うちに (~하는 동안에, ~중에, ~할 때에)
-&lt;うち가 명사 역할이므로 그에 준하는 접속&gt;
-(例：その日のうちに(그날 중으로)、暖かいうちに(따뜻할 때에)、両親が元気なうちに(부모님이 건강할 때에)、テレビを見ているうちに(텔레비전을 보고 있는 동안에)、手紙を読んでいるうちに(편지를 읽고 있는 중에))
-[참고] ～うちは (~할 때에는) (例：若いうちは(젊을 때에는)、体が健康なうちは(몸이 건강할 때에는))</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
@@ -195,13 +160,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～うる・える / ～えない (~할 수 있다 / ~할 수 없다)
-&lt;동사 ます형 + うる・える / えない&gt;
-(例：考えうる(생각할 수 있다)、理解しうる(이해할 수 있다)、ありえない(있을 수 없다)、判定しえない(판정할 수 없다))
-≒ やむをえない (어쩔 수 없다, 하는 수 없다)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>大雨で裏山がくずれるおそれがあるため、近くの公民館に避難した。</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -224,15 +182,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～かぎり / ～ないかぎり (~하는 한 / ~하지 않는 한)
-&lt;동사의 보통체형 + かぎり&gt; &lt;동사의 부정형 + ないかぎり&gt;
-(例：できるかぎり(가능한 한)、私が知っているかぎり(내가 알고 있는 한)、ストライキが続くかぎり(파업이 계속되는 한))
-(例：何か対策を立てないかぎり(뭔가 대책을 세우지 않는 한)、夜遅く一人で歩かないかぎり(밤늦게 혼자서 걷지 않는 한))
-[참고] &lt;～かぎり + の + 명사&gt; (~하는 한의 ~) (例：持てるかぎりの荷物(들 수 있는 한의 짐))
-[참고2] ～かぎりでは (~하는 바로는) (例：君がここにいるかぎりでは(네가 여기 있는 한))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>あの人が謝らないかぎり、私は許しません。</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -249,12 +198,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～かけの / ～かける (~하다 만 / ~하다 말다, ~할 뻔하다)
-&lt;동사 ます형 + かけの / かける&gt;
-(例：読みかけの本(읽다 만 책)、食べかけのパン(먹다 만 빵)、夕飯を作りかけて(저녁밥을 만들다 말고)、彼は何か言いかけて(그는 뭔가 말하려다 말고)、前の人にぶつかりかけた(앞사람과 부딪칠 뻔했다))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>冷蔵庫のなかの野菜がくさりかけている。</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -271,12 +214,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～がち (자주 ~함, ~하는 경향이 있음)
-&lt;동사 ます형 + がち&gt; &lt;명사 + がち&gt;
-(例：休みがちだ(자주 쉰다)、くもりがち天気(자주 흐린 날씨)、忘れがちになる(자주 잊게 되다))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>病気がちの彼には、こんな激しいスポーツはできない。</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -298,12 +235,6 @@
   </si>
   <si>
     <t>번쩍 빛이 나는가 싶더니 잠시 후에 천둥이 쳤다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～かと思ったら・かと思うと (~(하)나 싶더니 (곧))
-&lt;동사의 과거형 + かと思ったら・かと思うと&gt;
-(例：今勉強を始めたかと思ったら(방금 공부를 시작했나 싶더니)、泣き止んだかと思ったら(울음을 그쳤나 했더니)、出かけたかと思ったら(외출했나 싶더니)、空が暗くなったかと思うと(하늘이 어두워졌나 싶더니))</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
@@ -382,13 +313,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～から言って・～から言うと (~으로 보아, ~으로 보건대)
-&lt;명사 + ～からいって・～からいうと&gt;
-(例：現象から言って(현상으로 보아)、うちの経済状況から言って(우리의 경제 상황으로 보건대)、私の立場から言うと(내 입장으로 보아))
-≒ ～から言えば、～からすると・～からすれば (~으로 보아)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>私の経験から言うと、留学はした方がいいよ。</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -405,12 +329,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～からして (~부터가)
-&lt;명사 + からして&gt;
-(例：その発想からして(그 발상부터가)、彼の態度からして(그의 태도부터가)、この会社は社長からして(이 회사는 사장부터가)、あの店のパンはにおいからして(그 가게의 빵은 냄새부터가))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>私は彼のことが大嫌いだ。彼の話し方や服装からしてがまんならない。</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -424,13 +342,6 @@
   </si>
   <si>
     <t>실무 경험자라는 것으로 보아</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～からすると・～からすれば (~으로 보아)
-&lt;명사 + からすると・からすれば&gt;
-(例：話し方からすると(말투로 보아)、さっきの態度からすれば(조금 전의 태도로 보아)、科学の観点からすれば(과학의 관점으로 보아))
-≒ ～から言って・～から言うと (~으로 보아)</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
@@ -471,13 +382,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～からには (~할 바에는, ~한 이상에는)
-&lt;동사 사전형 + からには&gt; &lt;동사의 과거형 + からには&gt;
-(例：この仕事を引き受けるからには(이 일을 맡을 바에는)、やるからには(할 바에는)、約束したからには(약속한 이상에는)、先生に頼まれたからには(선생님께 부탁받은 이상에는))
-≒ ～以上は・～うえは (~한 이상에는)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>一度やると決めたからには途中でやめるわけにないかない。</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -494,12 +398,6 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～気味 (~기운이 있음, ~경향임)
-&lt;명사 + 気味&gt; &lt;동사 ます형 + 気味&gt;
-(例：風邪気味だから(감기 기운이 있으니까)、疲れ気味だから(조금 피곤한 듯해서)、あせり気味(초조해 하는 기색)、遅れ気味(늦는 경향))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
     <t>このところ忙しくて少し疲れ気味だから、今日は早く帰ることにした。</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -513,12 +411,6 @@
   </si>
   <si>
     <t>머리는 반년 전에 자른 이래로</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～きり / ～きりだ (~한 이래로 / ~한 채이다, ~했을 뿐이다)
-&lt;동사 과거형 + きり / きりだ&gt;
-(例：出ていったきり(나간 이래로)、卒業した翌年に一度会ったきりだ(졸업한 이듬해에 한 번 만났을 뿐이다)、10年前に習ったきりだ(10년 전에 배웠을 뿐이다))</t>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
@@ -1394,79 +1286,333 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>～(の)ことだから (~의 일이니까, ~이니까)
-&lt;명사 + の + ことだから&gt;
-(例：時間に正確な彼女のことだから(시간에 정확한 그녀이니까)、有能な鈴木君のことだから(유능한 스즈키 군이니까)、真面目なあの人のことだから(성실한 그 사람이니))
-≒ ～ものだから (~이기 때문에)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～最中「さいちゅう」(한창 ~중)
-&lt;동사 진행형(ている) + 最中&gt; &lt;最中가 명사이므로 그에 준하는 접속&gt;
-(例：会議の最中に(한창 회의 중에)、電話している最中に(한창 전화하고 있는 중에)、今検討している最中だ(지금 한창 검토하고 있는 중이다))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～さえ(にさえ・でさえ)・～すら (~조차, ~마저, ~도)
-&lt;명사 + さえ・すら&gt;
-(例：あいさつさえ(인사조차)、大学生にさえ(대학생조차)、温厚なあの人でさえ(온화한 그 사람도)、食事すら(식사조차)、名前すら知らない(이름도 모른다))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～さえ～ば (~만 ~하면)
-&lt;동사 ます형 + さえすれば&gt; &lt;동사 て형 + さえいれば&gt; &lt;い형용사(い삭제) + くさえあれば&gt; &lt;な형용사(な삭제) + でさえあれば&gt;
-(例：白でさえあれば(흰색이기만 하면)、天気さえよければ(날씨만 좋으면)、電話番号さえわかれば(전화번호만 알면)、雨がやみさえすれば(비가 그치기만 하면)、薬を飲みさえすれ(약을 먹기만 하면)、だまってさえいれば(잠자코 있기만 하면)、新聞に名前さえ出なければ(신문에 이름만 나오지 않으면)、安くさえあれば(싸기만 하면)、ひまさえあれば(틈만 있으면)、衣類は丈夫でさえあれば(옷은 튼튼하기만 하면))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～ざるをえない (~할 수밖에 없다, ~해야만 한다)
-&lt;동사 ない형 + ざるをえない&gt; &lt;する → せざるをえない&gt;
-(例：漢字を覚えざるをえない(한자를 외워야만 한다)、行くのをあきらめざるをえない(가는 것을 단념할 수밖에 없다)、値下げせざるをえない(가격을 내릴 수밖에 없다))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～次第では (~에 따라서(는))
-&lt;명사 + 次第では&gt;
-(例：先生のご都合次第では(선생님의 사정에 따라서는)、頼み方次第では(부탁하기에 따라서는)、成績次第では(성적에 따라서는)、検査の結果次第では(검사 결과에 따라서는))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～次第だ (~나름이다, ~한 것이다)
-(例：あとは本人次第だ(나머지는 본인 하기 나름이다)、私が代わりに来た次第です(제가 대신 온 것입니다))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～だけあって・～だけに ((과연) ~인 만큼)
-&lt;명사 + だけあって・だけに&gt;
-(例：チームのキャプテンだけあって(팀의 주장인 만큼)、日本に住んでいただけあって(일본에 살았던 만큼)、長い間楽しみに待っていただけに(오랫동안 낙으로 기다리고 있었던 만큼)、苦労して作った本だけに(고생해서 만든 책인 만큼))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～たところ (~했더니)
-&lt;동사 과거형(～た) + たところ&gt;
-(例：会場の問い合わせをしたところ(모임 장소를 문의했더니)、電話帳で調べたところ(전화번호부에서 찾아봤더니)、先生のお宅へうかがったところ(선생님 댁으로 찾아뵈었더니))
-≒ ～たところで (~해본들, ~해봤자)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～たとたん(に) (~한 순간(에), ~하자마자)
-&lt;동사 과거형(～た) + たとたん(に)&gt;
-(例：写真を見たとたん(사진을 보자마자)、椅子から立ったとたん(의자에서 일어난 순간)、窓を開けたとたんに(창문을 연 순간에)、家を出たとたんに(집을 나서자마자))
-≒ ～か～ないかのうちに (~하자마자)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～ついでに (~하는 김에)
-&lt;동사 과거형/사전형/진행형 + ついでに&gt; &lt;명사 + の + ついでに&gt; &lt;ついでに 단독으로 부사로 사용&gt;
-例：駅まで行ったついでに(역까지 간 김에)、夕飯を作るついでに(저녁밥을 만드는 김에)、出張のついでに(출장 가는 김에)
-≒ ついでで (~하는 김으로)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～ついでに (~하는 김에)
-&lt;동사 과거형/사전형/진행형 + ついでに&gt; &lt;명사 + の + ついでに&gt; &lt;ついでに(하는 김에, 단독 사용)&gt;
-例：駅まで行ったついでに(역까지 간 김에)、夕飯を作るついでに(저녁밥을 만드는 김에)、出張のついでに(출장 가는 김에)
-≒ ついでで (~하는 김으로)</t>
+    <t>시험 결과가 너무 걱정된다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>친구에게 몇 번이고 전화를 했지만 연결이 되지 않는다. 무슨 일이 있었는지 걱정이 되어 견딜 수 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>試験の結果が気になってならない。</t>
+    <rPh sb="0" eb="2">
+      <t>しけん</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>けっか</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>き</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>友達に何度も電話をしたがつながらない。何かあったのか心配でならない。</t>
+    <rPh sb="0" eb="2">
+      <t>ともだち</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>なんど</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>でんわ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>なに</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>しんぱい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>風が強かったから、外に落ちちゃったんじゃない？</t>
+    <rPh sb="0" eb="1">
+      <t>かぜ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>つよ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>そと</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>お</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>生活に欠かせない道具として定着したといえるのではないか</t>
+    <rPh sb="0" eb="2">
+      <t>せいかつ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>か</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>どうぐ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ていちゃく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今ここにいるわけないじゃない？</t>
+    <rPh sb="0" eb="1">
+      <t>いま</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>つい食べ過ぎてしまうという人も多いのではないか</t>
+    <rPh sb="2" eb="3">
+      <t>た</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>す</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>おお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A：あいつ、彼女でもできたんじゃないか。
+B：そういえば最近ファッションにこだわってるな。</t>
+    <rPh sb="6" eb="8">
+      <t>かのじょ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>さいきん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A：真っ青な顔して、どこか悪いんじゃないの？
+B：いや、どこも悪くないさ。</t>
+    <rPh sb="2" eb="3">
+      <t>ま</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>さお</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>かお</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>わる</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>わる</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>바람이 강했으니까 밖에 떨어진 게 아닐까?</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>생활에 빠뜨릴 수 없는 도구로써 정착했다고 할 수 있지 않을까?</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>지금 여기에 있을 리가 없잖아?</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그만 과식을 하고 만다는 사람도 많지 않을까?</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A : 그 녀석, 여자친구라도 생긴 게 아닐까?
+B : 그러고 보니 요즘 패션에 무척 신경 쓰고 있어.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A : 얼굴이 창백한데, 어디 안 좋은 거 아니야?
+B : 아니, 아픈 데 없어.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>예전에는 신혼여행이라고 하면 하와이를 떠올리는 사람이 많았다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>일본이라 하면 나는 후지산을 연상합니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>昔は新婚旅行というと、ハワイを思い出す人が多かった。</t>
+    <rPh sb="0" eb="1">
+      <t>むかし</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>しんこんりょこう</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>おも</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>だ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>おお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>日本といえば、私は富士山を連想します。</t>
+    <rPh sb="0" eb="2">
+      <t>にほん</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ふじさん</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>れんそう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>혈액형을 알면 대략적인 성격도 알 수 있다는 것입니다</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>임금을 배로 해 달라고 하는 것은 터무니없는 요구라는 것이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>血液型が分かれば大体の性格も分かるというものです。</t>
+    <rPh sb="0" eb="3">
+      <t>けつえきがた</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>わ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>だいたい</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>せいかく</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>わ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>賃金を倍にしてほしいなどと言うのは、不法な要求というものだ。</t>
+    <rPh sb="0" eb="2">
+      <t>ちんぎん</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ばい</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>い</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ふほう</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ようきゅう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>승부는 이기면 그만이 아니다, 어떤 식으로 이겼는가가 중요하다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>勝負は勝てばよいというものではない。どんな勝ち方をしたのかが重要だ。</t>
+    <rPh sb="0" eb="2">
+      <t>しょうぶ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>か</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>か</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>かた</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>じゅうよう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>역에서 집까지 버스를 타지 않고 걷는 것은 절약이라기보다 건강을 위해서이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>駅から家までバスに乗らず歩くのは、節約というより健康のためだ。</t>
+    <rPh sb="0" eb="1">
+      <t>えき</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>いえ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>の</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ある</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>せつやく</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>けんこう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>한마디로 카레라이스라고 해도</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>요리를 할 수 있다고 해도 계란말이 정도입니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ひとくちにカレーライスといっても</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>料理ができるといっても、たまごやきぐらいです。</t>
+    <rPh sb="0" eb="2">
+      <t>りょうり</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～というものだ (~라는 것이다)
+例：それはわがままというものだ(~그건 제멋대로라는 것이다)、それが大人というものだ(그것이 어른이라는 것이다)、それでは不公平というものだ(이래서는 불공평하다는 것이다)、それは非常識というものだ(그건 몰상식하다는 것이다)
+≒ ということだ (~라고 한다)</t>
+    <rPh sb="18" eb="19">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>おとな</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>ふこうへい</t>
+    </rPh>
+    <rPh sb="111" eb="114">
+      <t>ひじょうしき</t>
+    </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
@@ -1477,32 +1623,141 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>한 끝에) [あれこれ(여러 가지로)、さんざん(몹시) 등과 호응]
 &lt;동사 과거형 + あげく&gt;
-例：悩んだあげく(고심한 끝에)、困ったあげく(난처한 끝에)、考えたあげく(생각한 끝에)
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>悩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>んだあげく(고심한 끝에)、困ったあげく(난처한 끝에)、考えたあげく(생각한 끝에)
 ≒ ～の末に「のすえに」 (~한 끝에)</t>
     </r>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
+      <t>～あげく (~한 끝에) [あれこれ(여러 가지로)、さんざん(몹시) 등과 호응]
+&lt;동사 과거형 + あげく&gt;
+(例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>悩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>んだあげく(고심한 끝에)、困ったあげく(난처한 끝에)、考えたあげく(생각한 끝에))
+≒ ～の末に「のすえに」 (~한 끝에)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
       <t>～一方で (~</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>하는 한편으로) [어떤 사항에 대해 두 가지 면을 대비시켜 나타낼 때]
 &lt;동사 사전형 + 一方で&gt;
-(例：収入が減る一方で(수입이 줄어드는 한편으로)、平均寿命がのびる一方で(평균 수명이 늘어나는 한편으로)、子供を厳しくしかる一方で(자식을 엄하게 꾸짖는 한편으로))</t>
+(例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>収</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>入が減る一方で(수입이 줄어드는 한편으로)、平均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>寿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>命がのびる一方で(평균 수명이 늘어나는 한편으로)、子供を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>厳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>しくしかる一方で(자식을 엄하게 꾸짖는 한편으로))</t>
     </r>
     <rPh sb="1" eb="3">
       <t>いっぽう</t>
@@ -1511,6 +1766,1017 @@
   </si>
   <si>
     <r>
+      <t>～一方だ「いっぽうだ」((오로지) ~할 뿐이다, ~하기만 하다)
+&lt;동사 사전형 + 一方だ&gt;
+(例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>増</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>える一方だ(늘어나기만 한다)、減る一方だ(줄어들기만 한다)、失業率はあがる一方だ(실업률은 올라가기만 한다))
+≒ ～ばかりだ (~하기만 하다)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～うえ(に) (~인 데다가)
+&lt;な형용사/い형용사 + うえ(に)&gt; &lt;명사 + の + うえ(に)&gt; &lt;동사 과거형(～た) + うえ(に)&gt; &lt;동사 사전형 + うえ(に)&gt;
+(例：面倒なうえに(귀찮은 데다가)、責任感が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>いうえに(책임감이 강한 데다가)、練習不足のうえに(연습 부족인 데다가)、事業に失敗した上に(사업에 실패한 데다가)、よく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>効</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>くうえに(잘 듣는 데다가))
+≒ ~上 (~상)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～うちに (~하는 동안에, ~중에, ~할 때에)
+&lt;うち가 명사 역할&gt;
+(例：その日のうちに(그날 중으로)、暖かいうちに(따뜻할 때에)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>両</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>親が元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>なうちに(부모님이 건강할 때에)、テレビを見ているうちに(텔레비전을 보고 있는 동안에)、手紙を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>読</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>んでいるうちに(편지를 읽고 있는 중에))
+[참고] ～うちは (~할 때에는) (例：若いうちは(젊을 때에는)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>が健康なうちは(몸이 건강할 때에는))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～うちに (~하는 동안에, ~중에, ~할 때에)
+&lt;うち가 명사 역할이므로 그에 준하는 접속&gt;
+(例：その日のうちに(그날 중으로)、暖かいうちに(따뜻할 때에)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>両</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>親が元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>なうちに(부모님이 건강할 때에)、テレビを見ているうちに(텔레비전을 보고 있는 동안에)、手紙を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>読</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>んでいるうちに(편지를 읽고 있는 중에))
+[참고] ～うちは (~할 때에는) (例：若いうちは(젊을 때에는)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>が健康なうちは(몸이 건강할 때에는))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～うる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>える / ～えない (~할 수 있다 / ~할 수 없다)
+&lt;동사 ます형 + うる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>える / えない&gt;
+(例：考えうる(생각할 수 있다)、理解しうる(이해할 수 있다)、ありえない(있을 수 없다)、判定しえない(판정할 수 없다))
+≒ やむをえない (어쩔 수 없다, 하는 수 없다)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～かぎり / ～ないかぎり (~하는 한 / ~하지 않는 한)
+&lt;동사의 보통체형 + かぎり&gt; &lt;동사의 부정형 + ないかぎり&gt;
+(例：できるかぎり(가능한 한)、私が知っているかぎり(내가 알고 있는 한)、ストライキが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>くかぎり(파업이 계속되는 한))
+(例：何か</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>対</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>策を立てないかぎり(뭔가 대책을 세우지 않는 한)、夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>遅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>く一人で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>歩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>かないかぎり(밤늦게 혼자서 걷지 않는 한))
+[참고] &lt;～かぎり + の + 명사&gt; (~하는 한의 ~) (例：持てるかぎりの荷物(들 수 있는 한의 짐))
+[참고2] ～かぎりでは (~하는 바로는) (例：君がここにいるかぎりでは(네가 여기 있는 한))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～かけの / ～かける (~하다 만 / ~하다 말다, ~할 뻔하다)
+&lt;동사 ます형 + かけの / かける&gt;
+(例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>読</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>みかけの本(읽다 만 책)、食べかけのパン(먹다 만 빵)、夕飯を作りかけて(저녁밥을 만들다 말고)、彼は何か言いかけて(그는 뭔가 말하려다 말고)、前の人にぶつかりかけた(앞사람과 부딪칠 뻔했다))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～がち (자주 ~함, ~하는 경향이 있음)
+&lt;동사 ます형 + がち&gt; &lt;명사 + がち&gt;
+(例：休みがちだ(자주 쉰다)、くもりがち天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(자주 흐린 날씨)、忘れがちになる(자주 잊게 되다))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～かと思ったら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>かと思うと (~(하)나 싶더니 (곧))
+&lt;동사의 과거형 + かと思ったら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>かと思うと&gt;
+(例：今勉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>を始めたかと思ったら(방금 공부를 시작했나 싶더니)、泣き止んだかと思ったら(울음을 그쳤나 했더니)、出かけたかと思ったら(외출했나 싶더니)、空が暗くなったかと思うと(하늘이 어두워졌나 싶더니))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～から言って</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～から言うと (~으로 보아, ~으로 보건대)
+&lt;명사 + ～からいって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～からいうと&gt;
+(例：現象から言って(현상으로 보아)、うちの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>経済状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>況から言って(우리의 경제 상황으로 보건대)、私の立場から言うと(내 입장으로 보아))
+≒ ～から言えば、～からすると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～からすれば (~으로 보아)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～からして (~부터가)
+&lt;명사 + からして&gt;
+(例：その</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>発</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>想からして(그 발상부터가)、彼の態度からして(그의 태도부터가)、この</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>社は社長からして(이 회사는 사장부터가)、あの店のパンはにおいからして(그 가게의 빵은 냄새부터가))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～からすると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～からすれば (~으로 보아)
+&lt;명사 + からすると</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>からすれば&gt;
+(例：話し方からすると(말투로 보아)、さっきの態度からすれば(조금 전의 태도로 보아)、科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>観</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>点からすれば(과학의 관점으로 보아))
+≒ ～から言って</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～から言うと (~으로 보아)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～からには (~할 바에는, ~한 이상에는)
+&lt;동사 사전형 + からには&gt; &lt;동사의 과거형 + からには&gt;
+(例：この仕事を引き受けるからには(이 일을 맡을 바에는)、やるからには(할 바에는)、約束したからには(약속한 이상에는)、先生に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>頼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>まれたからには(선생님께 부탁받은 이상에는))
+≒ ～以上は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～うえは (~한 이상에는)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">味 (~기운이 있음, ~경향임)
+&lt;명사 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">味&gt; &lt;동사 ます형 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>味&gt;
+(例：風邪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>味だから(감기 기운이 있으니까)、疲れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>味だから(조금 피곤한 듯해서)、あせり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>味(초조해 하는 기색)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>遅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>れ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>味(늦는 경향))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～きり / ～きりだ (~한 이래로 / ~한 채이다, ~했을 뿐이다)
+&lt;동사 과거형 + きり / きりだ&gt;
+(例：出ていったきり(나간 이래로)、卒業した翌年に一度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ったきりだ(졸업한 이듬해에 한 번 만났을 뿐이다)、10年前に習ったきりだ(10년 전에 배웠을 뿐이다))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
       <t>～からこそ (~이기 때문에)
 (</t>
     </r>
@@ -1518,7 +2784,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -1535,7 +2801,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -1547,6 +2813,35 @@
   </si>
   <si>
     <r>
+      <t>～(の)ことだから (~의 일이니까, ~이니까)
+&lt;명사 + の + ことだから&gt;
+(例：時間に正確な彼女のことだから(시간에 정확한 그녀이니까)、有能な鈴木君のことだから(유능한 스즈키 군이니까)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>面目なあの人のことだから(성실한 그 사람이니))
+≒ ～ものだから (~이기 때문에)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
       <t>～ことに (~하게도)
 &lt;동사 과거형(</t>
     </r>
@@ -1554,7 +2849,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -1566,6 +2861,353 @@
   </si>
   <si>
     <r>
+      <t>～最中「さいちゅう」(한창 ~중)
+&lt;동사 진행형(ている) + 最中&gt; &lt;最中가 명사이므로 그에 준하는 접속&gt;
+(例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>議の最中に(한창 회의 중에)、電話している最中に(한창 전화하고 있는 중에)、今</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>検</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>討している最中だ(지금 한창 검토하고 있는 중이다))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～さえ(にさえ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>でさえ)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～すら (~조차, ~마저, ~도)
+&lt;명사 + さえ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>すら&gt;
+(例：あいさつさえ(인사조차)、大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>生にさえ(대학생조차)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>厚なあの人でさえ(온화한 그 사람도)、食事すら(식사조차)、名前すら知らない(이름도 모른다))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～さえ～ば (~만 ~하면)
+&lt;동사 ます형 + さえすれば&gt; &lt;동사 て형 + さえいれば&gt; &lt;い형용사(い삭제) + くさえあれば&gt; &lt;な형용사(な삭제) + でさえあれば&gt;
+(例：白でさえあれば(흰색이기만 하면)、天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>さえよければ(날씨만 좋으면)、電話番</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>さえわかれば(전화번호만 알면)、雨がやみさえすれば(비가 그치기만 하면)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>薬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>飲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>みさえすれ(약을 먹기만 하면)、だまってさえいれば(잠자코 있기만 하면)、新聞に名前さえ出なければ(신문에 이름만 나오지 않으면)、安くさえあれば(싸기만 하면)、ひまさえあれば(틈만 있으면)、衣類は丈夫でさえあれば(옷은 튼튼하기만 하면))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ざるをえない (~할 수밖에 없다, ~해야만 한다)
+&lt;동사 ない형 + ざるをえない&gt; &lt;する → せざるをえない&gt;
+(例：漢字を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>覚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>えざるをえない(한자를 외워야만 한다)、行くのをあきらめざるをえない(가는 것을 단념할 수밖에 없다)、値下げせざるをえない(가격을 내릴 수밖에 없다))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～次第では (~에 따라서(는))
+&lt;명사 + 次第では&gt;
+(例：先生のご都合次第では(선생님의 사정에 따라서는)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>頼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>み方次第では(부탁하기에 따라서는)、成績次第では(성적에 따라서는)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>検</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>査の結果次第では(검사 결과에 따라서는))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～次第だ (~나름이다, ~한 것이다)
+(例：あとは本人次第だ(나머지는 본인 하기 나름이다)、私が代わりに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>た次第です(제가 대신 온 것입니다))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
       <t>～(の)末(に)</t>
     </r>
     <r>
@@ -1576,10 +3218,148 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>・～(た)末 (~한 끝에)
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～(た)末 (~한 끝에)
 &lt;명사 + (の)末(に)&gt; &lt;동사 과거형(～た) + (た)末&gt;
-(例：苦心の末に(고심 끝에)、長時間の協議の末に(오랜 시간 협의 끝에)、きびしいレースを勝ちぬいた末に)힘든 경주를 이겨낸 끝에))
+(例：苦心の末に(고심 끝에)、長時間の協議の末に(오랜 시간 협의 끝에)、きびしいレ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>スを勝ちぬいた末に)힘든 경주를 이겨낸 끝에))
 ≒ ～あげく (~한 끝에)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～だけあって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～だけに ((과연) ~인 만큼)
+&lt;명사 + だけあって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>だけに&gt;
+(例：チ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ムのキャプテンだけあって(팀의 주장인 만큼)、日本に住んでいただけあって(일본에 살았던 만큼)、長い間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>楽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>しみに待っていただけに(오랫동안 낙으로 기다리고 있었던 만큼)、苦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>労</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>して作った本だけに(고생해서 만든 책인 만큼))</t>
     </r>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -1593,11 +3373,147 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>例：さすがに元アナウンサーだっただけのことはある(과연 아나운서 출신은 다르다)、チャンピオンだけのことはある(과연 챔피언이라 할 만하다))</t>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>例：さすがに元アナウンサ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>だっただけのことはある(과연 아나운서 출신은 다르다)、チャンピオンだけのことはある(과연 챔피언이라 할 만하다))</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～たところ (~했더니)
+&lt;동사 과거형(～た) + たところ&gt;
+(例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>場の問い合わせをしたところ(모임 장소를 문의했더니)、電話帳で調べたところ(전화번호부에서 찾아봤더니)、先生のお宅へうかがったところ(선생님 댁으로 찾아뵈었더니))
+≒ ～たところで (~해본들, ~해봤자)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～たとたん(に) (~한 순간(에), ~하자마자)
+&lt;동사 과거형(～た) + たとたん(に)&gt;
+(例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>写真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>を見たとたん(사진을 보자마자)、椅子から立ったとたん(의자에서 일어난 순간)、窓を開けたとたんに(창문을 연 순간에)、家を出たとたんに(집을 나서자마자))
+≒ ～か～ないかのうちに (~하자마자)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ついでに (~하는 김에)
+&lt;동사 과거형/사전형/진행형 + ついでに&gt; &lt;명사 + の + ついでに&gt; &lt;ついでに 단독으로 부사로 사용&gt;
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>駅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>まで行ったついでに(역까지 간 김에)、夕飯を作るついでに(저녁밥을 만드는 김에)、出張のついでに(출장 가는 김에)
+≒ ついでで (~하는 김으로)</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ついでに (~하는 김에)
+&lt;동사 과거형/사전형/진행형 + ついでに&gt; &lt;명사 + の + ついでに&gt; &lt;ついでに(하는 김에, 단독 사용)&gt;
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>駅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>まで行ったついでに(역까지 간 김에)、夕飯を作るついでに(저녁밥을 만드는 김에)、出張のついでに(출장 가는 김에)
+≒ ついでで (~하는 김으로)</t>
     </r>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -1609,13 +3525,33 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> (~을 겸해서) [兼ねる(겸하다)의 문법화]
 &lt;명사 + をかねて&gt;
-例：買い物をかねて(쇼핑을 겸해)、観光と市場調査をかねて(관광과 시장 조사를 겸해)、ドライブをかねて(드라이브를 겸해)</t>
+例：買い物をかねて(쇼핑을 겸해)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>観</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>光と市場調査をかねて(관광과 시장 조사를 겸해)、ドライブをかねて(드라이브를 겸해)</t>
     </r>
     <rPh sb="16" eb="17">
       <t>か</t>
@@ -1645,13 +3581,53 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> (~할 겸) [부차적인 행동]
 &lt;명사 + がてら&gt;
-例：散歩がてら、買い物に行こう(산책할 겸 쇼핑하러 가자)、広島へ調査旅行がてら(히로시마에 조사여행을 할 겸)</t>
+例：散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>歩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>がてら、買い物に行こう(산책할 겸 쇼핑하러 가자)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>広</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>島へ調査旅行がてら(히로시마에 조사여행을 할 겸)</t>
     </r>
     <rPh sb="33" eb="34">
       <t>れい</t>
@@ -1684,7 +3660,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -1726,14 +3702,94 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> (~할 리 없다)
 &lt;동사 ます형 + っこない&gt;
-例：私の気持ちはわかりっこない(내 마음은 알 리가 없다)、いくら買っても当たりっこない(아무리 사도 당첨될 리 없다)、恋人なんかできっこない(애인따위 생길 리 없다)
-≒ ～わけがない・～はずがない (~(일/할) 리가 없다)</t>
+例：私の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>持ちはわかりっこない(내 마음은 알 리가 없다)、いくら買っても</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>たりっこない(아무리 사도 당첨될 리 없다)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>恋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>人なんかできっこない(애인따위 생길 리 없다)
+≒ ～わけがない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～はずがない (~(일/할) 리가 없다)</t>
     </r>
     <rPh sb="32" eb="33">
       <t>れい</t>
@@ -1763,12 +3819,32 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>(も) (~하면서(도))
-例：悪いと知りつつ(나쁜 줄 알면서도)、そう考えつつも(그렇게 생각하면서도)</t>
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>悪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>いと知りつつ(나쁜 줄 알면서도)、そう考えつつも(그렇게 생각하면서도)</t>
     </r>
     <rPh sb="17" eb="18">
       <t>れい</t>
@@ -1792,12 +3868,32 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>(も) (~하면서(도), ~(하)지만, ~한 채로 변함없이)
-例：ラジオを聞きながら(라디오를 들으면서)、狭いながらも(좁지만)、しかしながら(그렇지만)、昔ながらの風景(옛날 그대로의 풍경)、いつもながら(항상)</t>
+例：ラジオを聞きながら(라디오를 들으면서)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>狭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>いながらも(좁지만)、しかしながら(그렇지만)、昔ながらの風景(옛날 그대로의 풍경)、いつもながら(항상)</t>
     </r>
     <rPh sb="38" eb="39">
       <t>れい</t>
@@ -1824,7 +3920,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -1859,7 +3955,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -1886,7 +3982,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -1903,7 +3999,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -1920,7 +4016,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -1944,50 +4040,32 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>시험 결과가 너무 걱정된다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>친구에게 몇 번이고 전화를 했지만 연결이 되지 않는다. 무슨 일이 있었는지 걱정이 되어 견딜 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>試験の結果が気になってならない。</t>
-    <rPh sb="0" eb="2">
-      <t>しけん</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>けっか</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>き</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>友達に何度も電話をしたがつながらない。何かあったのか心配でならない。</t>
-    <rPh sb="0" eb="2">
-      <t>ともだち</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>なんど</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>でんわ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>なに</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>しんぱい</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>～てならない (~해서 견딜 수 없다, 너무 ~하다)
+    <r>
+      <t>～てならない (~해서 견딜 수 없다, 너무 ~하다)
 &lt;동사/형용사의 て형 + ならない&gt;
-例：腹が立ってならない(너무 화가 난다)、うれしくてならない(너무 기쁘다)、うらやましくてならない(부러워서 견딜 수 없다)、残念でならない(너무 유감스럽다)、心配でならない(너무 걱정스럽다)
+例：腹が立ってならない(너무 화가 난다)、うれしくてならない(너무 기쁘다)、うらやましくてならない(부러워서 견딜 수 없다)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>残</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>念でならない(너무 유감스럽다)、心配でならない(너무 걱정스럽다)
 ≒ ～てしょうがない (~해서 어쩔 수 없다)、～てたまらない (~해서 견딜 수 없다)</t>
+    </r>
     <rPh sb="49" eb="50">
       <t>れい</t>
     </rPh>
@@ -2023,7 +4101,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -2044,7 +4122,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -2064,7 +4142,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -2085,7 +4163,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -2106,7 +4184,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -2126,7 +4204,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -2148,7 +4226,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
+        <rFont val="Microsoft GothicNeo Light"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
@@ -2168,138 +4246,19 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕 Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">～(ん)じゃないかな
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>≠ 동사의 의지형 + ～(よ)うではないか</t>
-    </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>風が強かったから、外に落ちちゃったんじゃない？</t>
-    <rPh sb="0" eb="1">
-      <t>かぜ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>つよ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>そと</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>お</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>生活に欠かせない道具として定着したといえるのではないか</t>
-    <rPh sb="0" eb="2">
-      <t>せいかつ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>か</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>どうぐ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ていちゃく</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>今ここにいるわけないじゃない？</t>
-    <rPh sb="0" eb="1">
-      <t>いま</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>つい食べ過ぎてしまうという人も多いのではないか</t>
-    <rPh sb="2" eb="3">
-      <t>た</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>す</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ひと</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>おお</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>A：あいつ、彼女でもできたんじゃないか。
-B：そういえば最近ファッションにこだわってるな。</t>
-    <rPh sb="6" eb="8">
-      <t>かのじょ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>さいきん</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>A：真っ青な顔して、どこか悪いんじゃないの？
-B：いや、どこも悪くないさ。</t>
-    <rPh sb="2" eb="3">
-      <t>ま</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>さお</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>かお</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>わる</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>わる</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>바람이 강했으니까 밖에 떨어진 게 아닐까?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>생활에 빠뜨릴 수 없는 도구로써 정착했다고 할 수 있지 않을까?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>지금 여기에 있을 리가 없잖아?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>그만 과식을 하고 만다는 사람도 많지 않을까?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>A : 그 녀석, 여자친구라도 생긴 게 아닐까?
-B : 그러고 보니 요즘 패션에 무척 신경 쓰고 있어.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>A : 얼굴이 창백한데, 어디 안 좋은 거 아니야?
-B : 아니, 아픈 데 없어.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～(ん)じゃないかな
+≠ 동사의 의지형 + ～(よ)うではないか</t>
+    </r>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～というと</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2308,18 +4267,18 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>～というと・～といえば</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (~라고 하면)
-</t>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～といえば (~라고 하면)
+例：旅行というと(여행이라고 하면)、</t>
     </r>
     <r>
       <rPr>
@@ -2329,17 +4288,42 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>例：旅行というと</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(여행이라고 하면)</t>
+      <t>温</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>泉というと(온천이라면)、日本の山といえば(일본의 산이라면)、大人といえば(어른이라 하면)</t>
+    </r>
+    <rPh sb="21" eb="22">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>りょこう</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>おんせん</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>にほん</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>やま</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>おとな</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～というものではない (~라는 것은 아니다)
+例：値段が安ければいいというものではない(값이 싸면 그만이라는 것은 아니다)、この病</t>
     </r>
     <r>
       <rPr>
@@ -2349,17 +4333,36 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、温泉というと</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(온천이라면)</t>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>はすぐによくなるというものではない(이 병은 당장 좋아지는 것은 아니다)</t>
+    </r>
+    <rPh sb="24" eb="25">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ねだん</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>やす</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>びょうき</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～というより (~라기 보다)
+例：技術者というより(기술자라기보다)、</t>
     </r>
     <r>
       <rPr>
@@ -2369,17 +4372,45 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、日本の山といえば</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(일본의 산이라면)</t>
+      <t>慎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>重というより無能に近い(신중하다기보다 무능에 가깝다)、母親というより友達のようだ(엄마라기보다 친구 같다)</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ぎじゅつしゃ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>しんちょう</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>むのう</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ちか</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ははおや</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ともだち</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～といっても (~라고 해도)
+例：借金といっても(빚이라고 해도)、ビルといっても(빌딩이라고 해도)、料理の勉</t>
     </r>
     <r>
       <rPr>
@@ -2389,85 +4420,61 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、大人といえば</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(어른이라 하면)</t>
-    </r>
-    <rPh sb="21" eb="22">
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>を始めたといっても(요리 공부를 시작했다고 해도)</t>
+    </r>
+    <rPh sb="16" eb="17">
       <t>れい</t>
     </rPh>
-    <rPh sb="23" eb="25">
-      <t>りょこう</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>おんせん</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>にほん</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>やま</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>おとな</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>예전에는 신혼여행이라고 하면 하와이를 떠올리는 사람이 많았다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>일본이라 하면 나는 후지산을 연상합니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>昔は新婚旅行というと、ハワイを思い出す人が多かった。</t>
-    <rPh sb="0" eb="1">
-      <t>むかし</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>しんこんりょこう</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>おも</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>だ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ひと</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>おお</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>日本といえば、私は富士山を連想します。</t>
-    <rPh sb="0" eb="2">
-      <t>にほん</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>わたし</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ふじさん</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>れんそう</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
+    <rPh sb="18" eb="20">
+      <t>しゃっきん</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>りょうり</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>べんきょう</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>はじ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～とか (~라고 하던데) [전문, 불확실]
+例：北海道はきのう大雪だったとか(홋카이도는 어제 큰 눈이 내렸다던데)、また公共料金が上がるとか(또 공공요금이 오른다던데)
+≒ ～そうだ(~라고 한다)、～ということだ (~라는 것이다)</t>
+    <rPh sb="24" eb="25">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ほっかいどう</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>おおゆき</t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t>こうきょうりょうきん</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>あ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～とかで (~라고 하면서)
+例：パ</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2476,18 +4483,17 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>～というものだ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (~라는 것이다)
-</t>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ティ</t>
     </r>
     <r>
       <rPr>
@@ -2497,17 +4503,65 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>例：それはわがままというものだ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(~그건 제멋대로라는 것이다)</t>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>に行くとかで(파티에 간다고 하면서)、急用ができたとかで(급한 용무가 생겼다고 하면서)</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>い</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>きゅうよう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>초등학생의 체력은 저하되고 있다던데.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>친구가 다쳤다고 하면서 그는 병문안을 갔어.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小学生の体力は低下しているとか。</t>
+    <rPh sb="0" eb="3">
+      <t>しょうがくせい</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>たいりょく</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ていか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>友人がけがをしたとかで、彼は見舞いに行ったよ。</t>
+    <rPh sb="0" eb="2">
+      <t>ゆうじん</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>かれ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～どころか (~하기는 커녕)
+&lt;A どころか B&gt; A를 완전히 부정하고 그와 정반대이거나 거리가 먼 B를 나타내는 표현
+例：ほめられるどころか(칭찬을 받기는 커녕)、</t>
     </r>
     <r>
       <rPr>
@@ -2517,17 +4571,17 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、それが大人というものだ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(그것이 어른이라는 것이다)</t>
+      <t>楽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>しいどころか(즐겁기는 커녕)、病</t>
     </r>
     <r>
       <rPr>
@@ -2537,17 +4591,34 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、それでは不公平というものだ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(이래서는 불공평하다는 것이다)</t>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>どころか(병은 커녕)</t>
+    </r>
+    <rPh sb="66" eb="67">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>たの</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>びょうき</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～どころではない (~할 상황이 아니다)
+&lt;동사 사전형 / 명사 + どころではない&gt;
+例：酒を</t>
     </r>
     <r>
       <rPr>
@@ -2557,90 +4628,18 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、それは非常識というものだ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(그건 몰상식하다는 것이다)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-≒ ということだ (~라고 한다)</t>
-    </r>
-    <rPh sb="18" eb="19">
-      <t>れい</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>おとな</t>
-    </rPh>
-    <rPh sb="81" eb="84">
-      <t>ふこうへい</t>
-    </rPh>
-    <rPh sb="111" eb="114">
-      <t>ひじょうしき</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>혈액형을 알면 대략적인 성격도 알 수 있다는 것입니다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>임금을 배로 해 달라고 하는 것은 터무니없는 요구라는 것이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>血液型が分かれば大体の性格も分かるというものです。</t>
-    <rPh sb="0" eb="3">
-      <t>けつえきがた</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>わ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>だいたい</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>せいかく</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>わ</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>賃金を倍にしてほしいなどと言うのは、不法な要求というものだ。</t>
-    <rPh sb="0" eb="2">
-      <t>ちんぎん</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ばい</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>い</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ふほう</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ようきゅう</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
+      <t>飲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>むどころではない(술을 마실 상황이 아니다)、忙しくて見物するどころではない(바빠서 구경할 처지가 아니다)、試</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2649,18 +4648,17 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>～というものではない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (~라는 것은 아니다)
-</t>
+      <t>験</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>勉</t>
     </r>
     <r>
       <rPr>
@@ -2670,17 +4668,132 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>例：値段が安ければいいというものではない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(값이 싸면 그만이라는 것은 아니다)</t>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>どころではない(시험 공부할 상황이 아니다)、今は花見どころではない(지금은 꽃구경을 할 상황이 아니다)</t>
+    </r>
+    <rPh sb="46" eb="47">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>さけ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>の</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>いそが</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>けんぶつ</t>
+    </rPh>
+    <rPh sb="108" eb="112">
+      <t>しけんべんきょう</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>いま</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>はなみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>장관은 만족스러운 답변을 하기는 커녕</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>기뻐해주기는 커녕 민폐를 끼치는 경우도 있기 때문에</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>나는 그 사람에게 여러가지로 친절하게 대했다고 생각하는데 감사를 받기는 커녕 원망 받았다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>내일은 시험이 있어서 드라이브할 상황이 아니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>大臣は、満足な回答ができなかったどころか</t>
+    <rPh sb="0" eb="2">
+      <t>だいじん</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>まんぞく</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>かいとう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>喜ばれるどころか、迷惑をかけることもあるので</t>
+    <rPh sb="0" eb="1">
+      <t>よろこ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>めいわく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>私はあの人にいろいろ親切にしたつもりだが、感謝されるどころか、恨まれた。</t>
+    <rPh sb="0" eb="1">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>しんせつ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>かんしゃ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>うら</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>明日は試験があるので、ドライブどころではない。</t>
+    <rPh sb="0" eb="2">
+      <t>あした</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>しけん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～ところを (~(인/한) 중에)
+例：お忙しいところを(바쁘신 중에)、食べているところを(먹고 있는 중에)、危ないところを(위험한 순간에)</t>
+    <rPh sb="18" eb="19">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>いそが</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>た</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>あぶ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ところに</t>
     </r>
     <r>
       <rPr>
@@ -2690,56 +4803,92 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、この病気はすぐによくなるというものではない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(이 병은 당장 좋아지는 것은 아니다)</t>
-    </r>
-    <rPh sb="24" eb="25">
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ところへ (~하는 참에)
+例：最終のバスに間に合わなくて困っていたところに(막차를 놓쳐서 난처해 하고 있던 참에)、ちょうど顔を洗っていたところへ(마침 세수를 하고 있던 참에)</t>
+    </r>
+    <rPh sb="21" eb="22">
       <t>れい</t>
     </rPh>
-    <rPh sb="26" eb="28">
-      <t>ねだん</t>
+    <rPh sb="23" eb="25">
+      <t>さいしゅう</t>
     </rPh>
     <rPh sb="29" eb="30">
-      <t>やす</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>びょうき</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>승부는 이기면 그만이 아니다, 어떤 식으로 이겼는가가 중요하다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>勝負は勝てばよいというものではない。どんな勝ち方をしたのかが重要だ。</t>
-    <rPh sb="0" eb="2">
-      <t>しょうぶ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>か</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>か</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>かた</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>じゅうよう</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
+      <t>ま</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>あ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>こま</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>かお</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>あら</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>바쁘신 중에 일부러 와 주셔서 감사합니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>마침 외출하려던 참에 시골에 계신 어머니로부터 택배가 왔다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>お忙しいところをわざわざおいでいただき、恐縮でございます。</t>
+    <rPh sb="1" eb="2">
+      <t>いそが</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>きょうしゅく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ちょうど出かけようとしていたところへ、田舎の母から宅急便か届いた。</t>
+    <rPh sb="4" eb="5">
+      <t>で</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>いなか</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>はは</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>たっきゅうびん</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>とど</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～として(は) (~로서(는), ~라고 해서) [자격, 입장, 명목, 부류]
+&lt;명사 + として(は)&gt;
+例：自分の問題として(자신의 문제로서)、</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2748,18 +4897,138 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>～というより</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (~라기 보다)
-</t>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>生として(학생으로서)、友人として(친구로서)、女性として初めて(여성으로서 처음으로)</t>
+    </r>
+    <rPh sb="56" eb="57">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>じぶん</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>もんだい</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>がくせい</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ゆうじん</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>じょせい</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>はじ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>프로선수로서는</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>산이나 식물 사진가로서</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>자신에게는 책임이 없어도 본인 책임이라고 해서</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>갑작스런 해고를 부당하다고 하여</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그녀는 연구생으로서 이 대학에서 공부하고 있다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>プロの選手としては</t>
+    <rPh sb="3" eb="5">
+      <t>せんしゅ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>山や植物の写真家として</t>
+    <rPh sb="0" eb="1">
+      <t>やま</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>しょくぶつ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>しゃしんか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>自分には責任がなくても自分の責任だとして</t>
+    <rPh sb="0" eb="2">
+      <t>じぶん</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>せきにん</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>じぶん</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>せきにん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>突然の解雇を不当として</t>
+    <rPh sb="0" eb="2">
+      <t>とつぜん</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>かいこ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ふとう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼女は研究生として、この大学で勉強している。</t>
+    <rPh sb="0" eb="2">
+      <t>かのじょ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>けんきゅうせい</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>だいがく</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>べんきょう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～としても (~라고 해도) [가정, 지금은 아니지만 만일 그렇게 되더라고 관계 없다]
+&lt;동사 사전형/과거형 + としても&gt;
+例：買えるとしても(살 수 있다고 해도)、行けるとしても(갈 수 있다고 해도)、かりに敗れたとしても(설령 졌다고 해도)、さまざまな障害に出</t>
     </r>
     <r>
       <rPr>
@@ -2769,17 +5038,37 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>例：技術者というより</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(기술자라기보다)</t>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ったとしても(여러 장애를 만났다고 해도)</t>
+    </r>
+    <rPh sb="68" eb="69">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>か</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>い</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>やぶ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～としても (~라고 해도) [가정, 지금은 아니지만 만일 그렇게 되더라고 관계 없다]
+&lt;동사 사전형/과거형 + としても&gt;
+例：買えるとしても(살 수 있다고 해도)、行けるとしても(갈 수 있다고 해도)、かりに敗れたとしても(설령 졌다고 해도)、さまざまな障害に出</t>
     </r>
     <r>
       <rPr>
@@ -2789,17 +5078,101 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、慎重というより無能に近い</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(신중하다기보다 무능에 가깝다)</t>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ったとしても(여러 장애를 만났다고 해도)</t>
+    </r>
+    <rPh sb="68" eb="69">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>か</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>い</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>やぶ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>갈 수 있다고 해도 도중부터가 될 거라고 생각한다</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>어느 별에 생물이 있다고 해도</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>낙천적인 그는 회사에서 해고가 되었다고 해도 별로 걱정하지 않을 것이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>行けるとしても、多分途中からになると思う</t>
+    <rPh sb="0" eb="1">
+      <t>い</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>たぶん</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>とちゅう</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>どこかの星に生物がいたとしても</t>
+    <rPh sb="4" eb="5">
+      <t>ほし</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>せいぶつ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>楽天的な彼は会社を首になったとしてもあまり心配しないだろ。</t>
+    <rPh sb="0" eb="3">
+      <t>らくてんてき</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>かれ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>かいしゃ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>くび</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>しんぱい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ないことには (~(하)지 않으면)
+&lt;동사 부정형(～ない) + ことには&gt;
+例：一度行ってみないことには(한 번 가보지 않으면)、調査をしないことには(조사를 하지 않으면)、</t>
     </r>
     <r>
       <rPr>
@@ -2809,68 +5182,18 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、母親というより友達のようだ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(엄마라기보다 친구 같다)</t>
-    </r>
-    <rPh sb="16" eb="17">
-      <t>れい</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ぎじゅつしゃ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>しんちょう</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>むのう</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ちか</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ははおや</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ともだち</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>역에서 집까지 버스를 타지 않고 걷는 것은 절약이라기보다 건강을 위해서이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>駅から家までバスに乗らず歩くのは、節約というより健康のためだ。</t>
-    <rPh sb="0" eb="1">
-      <t>えき</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>いえ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>の</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ある</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>せつやく</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>けんこう</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
+      <t>実</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>際</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2879,122 +5202,49 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>～といっても</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> (~라고 해도)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Gulim"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>例：借金といっても</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(빚이라고 해도)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Gulim"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>、ビルといっても(빌딩이라고 해도)、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>料理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の勉強を始めたといっても</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(요리 공부를 시작했다고 해도)</t>
-    </r>
-    <rPh sb="16" eb="17">
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ってみないことには(실제로 만나보지 않으면)、それをはっきりさせないことには(그것을 분명하게 하지 않으면)</t>
+    </r>
+    <rPh sb="41" eb="42">
       <t>れい</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>しゃっきん</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>りょうり</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>べんきょう</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>はじ</t>
-    </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>한마디로 카레라이스라고 해도</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>요리를 할 수 있다고 해도 계란말이 정도입니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>ひとくちにカレーライスといっても</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>料理ができるといっても、たまごやきぐらいです。</t>
+    <rPh sb="43" eb="46">
+      <t>いちどい</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ちょうさ</t>
+    </rPh>
+    <rPh sb="92" eb="95">
+      <t>じっさいあ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>분화가 어떤 상태인지는 그 현장에 가보지 않으면 알 수 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>噴火がどんな状態なのかは、その現場へ行ってみないことにはわからない。</t>
     <rPh sb="0" eb="2">
-      <t>りょうり</t>
+      <t>ふんか</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>じょうたい</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>げんば</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>い</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -3003,7 +5253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3025,13 +5275,6 @@
       <name val="Meiryo"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕 Semilight"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3064,22 +5307,15 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Malgun Gothic Semilight"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Gulim"/>
+      <name val="Microsoft GothicNeo Light"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="2"/>
+      <name val="Microsoft GothicNeo Light"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -3105,7 +5341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3115,19 +5351,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3464,1462 +5694,1650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE3EC4-AD3B-4030-96E8-1E76FF9B4BDB}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="61.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="61.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="100" style="5" customWidth="1"/>
+    <col min="3" max="3" width="100" style="3" customWidth="1"/>
     <col min="4" max="4" width="58.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="69">
+    <row r="1" spans="1:3" ht="64.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="69">
+      <c r="C1" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="64.5">
       <c r="A2" s="2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="63">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="69">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="66">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="69">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="80.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="86.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="80.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="86.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="81.75">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="103.5">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="78.75">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="86.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" ht="83.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="83.25">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="86.25">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="47.25">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="86.25">
-      <c r="A10" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="47.25">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="69">
-      <c r="A11" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="66">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="63">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="69">
-      <c r="A12" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="86.25">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="129">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="129">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="69">
-      <c r="A14" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="64.5">
+      <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="138">
-      <c r="A15" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="64.5">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C18" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="48.75">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="138">
-      <c r="A16" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="48.75">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="69">
-      <c r="A17" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="48.75">
+      <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="69">
-      <c r="A18" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="67.5">
+      <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="51.75">
-      <c r="A19" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="78.75">
+      <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="51.75">
-      <c r="A20" s="2" t="s">
+    <row r="24" spans="1:3" ht="78.75">
+      <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="51.75">
-      <c r="A21" s="2" t="s">
+    <row r="25" spans="1:3" ht="78.75">
+      <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="69">
-      <c r="A22" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="63">
+      <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="86.25">
-      <c r="A23" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="63">
+      <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="86.25">
-      <c r="A24" s="2" t="s">
+      <c r="C27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="63">
+      <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="86.25">
-      <c r="A25" s="2" t="s">
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="84.75">
+      <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C29" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="84.75">
+      <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="69">
-      <c r="A26" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="64.5">
+      <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="69">
-      <c r="A27" s="2" t="s">
+      <c r="C31" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="64.5">
+      <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="69">
-      <c r="A28" s="2" t="s">
+      <c r="C32" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="84.75">
+      <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="86.25">
-      <c r="A29" s="2" t="s">
+      <c r="C33" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="84.75">
+      <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C34" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="47.25">
+      <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="86.25">
-      <c r="A30" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="69">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="47.25">
+      <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C36" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="81.75">
+      <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="69">
-      <c r="A32" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="81.75">
+      <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="86.25">
-      <c r="A33" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="86.25">
-      <c r="A34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="51.75">
-      <c r="A35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="51.75">
-      <c r="A36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="86.25">
-      <c r="A37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="86.25">
-      <c r="A38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>94</v>
+      <c r="C38" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="69">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="69">
       <c r="A40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="64.5">
+      <c r="A41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="64.5">
+      <c r="A42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="64.5">
+      <c r="A43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="47.25">
+      <c r="A44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="47.25">
+      <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="47.25">
+      <c r="A46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="31.5">
+      <c r="A47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="69">
-      <c r="A41" s="2" t="s">
+      <c r="C47" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="31.5">
+      <c r="A48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="69">
-      <c r="A42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="69">
-      <c r="A43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="51.75">
-      <c r="A44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="51.75">
-      <c r="A45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="51.75">
-      <c r="A46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="34.5">
-      <c r="A47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="34.5">
-      <c r="A48" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>256</v>
+      <c r="C48" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="39">
       <c r="A49" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="34.5">
+        <v>105</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="31.5">
       <c r="A50" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>273</v>
+        <v>107</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="39">
       <c r="A51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="78.75">
+      <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="78.75">
+      <c r="A53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="63">
+      <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="63">
+      <c r="A55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="63">
+      <c r="A56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="63">
+      <c r="A57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="80.25">
+      <c r="A58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="63">
+      <c r="A59" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="86.25">
-      <c r="A52" s="2" t="s">
+      <c r="C59" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="78.75">
+      <c r="A60" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="86.25">
-      <c r="A53" s="2" t="s">
+      <c r="C60" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="78.75">
+      <c r="A61" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="69">
-      <c r="A54" s="2" t="s">
+      <c r="C61" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="64.5">
+      <c r="A62" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="69">
-      <c r="A55" s="2" t="s">
+      <c r="C62" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="67.5">
+      <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="69">
-      <c r="A56" s="2" t="s">
+      <c r="C63" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="67.5">
+      <c r="A64" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="69">
-      <c r="A57" s="2" t="s">
+      <c r="C64" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="67.5">
+      <c r="A65" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="86.25">
-      <c r="A58" s="2" t="s">
+      <c r="C65" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="113.25">
+      <c r="A66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="69">
-      <c r="A59" s="2" t="s">
+      <c r="C66" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="113.25">
+      <c r="A67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="86.25">
-      <c r="A60" s="2" t="s">
+      <c r="C67" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="113.25">
+      <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="86.25">
-      <c r="A61" s="2" t="s">
+      <c r="C68" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="113.25">
+      <c r="A69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="69">
-      <c r="A62" s="2" t="s">
+      <c r="C69" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="113.25">
+      <c r="A70" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="69">
-      <c r="A63" s="2" t="s">
+      <c r="C70" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="64.5">
+      <c r="A71" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="69">
-      <c r="A64" s="2" t="s">
+      <c r="C71" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="64.5">
+      <c r="A72" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="69">
-      <c r="A65" s="2" t="s">
+      <c r="C72" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="64.5">
+      <c r="A73" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="120.75">
-      <c r="A66" s="2" t="s">
+      <c r="C73" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="66">
+      <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="120.75">
-      <c r="A67" s="2" t="s">
+      <c r="C74" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="66">
+      <c r="A75" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="120.75">
-      <c r="A68" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="120.75">
-      <c r="A69" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="120.75">
-      <c r="A70" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="69">
-      <c r="A71" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="69">
-      <c r="A72" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="69">
-      <c r="A73" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="69">
-      <c r="A74" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="69">
-      <c r="A75" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>264</v>
+      <c r="C75" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="39">
       <c r="A76" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="81.75">
+      <c r="A77" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="81.75">
+      <c r="A78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="81.75">
+      <c r="A79" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="69">
+      <c r="A80" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="69">
+      <c r="A81" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="69">
+      <c r="A82" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="69">
+      <c r="A83" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="64.5">
+      <c r="A84" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="86.25">
-      <c r="A77" s="2" t="s">
+      <c r="C84" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="80.25">
+      <c r="A85" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="86.25">
-      <c r="A78" s="2" t="s">
+      <c r="C85" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="80.25">
+      <c r="A86" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="86.25">
-      <c r="A79" s="2" t="s">
+      <c r="C86" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="80.25">
+      <c r="A87" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="86.25">
-      <c r="A80" s="2" t="s">
+      <c r="C87" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="80.25">
+      <c r="A88" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="86.25">
-      <c r="A81" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="C88" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="80.25">
+      <c r="A89" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="86.25">
-      <c r="A82" s="2" t="s">
+      <c r="B89" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="80.25">
+      <c r="A90" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B90" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="80.25">
+      <c r="A91" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="86.25">
-      <c r="A83" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="69">
-      <c r="A84" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C91" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="64.5">
+      <c r="A92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="86.25">
-      <c r="A85" s="2" t="s">
+      <c r="C92" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="48.75">
+      <c r="A93" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="86.25">
-      <c r="A86" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="C93" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="63">
+      <c r="A94" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="86.25">
-      <c r="A87" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C94" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="83.25">
+      <c r="A95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="86.25">
-      <c r="A88" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="C95" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="33">
+      <c r="A96" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="86.25">
-      <c r="A89" s="2" t="s">
+      <c r="B96" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="33">
+      <c r="A97" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="48.75">
+      <c r="A98" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="86.25">
-      <c r="A90" s="2" t="s">
+      <c r="B98" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="31.5">
+      <c r="A99" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="86.25">
-      <c r="A91" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="69">
-      <c r="A92" s="2" t="s">
+      <c r="C99" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="47.25">
+      <c r="A100" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="69">
-      <c r="A93" s="2" t="s">
+      <c r="C100" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="47.25">
+      <c r="A101" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="69">
-      <c r="A94" s="2" t="s">
+      <c r="C101" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="31.5">
+      <c r="A102" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B102" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="31.5">
+      <c r="A103" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="86.25">
-      <c r="A95" s="2" t="s">
+      <c r="B103" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="31.5">
+      <c r="A104" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="31.5">
+      <c r="A105" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="34.5">
-      <c r="A96" s="2" t="s">
+      <c r="B105" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="31.5">
+      <c r="A106" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="34.5">
-      <c r="A97" s="2" t="s">
+      <c r="B106" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="31.5">
+      <c r="A107" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="51.75">
-      <c r="A98" s="2" t="s">
+      <c r="B107" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="31.5">
+      <c r="A108" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="51.75">
-      <c r="A99" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="51.75">
-      <c r="A100" s="2" t="s">
+      <c r="B108" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="31.5">
+      <c r="A109" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="51.75">
-      <c r="A101" s="2" t="s">
+      <c r="B109" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="31.5">
+      <c r="A110" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="34.5">
-      <c r="A102" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="34.5">
-      <c r="A103" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="34.5">
-      <c r="A104" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="34.5">
-      <c r="A105" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="34.5">
-      <c r="A106" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="34.5">
-      <c r="A107" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="34.5">
-      <c r="A108" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="34.5">
-      <c r="A109" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="34.5">
-      <c r="A110" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>287</v>
+      <c r="C110" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="39">
       <c r="A111" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="31.5">
+      <c r="A112" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="78.75">
+      <c r="A113" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="78.75">
+      <c r="A114" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="78.75">
+      <c r="A115" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="80.25">
+      <c r="A116" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="C116" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="80.25">
+      <c r="A117" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="110.25">
+      <c r="A118" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="34.5">
-      <c r="A112" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B112" s="3" t="s">
+      <c r="B118" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="110.25">
+      <c r="A119" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="86.25">
-      <c r="A113" s="2" t="s">
+      <c r="B119" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="110.25">
+      <c r="A120" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B120" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="110.25">
+      <c r="A121" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="110.25">
+      <c r="A122" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="110.25">
+      <c r="A123" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="86.25">
-      <c r="A114" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="86.25">
-      <c r="A115" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="86.25">
-      <c r="A116" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="86.25">
-      <c r="A117" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="120.75">
-      <c r="A118" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="120.75">
-      <c r="A119" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="120.75">
-      <c r="A120" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="120.75">
-      <c r="A121" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="120.75">
-      <c r="A122" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="120.75">
-      <c r="A123" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="B123" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="51.75">
+        <v>258</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="47.25">
       <c r="A124" s="2" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="51.75">
+        <v>259</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="47.25">
       <c r="A125" s="2" t="s">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="86.25">
+        <v>260</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="63">
       <c r="A126" s="2" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="86.25">
+        <v>263</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="63">
       <c r="A127" s="2" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="51.75">
+        <v>264</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="47.25">
       <c r="A128" s="2" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="51.75">
+        <v>267</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="47.25">
       <c r="A129" s="2" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="51.75">
+        <v>269</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="47.25">
       <c r="A130" s="2" t="s">
-        <v>326</v>
+        <v>273</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="51.75">
+        <v>271</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="47.25">
       <c r="A131" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>323</v>
+    </row>
+    <row r="132" spans="1:3" ht="63">
+      <c r="A132" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="31.5">
+      <c r="A133" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="47.25">
+      <c r="A134" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="47.25">
+      <c r="A135" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="47.25">
+      <c r="A136" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="78.75">
+      <c r="A137" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="31.5">
+      <c r="A138" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="47.25">
+      <c r="A139" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="63">
+      <c r="A140" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="63">
+      <c r="A141" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="63">
+      <c r="A142" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="63">
+      <c r="A143" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="63">
+      <c r="A144" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="63">
+      <c r="A145" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="63">
+      <c r="A146" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="63">
+      <c r="A147" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="63">
+      <c r="A148" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/anki_deque/darakwon_n2_grammar.xlsx
+++ b/anki_deque/darakwon_n2_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44B3D21-A6B3-4237-90C4-B483B6A35EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2C313F-76BA-4790-962A-49083D10B87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="387">
   <si>
     <t>あれこれ質問にこたえさせられたあげく</t>
     <rPh sb="4" eb="6">
@@ -5162,14 +5162,198 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft GothicNeo Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
+    <t>분화가 어떤 상태인지는 그 현장에 가보지 않으면 알 수 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>噴火がどんな状態なのかは、その現場へ行ってみないことにはわからない。</t>
+    <rPh sb="0" eb="2">
+      <t>ふんか</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>じょうたい</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>げんば</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ないことはない (~(하)지 않는 것은 아니다)
+&lt;동사 부정형(～ない) + ことはない&gt;
+例：行きたくないことはないんですが(가고 싶지 않은 것은 아닙니다만)、酒を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>飲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>まないことはないんですが(술을 마시지 않는 것은 아닙니다만)、あなたの苦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>労</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>がわからないこともない(당신의 고생을 모르는 것도 아니다)、ぜひと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>頼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>まれれば、行かないこともない(꼭이요 하고 부탁을 받으면 가지 않을 것도 없다)
+≒ ～なくはない (~(하)지 않는 것은 아니다)</t>
+    </r>
+    <rPh sb="49" eb="50">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>い</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>さけ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>の</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>くろう</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>たの</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>당신의 고생을 모르는 것은 아닙니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>あなたの苦労がわからないことはないです。</t>
+    <rPh sb="4" eb="6">
+      <t>くろう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>세계 각국의 국회의원 선거에서의 투표율</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>98년 동계 올림픽은 나가노 시에서 열렸다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>국제사회에서의 우리나라의 역할에 관해 서술하시오.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>世界各国の国会議員選挙における投票率</t>
+    <rPh sb="0" eb="4">
+      <t>せかいかっこく</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>こっかい</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ぎいんせんきょ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>とうひょうりつ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>98年の冬季オリンピックは長野市において行われた。</t>
+    <rPh sb="2" eb="3">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>とうき</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ながのし</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>おこな</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>国際社会における我が国の役割について述べなさい。</t>
+    <rPh sb="0" eb="4">
+      <t>こくさいしゃかい</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>わ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>くに</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>やくわり</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>の</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
       <t>～ないことには (~(하)지 않으면)
 &lt;동사 부정형(～ない) + ことには&gt;
 例：一度行ってみないことには(한 번 가보지 않으면)、調査をしないことには(조사를 하지 않으면)、</t>
@@ -5229,22 +5413,353 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <t>분화가 어떤 상태인지는 그 현장에 가보지 않으면 알 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>噴火がどんな状態なのかは、その現場へ行ってみないことにはわからない。</t>
-    <rPh sb="0" eb="2">
-      <t>ふんか</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>じょうたい</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>げんば</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>い</t>
+    <r>
+      <t>～において</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～における (~에서, ~에서의) [때, 장소, 상황]
+&lt;명사 + において</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>における&gt;
+例：式は小ホ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ルにおいて行われる(식은 작은 홀에서 열린다)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>時においては(당시에는)、家庭においても(가정에서도)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>議における</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>発</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>言(회의에서의 발언)</t>
+    </r>
+    <rPh sb="53" eb="54">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>しき</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>しょう</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>おこな</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>とうじ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>かてい</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>かいぎ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>はつげん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>応</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>じて (~에 맞게, ~에 따라서, ~에 응해)
+&lt;명사 + に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>応</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>じて&gt;
+例：みなさんのご希望に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>応</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>じて(여러분의 희망에 따라)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>労働</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>時間に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>応</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>じて(노동 시간에 따라)、それぞれの能力に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>応</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>じて(각각의 능력에 맞게)</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>おう</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>きぼう</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>おう</t>
+    </rPh>
+    <rPh sb="69" eb="73">
+      <t>ろうどうじかん</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>おう</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>のうりょく</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>おう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>손님의 예산에 맞게</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 회사에서는 능력에 따라서 월급이 지급됩니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>客の予算に応じて</t>
+    <rPh sb="0" eb="1">
+      <t>きゃく</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>よさん</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>おう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この会社では、能力に応じて給料が支払われます。</t>
+    <rPh sb="2" eb="4">
+      <t>かいしゃ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>のうりょく</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>おう</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>きゅうりょう</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>しはら</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -5253,7 +5768,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5316,6 +5831,13 @@
       <color theme="1"/>
       <name val="Microsoft GothicNeo Light"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -5694,10 +6216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE3EC4-AD3B-4030-96E8-1E76FF9B4BDB}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -7327,13 +7849,79 @@
     </row>
     <row r="148" spans="1:3" ht="63">
       <c r="A148" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="94.5">
+      <c r="A149" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>369</v>
+    </row>
+    <row r="150" spans="1:3" ht="63">
+      <c r="A150" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="63">
+      <c r="A151" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="63">
+      <c r="A152" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="63">
+      <c r="A153" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="63">
+      <c r="A154" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/anki_deque/darakwon_n2_grammar.xlsx
+++ b/anki_deque/darakwon_n2_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B650E11-4A02-42DF-8ABC-3D8A51E8EC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B58E478-3444-4493-8529-28362A4F2B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
   </bookViews>
@@ -36,716 +36,716 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="681">
   <si>
     <t>あれこれ質問にこたえさせられたあげく</t>
     <rPh sb="4" eb="6">
       <t>しつもん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>여러 가지 질문에 억지로 대답한 끝에</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>몹시 고심한 끝에 과감히 그녀에게 청혼을 하기로 했다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は一番行きたかった大学に合格し、うれしさのあまり跳び上がった。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 가장 가고 싶었던 대학에 합격하여 기쁜 나머지 껑충 뛰었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>仕事をする一方で、遊ぶことも忘れない、そんな若者が増えている。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>일을 하는 한편으로 노는 것도 잊지 않는 그런 젊은이가 늘고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>警察の呼びかけにもかかわらず、オートバイの事故は増える一方だ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>경찰의 호소에도 불구하고 오토바이 사고는 늘어나기만 한다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>周囲の期待は高まる一方だ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>주위의 기대는 높아만 진다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>このへんは物価が高いうえに交通も不便なので暮らしにくい。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 근처는 물가가 비싼 데다가 교통도 불편하기 때문에 살기 불편하다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>こうなったうえは、何としても責任をとるつもりです。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이렇게 된 바에는 어떻게든 책임을 질 작정입니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>この辺りはにぎやかだか、夜になると人通りもなくなるから、明るいうちに帰ろう。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 부근은 붐비지만 밤이 되면 인적도 뜸해지니 밝을 때에 돌아가자.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>CMなどで何度か見ているうちに</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>광고 방송 등에서 몇 번인가 보는 동안에</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>冷めないうちに、召し上がってください。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>식기 전에 드세요.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>何か月もしないうちに</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>몇 개월도 지나기 전에</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼の取った態度は、私には十分理解しうるものであった。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그가 취한 태도는 내가 충분히 이해할 수 있는 것이었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>大雨で裏山がくずれるおそれがあるため、近くの公民館に避難した。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>폭우로 뒷산이 무너질 우려가 있어 근처에 있는 주민회관으로 피난했다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>私が記憶するかぎり、彼は結婚したことはない。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>내가 기억하는 한 그는 결혼한 적이 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>あの人が謝らないかぎり、私は許しません。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그 사람이 사과하지 않는 한 나는 용서하지 않겠습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>椅子に編みかけのセーターが置いてあった。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>의자에 뜨다 만 스웨터가 놓여 있었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>冷蔵庫のなかの野菜がくさりかけている。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>냉장고 안의 야채가 썩으려고 한다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>つい思ってしまいがちだ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그만 생각해 버리는 경우가 많다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>病気がちの彼には、こんな激しいスポーツはできない。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>잔병치레가 잦은 그는 이런 과격한 운동은 할 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>一つ悪いことがあると、何につけても悪く考えがちになる。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>한 가지 나쁜 일이 있으면 뭐든지 나쁘게 생각하게 된다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>ぴかっと光ったかと思ったら、しばらくしてかみなりが鳴った。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>번쩍 빛이 나는가 싶더니 잠시 후에 천둥이 쳤다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>娘は「いってきます」と言い終わるか終わらないかのうちに</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>딸은 '다녀오겠습니다'라고 말을 끝내자마자</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼は、問題を見るか見ないかのうちに、もう答えを書き始めていた。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그는 문제를 보자마자 벌써 답을 적기 시작했다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>もう３がつなのに、今日は真冬にでも戻ったかのようだ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이제 3월인데 오늘은 마치 한겨울로 돌아간 듯하다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>明日の夕方から夜にかけて</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>내일 저녁부터 밤에 걸쳐</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>日本では、8月の下旬から9月の上旬にかけて台風が多い。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>일본에서는 8월 하순부터 9월 초순에 걸쳐 태풍이 많다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>発達する低気圧の影響で、土曜日の夕方から日曜日の朝にかけて、激しい雨が降るおそれがあります。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>발달하는 저기압의 영향으로 토요일 저녁부터 일요일 아침에 걸쳐 심한 비가 내릴 우려가 있습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>今の状況からいって、このまま計画をすすめるのは無理です。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>지금 상황으로 보건대 이 상태로 계획을 추진하는 것은 무리입니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>私の経験から言うと、留学はした方がいいよ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>내 경험으로 보아 유학은 하는 편이 좋아.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼に伝わっていないことからして</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그에게 전해지지 않은 것부터가</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>私は彼のことが大嫌いだ。彼の話し方や服装からしてがまんならない。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>나는 그 사람을 무척 싫어한다. 그 사람의 말투나 복장부터가 참을 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>実務経験者ということからすると</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>실무 경험자라는 것으로 보아</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>アクセントからすると、どうやらあの人は外国出身らしい。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>악센트로 보아 아무래도 그 사람은 외국 출신인 것 같다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>親が頭がいいからといって、子どもも必ず頭がいいとはかぎらない。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>부모가 머리가 좋다고 해서 자식도 꼭 머리가 좋다고는 할 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>しばらく連絡がないからといって、そんなに心配することはないよ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>잠시 연락이 없다고 해서 그렇게 걱정할 필요는 없어.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>いったん仕事を引き受けたからには</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>일단 일을 맡은 이상에는</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>一度やると決めたからには途中でやめるわけにないかない。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>한번 하겠다고 결정한 이상에는 도중에 그만둘 수는 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>以前と比べると観光客が少し減り気味です。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이전에 비해 관광객이 조금 줄어든 듯합니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>このところ忙しくて少し疲れ気味だから、今日は早く帰ることにした。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>요즘 바빠서 조금 피곤한 듯해서 오늘은 일찍 들어가기로 했다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>髪は半年前に切ったきり</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>머리는 반년 전에 자른 이래로</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>あの人は出かけたきり戻ってこなかった。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그 사람은 나간 채 돌아오지 않았다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>本田さんとは3年前に一度会ったきりだ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>혼다 씨와는 3년 전에 한 번 만났을 뿐이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼はまだ学生のくせに外車をのりまわしているそうだ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그는 아직 학생인 주제에 외제차를 타고 다닌다고 한다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>山田さんは大学で英語を専攻したくせに簡単な挨拶もできない。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>야마다 씨는 대학에서 영어를 전공했으면서도 간단한 인사도 못한다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>近くの公園で子どもたちが楽しげに遊んでいる。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>근처 공원에서 아이들이 즐거운 듯이 놀고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>今年こそ結婚を申し込もう</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>올해야말로 청혼을 해야지</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>今でこそ一流企業と言われる</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>지금에서야말로 일류기업이라 불리는</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>いつも約束の時間に遅れて迷惑をかけるので、今度こそ、遅刻をしないようにしよう。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>항상 약속 시간에 늦어 폐를 끼치기 때문에 이번에야말로 지각을 하지 않도록 하자.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>一度は経験させたいと願うからこそだ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>한 번은 경험하게 하고 싶다고 바라기 때문이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>自分の才能を信じ続けてきたからこそ、彼女は成功することができる。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>자신의 재능을 계속 믿어왔기 때문에 그녀는 성공할 수 있었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>どんなに大変なことかわかりました。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>얼마나 힘든지 알았습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>日本に来たばかりの時、あなたの親切がどんなにうれしかったことか。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>일본에 온 지 얼마 되지 않았을 때, 당신의 친절이 얼마나 기뻤던지.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>腰の曲がった老人に似ているところから</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>허리가 굽은 노인을 닮았다는 점에서</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>「百」の字から「一」をとると「白」という字になることから</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>百'이라는 글자에서 '一'을 빼면 '白'이라는 글자가 되기 때문에</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>岡田さんは何でもよく知っていることから、友達に「博士」と呼ばれている。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>오카다 씨는 뭐든지 잘 알고 있어서 친구들에게 '박사'라고 불리고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は父親が韓国人であるところから、韓国人の知り合いも多い。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 아버지가 한국인이어서 한국인 친구도 많다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>あの人のことだから、どうせ時間どおりには来ないだろう。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그 사람이니까 어차피 시간대로는 오지 않을 것이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>失敗をおそれることなく挑戦してほしい。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>실패를 두려워하지 말고 도전해주었으면 한다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>不思議なことに</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>신기하게도</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>困ったことに、操作ミスでコンピューターが動かなくなってしまった。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>난처하게도 조작 실수로 컴퓨터가 작동하지 않게 되어버렸다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>今は食事の最中だから、タバコは遠慮したほうがいいですよ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>지금은 한창 식사 중이니 담배는 삼가는 것이 좋아요.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>質問の内容すら</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>질문의 내용조차</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>今の調子では、予選に出ることさえ難しい。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>지금 상태로는 예선에 나가는 것조차 어렵다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>漢字どころか、ひらがなすら読めない。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>한자는커녕 히라가나조차 읽지 못한다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>事前にリストをしっかり確認さえしておけば</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>사전에 목록을 제대로 확인만 해 두면</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>水やりを忘れさえしなければ</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>물 주는 것을 잊지만 않으면</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>この試合に勝ちさえすれば、オリンピックに出場できる。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 시합에 이기기만 하면 올림픽에 출전할 수 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>面白くさえあればどんな本でもけっこうです。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>재밌기만 하면 어떤 책이든 좋습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼女はひまさえあればファッション雑誌を読んでいる。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 틈만 나면 패션 잡지를 읽고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>今回の事件では会社に問題があったと言わざるをえない。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이번 사건에서는 회사에 문제가 있었다고 말할 수밖에 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>2回も同じ間違いをするとは、注意が足りなかったと言わざるをえない。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>두 번이나 같은 실수를 하다니, 주의가 부족했다고 말할 수밖에 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>ここまでマスコミにたたかれれば、彼も謝罪せざるをえないだろう。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 정도로 매스컴이 비난하면 그도 사죄할 수밖에 없을 것이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>安い材料でも工夫次第で</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>저렴한 재료라도 궁리하기에 따라</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>明日の試合は天気次第では中止になるかも知れない。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>내일 시합은 날씨에 따라서는 중지가 될지도 모른다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>先日お伝えした日程に誤りがありましたので、今回改めてご連絡した次第です。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>일전에 전해 드린 일정에 착오가 있어 이번에 다시 연락을 드린 것입니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>約10年の工事の末</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>약 10년의 공사 끝에</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>あれこれ悩んだ末に</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>여러모로 고민한 끝에</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>この新しい薬は、何年にもわたる研究の末に作り出されたものだ。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 신약은 몇 년에 걸친 연구 끝에 만들어진 것이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼の努力をずっと見てきただけに</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그의 노력을 쭉 보아 온 만큼</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>主人が魚屋も経営しているだけあって</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>남편이 생선 가게도 경영하고 있는 만큼</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は日本に留学していただけあって、日本語がよくできる。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 일본에 유학했던 만큼 일본어를 아주 잘한다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>この家は、さすが金をかけただけに、大地震でも倒れなかった。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 집은 과연 돈을 들인 만큼 대지진에도 무너지지 않았다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼の作業は速くて確実だ。さすがに、ベテランだけのことはある。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그의 작업은 빠르고 확실하다. 과연 베테랑은 다르다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>病院に行ったところ</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>병원에 갔더니</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>遠くを見るようにしたところ</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>먼 곳을 보도록 했더니</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>久しぶりにに故郷に帰ってみたところ、すっかり変わっていて少し悲しかった。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>오랜만에 고향에 돌아가 봤더니 완전히 변해있어서 조금 슬펐다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>二人は出会ったとたんに恋に落ちたそうです。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>두 사람은 만나자마자 사랑에 빠졌다고 합니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>さんざん悩んだあげく、思い切って彼女に結婚を申し込むことにした。</t>
     <rPh sb="4" eb="5">
       <t>なや</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>買い物のついでに</t>
@@ -755,7 +755,7 @@
     <rPh sb="2" eb="3">
       <t>もの</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>コンビニでお弁当を買うついでに、ジュースも買った。</t>
@@ -768,7 +768,7 @@
     <rPh sb="21" eb="22">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>ついでに本屋で週刊誌を買ってきて。</t>
@@ -781,27 +781,27 @@
     <rPh sb="11" eb="12">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>쇼핑하는 김에</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>편의점에서 도시락을 사는 김에 주스도 샀다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>가는 김에 서점에서 그 주간지 사다 줘.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>차를 사서 드라이브를 겸해 고향에 계신 부모님집에 갔다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>개와 산책할 겸 우체국에 들려 우표를 샀다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>車を買ったので、ドライブをかねてふるさとの両親の家に行った。</t>
@@ -820,7 +820,7 @@
     <rPh sb="26" eb="27">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>犬と散歩がてら郵便局に寄って切手を買った。</t>
@@ -842,7 +842,7 @@
     <rPh sb="17" eb="18">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>えっ？今日が大学入試でしたっけ。</t>
@@ -852,15 +852,15 @@
     <rPh sb="6" eb="10">
       <t>だいがくにゅうし</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>네? 오늘이 대학 입학 시험이었던가요?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>야마모토 씨에게 부탁해 봤자 해 줄 리 없어.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>山本さんに頼んだってやってくれっこないよ。</t>
@@ -870,7 +870,7 @@
     <rPh sb="5" eb="6">
       <t>たの</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>11時までには寝ようと思いつつ</t>
@@ -883,7 +883,7 @@
     <rPh sb="11" eb="12">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>勉強しなければと思いつつ遊んでしまう。</t>
@@ -896,7 +896,7 @@
     <rPh sb="12" eb="13">
       <t>あそ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>残念ながら彼の言うとおりだ。</t>
@@ -909,7 +909,7 @@
     <rPh sb="7" eb="8">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>地球は毎年少しずつ暖かくなりつつある。</t>
@@ -922,31 +922,31 @@
     <rPh sb="9" eb="10">
       <t>あたた</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>11시까지는 자려고 생각하면서도</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>공부해야지라고 생각하면서도 놀고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>유감이지만 그가 말하는 대로다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>지구는 매년 조금씩 따뜻해지고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>나는 싫증을 잘 내는 성격이어서 무엇을 하든 금방 그만둬 버린다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>나이를 먹어 사람 이름을 잘 잊어버리게 되었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>私は飽きっぽい性格なので、何をしてもすぐにやめてしまう。</t>
@@ -962,7 +962,7 @@
     <rPh sb="13" eb="14">
       <t>なに</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>年をとって人の名前を忘れっぽくなった。</t>
@@ -978,21 +978,21 @@
     <rPh sb="10" eb="11">
       <t>わす</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>聞かなかったことにしてくれない？</t>
     <rPh sb="0" eb="1">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>よかったら、少しもらってくれない？</t>
     <rPh sb="6" eb="7">
       <t>すこ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>心配して電話をかけてきてくれた友達が</t>
@@ -1005,7 +1005,7 @@
     <rPh sb="15" eb="17">
       <t>ともだち</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>次に会うときに持って来てくれればいいよ</t>
@@ -1021,14 +1021,14 @@
     <rPh sb="10" eb="11">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>「ようこそお越しくださいました」とあいさつしてくれた</t>
     <rPh sb="6" eb="7">
       <t>こ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>私たちの目を楽しませてくれます</t>
@@ -1041,7 +1041,7 @@
     <rPh sb="6" eb="7">
       <t>たの</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は熱心に私の権利を弁護してくれた。</t>
@@ -1060,42 +1060,42 @@
     <rPh sb="11" eb="13">
       <t>べんご</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>못 들은 걸로 해 줄래?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>괜찮으면 조금 받아 줄래?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>걱정되어 전화를 걸어준 친구가</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>다음에 만날 때에 가지고 와 주면 돼</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>잘 오셨습니다'하고 인사해 주었다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>우리의 눈을 즐겁게 해 줍니다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 열렬하게 나의 권리를 변호해 주었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>おいしいと言ってもらえてよかった</t>
     <rPh sb="5" eb="6">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>息子がひろし君に遊んでもらったそうで</t>
@@ -1108,7 +1108,7 @@
     <rPh sb="8" eb="9">
       <t>あそ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>両親に子供のころから自分にやりたいことを自由にやらせてもらってきた</t>
@@ -1124,7 +1124,7 @@
     <rPh sb="20" eb="22">
       <t>じゆう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>友達にバイト先を紹介してもらった。</t>
@@ -1137,23 +1137,23 @@
     <rPh sb="8" eb="10">
       <t>しょうかい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>맛있다고 해 줘서 다행이다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>히로시 군이 아들이랑 놀아줬다고 하던데</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>부모님은 어렸을 때부터 내가 하고 싶은 일을 자유롭게 하게 해 주셨다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>친구가 아르바이트 자리를 소개해 주었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>ピアノを弾くことが好きでたまらない</t>
@@ -1163,7 +1163,7 @@
     <rPh sb="9" eb="10">
       <t>す</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>痛み止めを飲んだのに、まだ頭が痛くてたまらない。</t>
@@ -1182,7 +1182,7 @@
     <rPh sb="15" eb="16">
       <t>いた</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>お母さんは君のことが心配でたまらないんだよ。</t>
@@ -1195,27 +1195,27 @@
     <rPh sb="10" eb="12">
       <t>しんぱい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>피아노 치는 것을 정말 정말 좋아한다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>진통제를 먹었는데도 아직 머리가 아파서 견딜 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>어머니는 너를 아주 걱정하고 계셔.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>시험 결과가 너무 걱정된다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>친구에게 몇 번이고 전화를 했지만 연결이 되지 않는다. 무슨 일이 있었는지 걱정이 되어 견딜 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>試験の結果が気になってならない。</t>
@@ -1228,7 +1228,7 @@
     <rPh sb="6" eb="7">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>友達に何度も電話をしたがつながらない。何かあったのか心配でならない。</t>
@@ -1247,7 +1247,7 @@
     <rPh sb="26" eb="28">
       <t>しんぱい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>風が強かったから、外に落ちちゃったんじゃない？</t>
@@ -1263,7 +1263,7 @@
     <rPh sb="11" eb="12">
       <t>お</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>生活に欠かせない道具として定着したといえるのではないか</t>
@@ -1279,14 +1279,14 @@
     <rPh sb="13" eb="15">
       <t>ていちゃく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>今ここにいるわけないじゃない？</t>
     <rPh sb="0" eb="1">
       <t>いま</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>つい食べ過ぎてしまうという人も多いのではないか</t>
@@ -1302,7 +1302,7 @@
     <rPh sb="15" eb="16">
       <t>おお</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>A：あいつ、彼女でもできたんじゃないか。
@@ -1313,7 +1313,7 @@
     <rPh sb="28" eb="30">
       <t>さいきん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>A：真っ青な顔して、どこか悪いんじゃないの？
@@ -1333,41 +1333,41 @@
     <rPh sb="31" eb="32">
       <t>わる</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>바람이 강했으니까 밖에 떨어진 게 아닐까?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>생활에 빠뜨릴 수 없는 도구로써 정착했다고 할 수 있지 않을까?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>지금 여기에 있을 리가 없잖아?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그만 과식을 하고 만다는 사람도 많지 않을까?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>A : 그 녀석, 여자친구라도 생긴 게 아닐까?
 B : 그러고 보니 요즘 패션에 무척 신경 쓰고 있어.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>A : 얼굴이 창백한데, 어디 안 좋은 거 아니야?
 B : 아니, 아픈 데 없어.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>예전에는 신혼여행이라고 하면 하와이를 떠올리는 사람이 많았다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>일본이라 하면 나는 후지산을 연상합니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>昔は新婚旅行というと、ハワイを思い出す人が多かった。</t>
@@ -1389,7 +1389,7 @@
     <rPh sb="21" eb="22">
       <t>おお</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>日本といえば、私は富士山を連想します。</t>
@@ -1405,15 +1405,15 @@
     <rPh sb="13" eb="15">
       <t>れんそう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>혈액형을 알면 대략적인 성격도 알 수 있다는 것입니다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>임금을 배로 해 달라고 하는 것은 터무니없는 요구라는 것이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>血液型が分かれば大体の性格も分かるというものです。</t>
@@ -1432,7 +1432,7 @@
     <rPh sb="14" eb="15">
       <t>わ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>賃金を倍にしてほしいなどと言うのは、不法な要求というものだ。</t>
@@ -1451,11 +1451,11 @@
     <rPh sb="21" eb="23">
       <t>ようきゅう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>승부는 이기면 그만이 아니다, 어떤 식으로 이겼는가가 중요하다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>勝負は勝てばよいというものではない。どんな勝ち方をしたのかが重要だ。</t>
@@ -1474,11 +1474,11 @@
     <rPh sb="30" eb="32">
       <t>じゅうよう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>역에서 집까지 버스를 타지 않고 걷는 것은 절약이라기보다 건강을 위해서이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>駅から家までバスに乗らず歩くのは、節約というより健康のためだ。</t>
@@ -1500,34 +1500,34 @@
     <rPh sb="24" eb="26">
       <t>けんこう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>한마디로 카레라이스라고 해도</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>요리를 할 수 있다고 해도 계란말이 정도입니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>ひとくちにカレーライスといっても</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>料理ができるといっても、たまごやきぐらいです。</t>
     <rPh sb="0" eb="2">
       <t>りょうり</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>초등학생의 체력은 저하되고 있다던데.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>친구가 다쳤다고 하면서 그는 병문안을 갔어.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>小学生の体力は低下しているとか。</t>
@@ -1540,7 +1540,7 @@
     <rPh sb="7" eb="9">
       <t>ていか</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>友人がけがをしたとかで、彼は見舞いに行ったよ。</t>
@@ -1550,23 +1550,23 @@
     <rPh sb="12" eb="13">
       <t>かれ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>장관은 만족스러운 답변을 하기는 커녕</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>기뻐해주기는 커녕 민폐를 끼치는 경우도 있기 때문에</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>나는 그 사람에게 여러가지로 친절하게 대했다고 생각하는데 감사를 받기는 커녕 원망 받았다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>내일은 시험이 있어서 드라이브할 상황이 아니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>大臣は、満足な回答ができなかったどころか</t>
@@ -1579,7 +1579,7 @@
     <rPh sb="7" eb="9">
       <t>かいとう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>喜ばれるどころか、迷惑をかけることもあるので</t>
@@ -1589,7 +1589,7 @@
     <rPh sb="9" eb="11">
       <t>めいわく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>私はあの人にいろいろ親切にしたつもりだが、感謝されるどころか、恨まれた。</t>
@@ -1608,7 +1608,7 @@
     <rPh sb="31" eb="32">
       <t>うら</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>明日は試験があるので、ドライブどころではない。</t>
@@ -1618,15 +1618,15 @@
     <rPh sb="3" eb="5">
       <t>しけん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>바쁘신 중에 일부러 와 주셔서 감사합니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>마침 외출하려던 참에 시골에 계신 어머니로부터 택배가 왔다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>お忙しいところをわざわざおいでいただき、恐縮でございます。</t>
@@ -1636,7 +1636,7 @@
     <rPh sb="20" eb="22">
       <t>きょうしゅく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>ちょうど出かけようとしていたところへ、田舎の母から宅急便か届いた。</t>
@@ -1655,34 +1655,34 @@
     <rPh sb="29" eb="30">
       <t>とど</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>프로선수로서는</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>산이나 식물 사진가로서</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>자신에게는 책임이 없어도 본인 책임이라고 해서</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>갑작스런 해고를 부당하다고 하여</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 연구생으로서 이 대학에서 공부하고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>プロの選手としては</t>
     <rPh sb="3" eb="5">
       <t>せんしゅ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>山や植物の写真家として</t>
@@ -1695,7 +1695,7 @@
     <rPh sb="5" eb="8">
       <t>しゃしんか</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>自分には責任がなくても自分の責任だとして</t>
@@ -1711,7 +1711,7 @@
     <rPh sb="14" eb="16">
       <t>せきにん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>突然の解雇を不当として</t>
@@ -1724,7 +1724,7 @@
     <rPh sb="6" eb="8">
       <t>ふとう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は研究生として、この大学で勉強している。</t>
@@ -1740,19 +1740,19 @@
     <rPh sb="15" eb="17">
       <t>べんきょう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>갈 수 있다고 해도 도중부터가 될 거라고 생각한다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>어느 별에 생물이 있다고 해도</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>낙천적인 그는 회사에서 해고가 되었다고 해도 별로 걱정하지 않을 것이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>行けるとしても、多分途中からになると思う</t>
@@ -1768,7 +1768,7 @@
     <rPh sb="18" eb="19">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>どこかの星に生物がいたとしても</t>
@@ -1778,7 +1778,7 @@
     <rPh sb="6" eb="8">
       <t>せいぶつ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>楽天的な彼は会社を首になったとしてもあまり心配しないだろ。</t>
@@ -1797,11 +1797,11 @@
     <rPh sb="21" eb="23">
       <t>しんぱい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>분화가 어떤 상태인지는 그 현장에 가보지 않으면 알 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>噴火がどんな状態なのかは、その現場へ行ってみないことにはわからない。</t>
@@ -1817,30 +1817,30 @@
     <rPh sb="18" eb="19">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>당신의 고생을 모르는 것은 아닙니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>あなたの苦労がわからないことはないです。</t>
     <rPh sb="4" eb="6">
       <t>くろう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>세계 각국의 국회의원 선거에서의 투표율</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>98년 동계 올림픽은 나가노 시에서 열렸다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>국제사회에서의 우리나라의 역할에 관해 서술하시오.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>世界各国の国会議員選挙における投票率</t>
@@ -1856,7 +1856,7 @@
     <rPh sb="15" eb="18">
       <t>とうひょうりつ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>98年の冬季オリンピックは長野市において行われた。</t>
@@ -1872,7 +1872,7 @@
     <rPh sb="20" eb="21">
       <t>おこな</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>国際社会における我が国の役割について述べなさい。</t>
@@ -1891,15 +1891,15 @@
     <rPh sb="18" eb="19">
       <t>の</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>손님의 예산에 맞게</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 회사에서는 능력에 따라서 월급이 지급됩니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>客の予算に応じて</t>
@@ -1912,7 +1912,7 @@
     <rPh sb="5" eb="6">
       <t>おう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>この会社では、能力に応じて給料が支払われます。</t>
@@ -1931,15 +1931,15 @@
     <rPh sb="16" eb="18">
       <t>しはら</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>짐은 많고 적음에 관계없이 배달해드립니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>노력했는데도 불구하고 모두 실패하고 말았다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>荷物は多少にかかわらずご配達します。</t>
@@ -1952,7 +1952,7 @@
     <rPh sb="12" eb="14">
       <t>はいたつ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>努力したにもかかわらずすべて失敗してしまった。</t>
@@ -1962,41 +1962,41 @@
     <rPh sb="14" eb="16">
       <t>しっぱい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>외출할 때만</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>우리 아이만은 그런 짓을 할 리가 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>먼저 오신 손님 100분에 한해 경품을 드립니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>우리나라뿐만 아니라</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그는 야구부에 들어 있지만 야구뿐만 아니라 스포츠라면 뭐든지 잘한다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>外出するときにかぎって</t>
     <rPh sb="0" eb="2">
       <t>がいしゅつ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>うちの子にかぎってぞんなことをするはずがない。</t>
     <rPh sb="3" eb="4">
       <t>こ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>先着のお客様100人にかぎり、景品をさしあげます。</t>
@@ -2012,11 +2012,11 @@
     <rPh sb="15" eb="17">
       <t>けいひん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>わが国に限らず</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼は野球部に入っているが、野球に限らずスポーツなら何でも得意だ。</t>
@@ -2041,7 +2041,7 @@
     <rPh sb="28" eb="30">
       <t>とくい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2090,7 +2090,7 @@
 (例：考えうる(생각할 수 있다)、理解しうる(이해할 수 있다)、ありえない(있을 수 없다)、判定しえない(판정할 수 없다))
 ≒ やむをえない (어쩔 수 없다, 하는 수 없다)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2158,7 +2158,7 @@
       </rPr>
       <t>を始めたかと思ったら(방금 공부를 시작했나 싶더니)、泣き止んだかと思ったら(울음을 그쳤나 했더니)、出かけたかと思ったら(외출했나 싶더니)、空が暗くなったかと思うと(하늘이 어두워졌나 싶더니))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2247,7 +2247,7 @@
       </rPr>
       <t>～からすれば (~으로 보아)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2356,7 +2356,7 @@
       </rPr>
       <t>～から言うと (~으로 보아)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2524,7 +2524,7 @@
       </rPr>
       <t>味(늦는 경향))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2632,7 +2632,7 @@
       </rPr>
       <t>厚なあの人でさえ(온화한 그 사람도)、食事すら(식사조차)、名前すら知らない(이름도 모른다))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2681,7 +2681,7 @@
       <t>スを勝ちぬいた末に)힘든 경주를 이겨낸 끝에))
 ≒ ～あげく (~한 끝에)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2789,7 +2789,7 @@
       </rPr>
       <t>して作った本だけに(고생해서 만든 책인 만큼))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2961,7 +2961,7 @@
       <t>～(ん)じゃないかな
 ≠ 동사의 의지형 + ～(よ)うではないか</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3026,7 +3026,7 @@
     <rPh sb="73" eb="75">
       <t>おとな</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3074,7 +3074,7 @@
     <rPh sb="74" eb="75">
       <t>あら</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3226,7 +3226,7 @@
     <rPh sb="120" eb="122">
       <t>はつげん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3378,7 +3378,7 @@
     <rPh sb="97" eb="98">
       <t>おう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3467,11 +3467,11 @@
     <rPh sb="75" eb="76">
       <t>かぎ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>남동생은 공부는 못하지만 수영에 있어서는 누구에게도 지지 않는다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>弟は勉強はできないが、泳ぎにかけては誰にも負けない。</t>
@@ -3490,19 +3490,19 @@
     <rPh sb="21" eb="22">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>반대할 게 분명하다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이런 일을 하면 아버지에게 혼날 게 분명하다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>큰 비가 오는 날 운동회라니, 못 할게 분명해.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>反対するに決まっている</t>
@@ -3512,11 +3512,11 @@
     <rPh sb="5" eb="6">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>こんなことをしたら父に𠮟られるに決まっている。</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>大雨の日に運動会なんて、できないに決まっている。</t>
@@ -3532,7 +3532,7 @@
     <rPh sb="17" eb="18">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3590,11 +3590,11 @@
     <rPh sb="86" eb="88">
       <t>そうい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>다양한 특수 기술에 더하여 컴퓨터에 의한 화상 처리 기술도 도입하고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3640,7 +3640,7 @@
     <rPh sb="89" eb="90">
       <t>かぜ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>様々な特殊技術にくわえて、コンピューターによる画像処理技術も導入している。</t>
@@ -3659,15 +3659,15 @@
     <rPh sb="30" eb="32">
       <t>どうにゅう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 계획을 그대로 추진할지 말지 어느 쪽이든</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>아무리 바빴다고 해도 전화를 걸 정도의 시간은 있었을 것이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3706,7 +3706,7 @@
     <rPh sb="59" eb="60">
       <t>むかし</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>この計画をこのまま進めるかやめるかいずれにしても</t>
@@ -3716,7 +3716,7 @@
     <rPh sb="9" eb="10">
       <t>すす</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>どんなに忙しかったにしても、電話をかけるくらいの時間はあっただろう。</t>
@@ -3729,23 +3729,23 @@
     <rPh sb="24" eb="26">
       <t>じかん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>싱글룸치고는</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>처음치고는 꽤 잘했다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>남동생은 초등학교 4학년치고는 키가 작은 편입니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>シングルルームにしては</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>初めてにしてはなかなか上手だった</t>
@@ -3755,7 +3755,7 @@
     <rPh sb="11" eb="13">
       <t>じょうず</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>弟は小学生にしては、背が低いほうです。</t>
@@ -3771,7 +3771,7 @@
     <rPh sb="12" eb="13">
       <t>ひく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3899,15 +3899,15 @@
     <rPh sb="121" eb="122">
       <t>つく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>가든 가지 않든 오늘 중으로 답변을 해야 한다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>시험 문제가 어려웠다 하더라도 좀 더 좋은 점수를 받고 싶었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>行くにしろ行かないにしろ、今日のうちに返事をしなければならない。</t>
@@ -3923,7 +3923,7 @@
     <rPh sb="19" eb="21">
       <t>へんじ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>試験の問題が難しかったにせよ、もう少しいい点がとりたかった。</t>
@@ -3942,7 +3942,7 @@
     <rPh sb="21" eb="22">
       <t>てん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4016,7 +4016,7 @@
     <rPh sb="73" eb="74">
       <t>う</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～にせよ (~라 하더라도)
@@ -4036,15 +4036,15 @@
     <rPh sb="49" eb="50">
       <t>し</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>열차는 잠시 해안을 따라 달렸습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>지침에 따라 개인정보를 취급하고 있습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>列車はしばらく海岸にそって走りました。</t>
@@ -4057,7 +4057,7 @@
     <rPh sb="13" eb="14">
       <t>はし</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>ガイドラインにそい、個人情報を取り扱っています。</t>
@@ -4070,15 +4070,15 @@
     <rPh sb="17" eb="18">
       <t>あつか</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>갑자기 비가 내릴 때에 대비하여</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>상대방의 공격에 대비하여 블로킹 연습을 했습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>突然雨が降るときに備えて</t>
@@ -4091,7 +4091,7 @@
     <rPh sb="9" eb="10">
       <t>そな</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>相手のアタックに備えてブロックの練習をしました。</t>
@@ -4104,7 +4104,7 @@
     <rPh sb="16" eb="18">
       <t>れんしゅう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4210,7 +4210,7 @@
     <rPh sb="92" eb="94">
       <t>ほうし</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4270,19 +4270,19 @@
     <rPh sb="82" eb="83">
       <t>そな</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>주인이 어지간히 소중히 다뤘음이 틀림없다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그 아이는 장래에 대단한 인물이 될 것이 틀림없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>복장은 평소랑 꽤 다르지만 역시 저건 이시하라 씨가 분명하다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>持ち主によほど大切にされていたに相違ない</t>
@@ -4298,7 +4298,7 @@
     <rPh sb="16" eb="18">
       <t>そうい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>あの子は将来、大物になるに違いない。</t>
@@ -4314,7 +4314,7 @@
     <rPh sb="13" eb="14">
       <t>ちが</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>服装はいつもとだいぶ違うが、やっぱりあれは石原さんに相違ない。</t>
@@ -4330,7 +4330,7 @@
     <rPh sb="26" eb="28">
       <t>そうい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4439,19 +4439,19 @@
     <rPh sb="148" eb="150">
       <t>そうい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이야기를 들을 때마다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>지진 뉴스를 들을 때마다 불안해집니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>어릴 적부터 쭉 좋든 싫든 툭하면 형과 비교되어 왔다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>話を聞くにつけ</t>
@@ -4461,7 +4461,7 @@
     <rPh sb="2" eb="3">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>地震のニュースを聞くにつけ、不安な気持ちになります。</t>
@@ -4477,7 +4477,7 @@
     <rPh sb="17" eb="19">
       <t>きも</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>子供の頃からずっといいにつけわるいにつけ、何かというと兄と比較されてきたのだ。</t>
@@ -4496,7 +4496,7 @@
     <rPh sb="29" eb="31">
       <t>ひかく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4559,7 +4559,7 @@
     <rPh sb="58" eb="59">
       <t>よ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～につけ～につけ (~든 ~든)
@@ -4583,15 +4583,15 @@
     <rPh sb="86" eb="87">
       <t>かな</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>꽃이 저녁 때가 가까워지면서</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>도시의 인구가 늘어남에 따라 범죄가 증가해 왔다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>花が夕方が近づくにつれて</t>
@@ -4604,7 +4604,7 @@
     <rPh sb="5" eb="6">
       <t>ちか</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>都市の人口が増えるにつれて、犯罪が増加してきた。</t>
@@ -4623,7 +4623,7 @@
     <rPh sb="17" eb="19">
       <t>ぞうか</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4701,11 +4701,11 @@
     <rPh sb="122" eb="123">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>유학생에게 있어서 살 곳을 찾는 것은 커다란 문제이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>留学生にとって住むところをさがすのは大きな問題だ。</t>
@@ -4721,15 +4721,15 @@
     <rPh sb="21" eb="23">
       <t>もんだい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>고령화에 따라 노인 의료 문제도 심각해지고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>화산활동에 동반한 현상은 다음과 같은 것이 있습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>高齢化にともない、老人医療の問題も深刻になりつつある。</t>
@@ -4745,7 +4745,7 @@
     <rPh sb="17" eb="19">
       <t>しんこく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>火山活動にともなう現象は、次のようなものがあります。</t>
@@ -4758,7 +4758,7 @@
     <rPh sb="13" eb="14">
       <t>つぎ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4798,7 +4798,7 @@
     <rPh sb="67" eb="68">
       <t>ちち</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4901,7 +4901,7 @@
     <rPh sb="106" eb="108">
       <t>はったつ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4984,11 +4984,11 @@
     <rPh sb="79" eb="81">
       <t>ぎせい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>전문가의 예측과 달리 경기 회복이 늦어지고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>専門家の予測に反して、景気の回復が遅れている。</t>
@@ -5010,11 +5010,11 @@
     <rPh sb="17" eb="18">
       <t>おく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>우리 회사가 여기까지 성장할 수 있었던 것도 바로 사원 전원의 노력이 있었기 때문이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>わが会社がここまで成長できたのも、社員全員の努力があったからにほかならない。</t>
@@ -5030,7 +5030,7 @@
     <rPh sb="22" eb="24">
       <t>どりょく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～に反し(て) (~와 반대로, ~와 달리)
@@ -5063,7 +5063,7 @@
     <rPh sb="77" eb="79">
       <t>けっか</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -5129,23 +5129,23 @@
     <rPh sb="121" eb="122">
       <t>も</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 사람을 빼고는 일본 재즈를 논할 수 없을 정도</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>농담하지 말고 진지하게 생각해 주세요.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>긍정적인 면도 부정적인 면도 있지만, 현재는 이제 관광을 빼고는 논할 수 없는 시대입니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>영국 문학은 셰익스피어를 빼고는 말할 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>この人抜きには日本のジャズは語れないほど</t>
@@ -5158,7 +5158,7 @@
     <rPh sb="14" eb="15">
       <t>かた</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>冗談ぬきでまじめに考えてください。</t>
@@ -5168,7 +5168,7 @@
     <rPh sb="9" eb="10">
       <t>かんが</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>プラスの面もマイナスの面もあるにせよ、現代はもはや観光抜きには語れない時代です。</t>
@@ -5190,7 +5190,7 @@
     <rPh sb="35" eb="37">
       <t>じだい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>イギリスの文学はシェイクスピアぬきでは語りえない。</t>
@@ -5200,7 +5200,7 @@
     <rPh sb="19" eb="20">
       <t>かた</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -5246,15 +5246,15 @@
     <rPh sb="152" eb="153">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>재정 문제를 빼고 복지 정책을 생각해도 별로 의미가 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이기고 지는 것을 떠나 둘 다 정말 잘했다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>財政問題をぬきにして福祉政策を考えても、あまり意味がない。</t>
@@ -5270,7 +5270,7 @@
     <rPh sb="23" eb="25">
       <t>いみ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>勝ち負けの話はぬきにして、お互いよくやったと思う。</t>
@@ -5289,7 +5289,7 @@
     <rPh sb="22" eb="23">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～ぬきにして (~(은/는) 생략하고, ~(을/를) 빼고)
@@ -5310,11 +5310,11 @@
     <rPh sb="175" eb="179">
       <t>りがいとくしつ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>젊은이뿐만 아니라 노인과 아이들에게도 인기가 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>若い人のみならず老人や子どもたちにも人気がある。</t>
@@ -5333,7 +5333,7 @@
     <rPh sb="18" eb="20">
       <t>にんき</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -5485,19 +5485,19 @@
     <rPh sb="112" eb="113">
       <t>かぎ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>흥미가 있었던 별이나 달력에 대해 다카하시 요시토키 밑에서 배우기 시작했다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>저는 이시하라 선생님 지도 하에 연구하고 있습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>사람들의 대표는 '국민국가'라는 명목 하에 하나의 언어, 하나의 민족으로 통일하고자 하는 정부를 탄생시켰다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>興味があった星や暦について高橋義時のもとで学び始めた</t>
@@ -5519,7 +5519,7 @@
     <rPh sb="23" eb="24">
       <t>はじ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>私は石原先生のもとで研究しています。</t>
@@ -5532,7 +5532,7 @@
     <rPh sb="10" eb="12">
       <t>けんきゅう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>人々の代表は、「国民国家」の名のもとに、一つの言語・一つの民族で統一しようとする政府を誕生させた。</t>
@@ -5566,7 +5566,7 @@
     <rPh sb="43" eb="45">
       <t>たんじょう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～のもとで (~아래서, ~밑에서, ~지도 하에)
@@ -5584,7 +5584,7 @@
     <rPh sb="68" eb="72">
       <t>きたむらせんせい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -5679,22 +5679,22 @@
     <rPh sb="107" eb="109">
       <t>かんとく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>내가 실수를 하는 바람에</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>오래된 생선회를 먹은 탓에 배탈이 나고 말았다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>僕がミスをしたばかりに</t>
     <rPh sb="0" eb="1">
       <t>ぼく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>古いさしみを食べたばかりにおなかをこわしてしまった。</t>
@@ -5704,27 +5704,27 @@
     <rPh sb="6" eb="7">
       <t>た</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>정말로 장래에 될지 안 될지는 차치하고</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>데이트할 때 입는다면 몰라도</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>10년 전이면 몰라도 지금은 그런 옷은 입을 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 레스토랑은 조금 비싸지만 가격은 그렇다 치고 맛은 좋네요.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그는 그렇다 치고 팀의 다른 멤버들과는 잘 지내고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>本当に将来なるかどうかは別として</t>
@@ -5737,14 +5737,14 @@
     <rPh sb="12" eb="13">
       <t>べつ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>デートで着るならともかく</t>
     <rPh sb="4" eb="5">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>このレストラン、ちょっと高いんですけと、値段はともかく味はいいですよ。</t>
@@ -5757,7 +5757,7 @@
     <rPh sb="27" eb="28">
       <t>あじ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>10年前ならともかく、今はそんな服は着られない。</t>
@@ -5776,7 +5776,7 @@
     <rPh sb="18" eb="19">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼は別としてチームのほかのメンバーとはうまくいっている。</t>
@@ -5786,102 +5786,102 @@
     <rPh sb="2" eb="3">
       <t>べつ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>~あまり (~한 나머지)
 &lt;형용사와 동사의 명사형 + の + あまり&gt; &lt;동사 과거형(～た) + あまり&gt; &lt;동사 사전형 + あまり&gt;
 (例：心配のあまり(걱정한 나머지)、悲しみのあまり(슬픈 나머지)、うれしさのあまり(기쁜 나머지)、考えすぎたあまり(너무 생각한 나머지))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～うえは (~한 이상에는, ~한 바에는) [문어적, 딱딱한 표현으로 제한적으로 사용]
 &lt;동사 과거형(～た) + うえは&gt;
 (例：こうなったうえは(이렇게 된 바에는)、約束したうえは(약속한 이상에는)、秘密を知ったうえは(비밀을 안 이상에는))
 ≒ ～以上は / ～からには (~한 이상에는)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～ないうちに (~하지 않는 사이에, ~하기 전에)
 &lt;～うちに의 부정&gt;
 (例：雨が降らないうちに(비가 오기 전에)、暗くならないうちに(어두워지기 전에)、忘れないうちに(잊어버리기 전에))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～おそれがある (~할 우려가 있다)
 &lt;おそれ가 명사이므로 그에 준하는 접속&gt; &lt;동사 사전형 + おそれがある&gt; &lt;명사 + の + おそれがある&gt;
 (例：大事故につながるおそれがある(대형 사고로 이어질 우려가 있다)、こわれるおそれがある(부서질 우려가 있다)、倒産のおそれがある(도산의 우려가 있다))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～か～ないのうちに (~하자마자)
 &lt;동사 사전형 + ～か～ないかのうちに&gt; &lt;동사의 과거형 + ～か～ないかのうちに&gt;
 (例：家に着くか着かないかのうちに(집에 도착하자마자)、先生の講義が終わるか終わらないかのうちに(선생님의 강의가 끝나자마자)、そう言ったか言わないかのうちに(그렇게 말하자마자))
 ≒ たとたん(に) (~한 순간(에))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～かのようだ ((마치) ~인 듯하다, ~인 것 같다)
 &lt;동사의 과거형 + かのようだ&gt; &lt;동사의 현재진행형 + かのようだ&gt;
 (例：まるで夏になったかのようだ(마치 여름이 된 것 같다)、有名人にでもなったかのようだ(유명인이라도 된 것 같다)、生きているかのようだ(마치 살아 있는 것 같다)、まるですべてを知っているかのようだ(마치 전부 알고 있는 듯하다))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～から～にかけて (~부터 ~에 걸쳐)
 (例：おとといから今日にかけて(그저께부터 오늘에 걸쳐)、2月から3月にかけて(2월부터 3월에 걸쳐)、1丁目から3丁目にかけて(1가부터 3가에 걸쳐))
 ≒ ～にわたって (~에 걸쳐)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～からといって (~라고 해서)
 &lt;～からといって + 부분 부정 표현 (例：～(という)わけではない((~라는) 것은 아니다)、～とはかぎらない(~라고는 할 수 없다)、～とはいえない(~라고는 말할 수 없다))&gt;</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～くせに (~인 주제에, ~이면서도)
 (例：知らないくせに(알지도 못하는 주제에)、きらいなくせに(싫어하는 주제에)、まだ子どものくせに(아직 어린애인 주제에)、日本に3年もいたくせに(일본에 3년이나 있었으면서도))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～げに (~한 듯이) [고풍스러운 표현]
 &lt;い형용사(い삭제) + げに&gt; &lt;동사 ます형 + げに&gt;
 (例：悲しげに(슬픈 듯이)、さびしげに(쓸쓸한 듯이)、なつかしげに(의미가 있는 듯이))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t xml:space="preserve">～こそ (~야말로)
 (例：こちらこそ(저야말로)、今でこそ(지금에서야말로)) </t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～からこそ (~이기 때문에)
 (例：かっているからこそ(알고 있기 때문에)、あなたのことを思っているからこそ(당신을 생각하기 때문에))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～ことか (~던가, ~인지) [감탄, 반문]
 &lt;주로 なんと(얼마나)、何度(몇 번)、どんなに(얼마나) 등과 호응&gt;
 (例：なんと速いことか(얼마나 빠른지)、何度やめようと思ったことか(얼마나 그만두려 했던가)、何度注意したことか(몇 번 주의를 주었던가)、どんなにさびしいことか(얼마나 쓸쓸한지))
 ≒ ～ものか (~할까 보냐)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～ことから / ～ところから (~로 인해, ~때문에 / ~하는 점에서, ~해서) [근거, 유래]
 (例：子どもが少なくなってきていることから(어린이가 줄고 있기 때문에)、米君の基地が多いことから(미군 기지가 많아서)、性能もよくなったことから(성능도 좋아졌기 때문에)、へびそっくりのところから(뱀과 꼭 닮은 점에서)、えびに似ているところから(새우와 닮아서))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～ことなく (~하지 않고)
 &lt;동사 사전형 + ことなく&gt;
 (例：いつまでも忘れることなく(언제까지나 잊지 않고)、友を見捨てることなく(친구를 버리지 않고)、信念をまげることなく(신념을 굽히지 않고))</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～ことに (~하게도)
 &lt;동사 과거형(～た) + ことに&gt; &lt;い형용사/な형용사 + ことに&gt;
 (例：困ったことに(난처하게도)、驚いたことに(놀랍게도)、おもしろいことに(우습게도)、興味深いことに(흥미롭게도)、うれしいことに(기쁘게도))
 ≒ ～ことには (~하게도)</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～っけ (~던가, ~였더라)
@@ -5911,7 +5911,7 @@
     <rPh sb="109" eb="110">
       <t>たく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～つつある (~중이다, ~하고 있다)
@@ -5934,7 +5934,7 @@
     <rPh sb="57" eb="58">
       <t>む</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～っぽい (~의 경향이 강하다, ~같다, ~한 성질이 있다)
@@ -5949,17 +5949,17 @@
     <rPh sb="85" eb="86">
       <t>おこ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～てくれる ((남이 나에게) ~해 주다)
 [행동을 하는 사람이 주어]</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～てもらう ((내가 남에게) ~해 받다 → (남이 나에게) ~해 주다)
 [행동을 받는 '나'가 주어]</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～てたまらない (~해서 견딜 수 없다, 너무 ~하다)
@@ -5978,7 +5978,7 @@
     <rPh sb="115" eb="116">
       <t>す</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～というものだ (~라는 것이다)
@@ -5996,7 +5996,7 @@
     <rPh sb="111" eb="114">
       <t>ひじょうしき</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～とか (~라고 하던데) [전문, 불확실]
@@ -6017,7 +6017,7 @@
     <rPh sb="69" eb="70">
       <t>あ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～ところを (~(인/한) 중에)
@@ -6034,7 +6034,7 @@
     <rPh sb="57" eb="58">
       <t>あぶ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～に(も)かかわらず (~에(도) 관계없이, ~에도 불구하고)
@@ -6066,7 +6066,7 @@
     <rPh sb="112" eb="113">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～にかけては (~에 있어서는, ~에 관한 한)
@@ -6090,7 +6090,7 @@
     <rPh sb="88" eb="89">
       <t>はや</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～ばかりに (~하는 바람에, ~하는 탓에)
@@ -6114,7 +6114,7 @@
     <rPh sb="106" eb="107">
       <t>た</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6265,19 +6265,19 @@
     <rPh sb="238" eb="239">
       <t>べつ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>떠맡을 수밖에 없을 것이다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>오늘은 비가 오지 않을 거라 생각해서 우산을 가져오지 않았습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이제 이런 짓은 하지 않겠다고 신에게 맹세했습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>引き受けるしかあるまい</t>
@@ -6287,7 +6287,7 @@
     <rPh sb="2" eb="3">
       <t>う</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>今日は雨が降るまいと思って、かさを持ってきませんでした。</t>
@@ -6306,7 +6306,7 @@
     <rPh sb="17" eb="18">
       <t>も</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>もう、このようなことはしまいと神に誓いました。</t>
@@ -6316,7 +6316,7 @@
     <rPh sb="17" eb="18">
       <t>ちか</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6388,7 +6388,7 @@
     <rPh sb="167" eb="170">
       <t>らいがっき</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6460,7 +6460,7 @@
     <rPh sb="167" eb="170">
       <t>らいがっき</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6532,11 +6532,11 @@
     <rPh sb="167" eb="170">
       <t>らいがっき</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>어르신에게 적합한 서비스나 상품이 있습니까?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>お年寄り向きのサービスや商品がありますか。</t>
@@ -6549,11 +6549,11 @@
     <rPh sb="12" eb="14">
       <t>しょうひん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 회사에서는 어린이용 텔레비전 프로그램을 만들고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>この会社では、子どもむけのテレビ番組を作っている。</t>
@@ -6569,15 +6569,15 @@
     <rPh sb="19" eb="20">
       <t>つく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>빨래를 좋아하는 사람도 있고 요리가 취미라는 사람도 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이런 사건을 일으키다니, 부모도 부모지만 자식도 자식이다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>洗濯の好きな人もいれば、料理が趣味という人もいる。</t>
@@ -6593,14 +6593,14 @@
     <rPh sb="12" eb="14">
       <t>りょうり</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>こんな事件を起こすなんて、親も親なら子も子だ。</t>
     <rPh sb="3" eb="5">
       <t>じけん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6655,7 +6655,7 @@
     <rPh sb="108" eb="109">
       <t>じょう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6744,7 +6744,7 @@
     <rPh sb="87" eb="90">
       <t>ゆしゅつひん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6799,7 +6799,7 @@
     <rPh sb="126" eb="127">
       <t>とき</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～も～なら～も (~도 ~지만 ~도)
@@ -6819,11 +6819,11 @@
     <rPh sb="30" eb="31">
       <t>こ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 어머니가 말리는 것도 개의치 않고 택시를 타고 가버렸다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は母親がとめるのもかまわず、タクシーに乗って行ってしまった。</t>
@@ -6839,7 +6839,7 @@
     <rPh sb="24" eb="25">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～もかまわず (~도 개의치 않고)
@@ -6866,11 +6866,11 @@
     <rPh sb="125" eb="126">
       <t>わたし</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>스포츠에는 승부를 넘어 사람들의 감동을 불러일으키는 데가 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>スポーツには、勝負を超えて人々の感動をさそうものがある。</t>
@@ -6883,7 +6883,7 @@
     <rPh sb="13" eb="18">
       <t>ひとびとのかんどう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6912,7 +6912,7 @@
       <t>んだあげく(고심한 끝에)、困ったあげく(난처한 끝에)、考えたあげく(생각한 끝에)
 ≒ ～の末に「のすえに」 (~한 끝에)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6941,7 +6941,7 @@
       <t>んだあげく(고심한 끝에)、困ったあげく(난처한 끝에)、考えたあげく(생각한 끝에))
 ≒ ～の末に「のすえに」 (~한 끝에)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7012,7 +7012,7 @@
     <rPh sb="1" eb="3">
       <t>いっぽう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7041,7 +7041,7 @@
       <t>える一方だ(늘어나기만 한다)、減る一方だ(줄어들기만 한다)、失業率はあがる一方だ(실업률은 올라가기만 한다))
 ≒ ～ばかりだ (~하기만 하다)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7090,7 +7090,7 @@
       <t>くうえに(잘 듣는 데다가))
 ≒ ~上 (~상)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7179,7 +7179,7 @@
       </rPr>
       <t>が健康なうちは(몸이 건강할 때에는))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7268,7 +7268,7 @@
       </rPr>
       <t>が健康なうちは(몸이 건강할 때에는))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7359,7 +7359,7 @@
 [참고] &lt;～かぎり + の + 명사&gt; (~하는 한의 ~) (例：持てるかぎりの荷物(들 수 있는 한의 짐))
 [참고2] ～かぎりでは (~하는 바로는) (例：君がここにいるかぎりでは(네가 여기 있는 한))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7387,7 +7387,7 @@
       </rPr>
       <t>みかけの本(읽다 만 책)、食べかけのパン(먹다 만 빵)、夕飯を作りかけて(저녁밥을 만들다 말고)、彼は何か言いかけて(그는 뭔가 말하려다 말고)、前の人にぶつかりかけた(앞사람과 부딪칠 뻔했다))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7415,7 +7415,7 @@
       </rPr>
       <t>(자주 흐린 날씨)、忘れがちになる(자주 잊게 되다))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7463,7 +7463,7 @@
       </rPr>
       <t>社は社長からして(이 회사는 사장부터가)、あの店のパンはにおいからして(그 가게의 빵은 냄새부터가))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7512,7 +7512,7 @@
       </rPr>
       <t>～うえは (~한 이상에는)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7540,7 +7540,7 @@
       </rPr>
       <t>ったきりだ(졸업한 이듬해에 한 번 만났을 뿐이다)、10年前に習ったきりだ(10년 전에 배웠을 뿐이다))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7569,7 +7569,7 @@
       <t>面目なあの人のことだから(성실한 그 사람이니))
 ≒ ～ものだから (~이기 때문에)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7617,7 +7617,7 @@
       </rPr>
       <t>討している最中だ(지금 한창 검토하고 있는 중이다))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7705,7 +7705,7 @@
       </rPr>
       <t>みさえすれ(약을 먹기만 하면)、だまってさえいれば(잠자코 있기만 하면)、新聞に名前さえ出なければ(신문에 이름만 나오지 않으면)、安くさえあれば(싸기만 하면)、ひまさえあれば(틈만 있으면)、衣類は丈夫でさえあれば(옷은 튼튼하기만 하면))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7733,7 +7733,7 @@
       </rPr>
       <t>えざるをえない(한자를 외워야만 한다)、行くのをあきらめざるをえない(가는 것을 단념할 수밖에 없다)、値下げせざるをえない(가격을 내릴 수밖에 없다))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7781,7 +7781,7 @@
       </rPr>
       <t>査の結果次第では(검사 결과에 따라서는))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7808,7 +7808,7 @@
       </rPr>
       <t>た次第です(제가 대신 온 것입니다))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7836,7 +7836,7 @@
       </rPr>
       <t>だっただけのことはある(과연 아나운서 출신은 다르다)、チャンピオンだけのことはある(과연 챔피언이라 할 만하다))</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7865,7 +7865,7 @@
       <t>場の問い合わせをしたところ(모임 장소를 문의했더니)、電話帳で調べたところ(전화번호부에서 찾아봤더니)、先生のお宅へうかがったところ(선생님 댁으로 찾아뵈었더니))
 ≒ ～たところで (~해본들, ~해봤자)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7894,7 +7894,7 @@
       <t>を見たとたん(사진을 보자마자)、椅子から立ったとたん(의자에서 일어난 순간)、窓を開けたとたんに(창문을 연 순간에)、家を出たとたんに(집을 나서자마자))
 ≒ ～か～ないかのうちに (~하자마자)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7923,7 +7923,7 @@
       <t>まで行ったついでに(역까지 간 김에)、夕飯を作るついでに(저녁밥을 만드는 김에)、出張のついでに(출장 가는 김에)
 ≒ ついでで (~하는 김으로)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7952,7 +7952,7 @@
       <t>まで行ったついでに(역까지 간 김에)、夕飯を作るついでに(저녁밥을 만드는 김에)、出張のついでに(출장 가는 김에)
 ≒ ついでで (~하는 김으로)</t>
     </r>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7998,7 +7998,7 @@
     <rPh sb="64" eb="68">
       <t>しじょうちょうさ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8067,7 +8067,7 @@
     <rPh sb="67" eb="71">
       <t>ちょうさりょこう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8174,7 +8174,7 @@
     <rPh sb="95" eb="97">
       <t>こいびと</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8213,7 +8213,7 @@
     <rPh sb="40" eb="41">
       <t>かんが</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8255,7 +8255,7 @@
     <rPh sb="91" eb="93">
       <t>ふうけい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8299,7 +8299,7 @@
     <rPh sb="133" eb="135">
       <t>しんぱい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8338,7 +8338,7 @@
     <rPh sb="67" eb="69">
       <t>びょうき</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8386,7 +8386,7 @@
     <rPh sb="73" eb="75">
       <t>ともだち</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8428,7 +8428,7 @@
     <rPh sb="59" eb="60">
       <t>はじ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8484,7 +8484,7 @@
     <rPh sb="42" eb="44">
       <t>きゅうよう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8541,7 +8541,7 @@
     <rPh sb="107" eb="109">
       <t>びょうき</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8633,7 +8633,7 @@
     <rPh sb="138" eb="140">
       <t>はなみ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8682,7 +8682,7 @@
     <rPh sb="107" eb="108">
       <t>はじ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8722,7 +8722,7 @@
     <rPh sb="113" eb="114">
       <t>やぶ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8782,7 +8782,7 @@
     <rPh sb="92" eb="95">
       <t>じっさいあ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8872,7 +8872,7 @@
     <rPh sb="169" eb="170">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8933,7 +8933,7 @@
     <rPh sb="34" eb="35">
       <t>かぎ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8997,15 +8997,15 @@
     <rPh sb="201" eb="202">
       <t>み</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이제 두 번 다시 사랑 따위 할까 보냐</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>3년 동안 혹독한 연습을 견뎌냈어. 내일 시합, 질까 보냐.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>もう二度と恋などするものか</t>
@@ -9015,7 +9015,7 @@
     <rPh sb="5" eb="6">
       <t>こい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>3年間、厳しい練習に耐えたんだ。明日の試合、負けてなるものか。</t>
@@ -9040,7 +9040,7 @@
     <rPh sb="22" eb="23">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～ものか (~할까 보냐, ~하나 봐라)
@@ -9064,19 +9064,19 @@
     <rPh sb="75" eb="76">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>입을 옷을 고를 때에도, 휴일의 계획을 세울 때에도 날씨는 신경이 쓰이는 법</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>놀고만 있어서는 안 된다. 학생은 공부를 해야 한다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>밤늦게 전화하는 거 아니야.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>着る服を選ぶ時も、休日の予定を立てる時も、天気は気になるもの</t>
@@ -9110,7 +9110,7 @@
     <rPh sb="24" eb="25">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>遊んでばかりではだめだ。学生は勉強するものだ。</t>
@@ -9123,7 +9123,7 @@
     <rPh sb="15" eb="17">
       <t>べんきょう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>夜遅く電話をかけるものではないよ。</t>
@@ -9133,7 +9133,7 @@
     <rPh sb="3" eb="5">
       <t>でんわ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9228,7 +9228,7 @@
     <rPh sb="272" eb="273">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>～ものだから (~이기 때문에, ~해서) [개인적인 이유로 변명]
@@ -9265,11 +9265,11 @@
     <rPh sb="129" eb="130">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>갑자기 추워져서 감기에 걸리고 말았다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>急に寒くなったものだから、風邪をひいてしまった。</t>
@@ -9282,7 +9282,7 @@
     <rPh sb="13" eb="15">
       <t>かぜ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9411,7 +9411,7 @@
     <rPh sb="106" eb="107">
       <t>かえ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9457,23 +9457,23 @@
     <rPh sb="131" eb="134">
       <t>いちどみ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그때로 돌아갈 수 있다면 돌아가고 싶다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>갈 수 있다면 가고 싶다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>같이 갈 수 있다면 가 주고 싶지만, 일의 형편상 그렇게 할 수 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>금방 퇴원은 할 수 있었지만 불행히도 후유증이 남아 생각대로 일을 할 수 없게 되었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>あのころに戻れるものなら戻りたい</t>
@@ -9483,7 +9483,7 @@
     <rPh sb="12" eb="13">
       <t>もど</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>行けるものなら行きたい</t>
@@ -9493,7 +9493,7 @@
     <rPh sb="7" eb="8">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>一緒に行けるものなら行ってあげたいが、仕事の都合上、そうもいかない。</t>
@@ -9512,7 +9512,7 @@
     <rPh sb="22" eb="25">
       <t>つごうじょう</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>すぐ退院はできたものの、不幸にも後遺症が残り、思うように仕事をすることができなくなった。</t>
@@ -9534,22 +9534,22 @@
     <rPh sb="28" eb="30">
       <t>しごと</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>주머니에는 손수건이며 껌 등이 들어 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>어제는 술을 너무 많이 마신 탓에 두통이며 구토로 힘들었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>ポケットにはハンカチやらガムやらが入っている。</t>
     <rPh sb="17" eb="18">
       <t>はい</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>昨日は酒を飲みすぎたせいで、頭が痛いやら、吐き気がするやらで大変だった。</t>
@@ -9577,23 +9577,23 @@
     <rPh sb="30" eb="32">
       <t>たいへん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그것을 무시하고 회의를 추진할 수는 없다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>중요한 회의가 있어서 쉴 수는 없다</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>앞으로 3일 기다려 주실 수 없습니까?</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>내일은 시험이 있어서 오늘은 놀고 있을 수는 없다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>そのことを無視して進めるわけれはならない</t>
@@ -9603,7 +9603,7 @@
     <rPh sb="9" eb="10">
       <t>すす</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>大事な会議があるから休むわけにはいかない</t>
@@ -9616,7 +9616,7 @@
     <rPh sb="10" eb="11">
       <t>やす</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>あと3日待っていただくわけにはいきませんか。</t>
@@ -9626,7 +9626,7 @@
     <rPh sb="4" eb="5">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>明日は試験があるから、今日は遊んでいるわけにはいかない。</t>
@@ -9642,7 +9642,7 @@
     <rPh sb="14" eb="15">
       <t>あそ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9682,7 +9682,7 @@
     <rPh sb="63" eb="64">
       <t>かな</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9757,11 +9757,11 @@
     <rPh sb="105" eb="106">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그 영화는 유명한 스타가 많이 출연한 데 비해서는 재미없었다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>その映画は有名なスターがたくさん出演しているわりにはつまらなかった。</t>
@@ -9774,15 +9774,15 @@
     <rPh sb="16" eb="18">
       <t>しゅつえん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그는 취업을 계기로 생활 방식을 확 바꿨다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>나카시마 씨는 정년 퇴직을 계기로 그림을 배우기 시작했다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼は就職を機会として生活スタイルをガラリと変えた。</t>
@@ -9801,7 +9801,7 @@
     <rPh sb="21" eb="22">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>中島さんは定年退職を会議に絵を習い始めた。</t>
@@ -9823,7 +9823,7 @@
     <rPh sb="17" eb="18">
       <t>はじ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9901,7 +9901,7 @@
     <rPh sb="131" eb="132">
       <t>わか</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10012,11 +10012,11 @@
     <rPh sb="113" eb="115">
       <t>けいき</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 케이크는 제가 마음을 담아 만든 것입니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>このケーキは私が心を込めて作ったものです。</t>
@@ -10032,7 +10032,7 @@
     <rPh sb="13" eb="14">
       <t>つく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10187,11 +10187,11 @@
     <rPh sb="79" eb="80">
       <t>こ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그 강의를 통해서 점점 정치에 흥미가 생겼다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>藤田さんご夫妻とは鈴木さんを通じて知り合いました。</t>
@@ -10213,11 +10213,11 @@
     <rPh sb="19" eb="20">
       <t>あ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>후지타 씨 부부와는 스즈키 씨를 통해서 알게 되었습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>その講義を通して、政治にどんどん興味がわいできた。</t>
@@ -10233,7 +10233,7 @@
     <rPh sb="16" eb="18">
       <t>きょうみ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10337,15 +10337,15 @@
     <rPh sb="152" eb="153">
       <t>とお</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>학교는 그 학생을 퇴학 처분한다는 결론을 낸 듯 하다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>그는 돈벌이를 목적으로서 살고 있는 듯한 남자다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>学校はこの学生を退学処分とするという結論を出したようだ。</t>
@@ -10367,7 +10367,7 @@
     <rPh sb="21" eb="22">
       <t>だ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>彼は金もうけを目的として生きているような男だ。</t>
@@ -10386,7 +10386,7 @@
     <rPh sb="20" eb="21">
       <t>おとこ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10537,15 +10537,15 @@
     <rPh sb="154" eb="155">
       <t>わか</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>초보자, 경험자를 불문하고</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>나이, 경험을 불문하고 누구나 투어에 참가할 수 있습니다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>初心者、経験者を問わず</t>
@@ -10558,7 +10558,7 @@
     <rPh sb="8" eb="9">
       <t>と</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>年齢、経験を問わず、誰れもツアーに参加できます。</t>
@@ -10577,7 +10577,7 @@
     <rPh sb="17" eb="19">
       <t>さんか</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10652,7 +10652,7 @@
     <rPh sb="79" eb="80">
       <t>と</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10771,11 +10771,11 @@
     <rPh sb="168" eb="170">
       <t>ぜんいん</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>이 대학에는 중국을 비롯하여 아시아에서 온 유학생이 많다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>この大学には中国をはじめ、アジアからの留学生が多い。</t>
@@ -10785,11 +10785,11 @@
     <rPh sb="6" eb="8">
       <t>ちゅうごく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>대기 오염의 해결책을 둘러싸고 활발한 논의가 계속되고 있다.</t>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <t>大気汚染の解決策をめぐって活発な議論が続いている。</t>
@@ -10808,7 +10808,7 @@
     <rPh sb="19" eb="20">
       <t>つづ</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10924,14 +10924,1473 @@
     <rPh sb="121" eb="124">
       <t>かいけつさく</t>
     </rPh>
-    <phoneticPr fontId="1" type="Hiragana"/>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>2시간 기다린 보람이 있어 비가 그치고 아름다운 경치를 볼 수 있었다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>二時間待ったかいがあって、雨がやみ、美しい景色を見ることができた。</t>
+    <rPh sb="0" eb="4">
+      <t>にじかんま</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>あめ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>うつく</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>けしき</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>み</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>처음부터 우주비행사가 될 생각이었는가 하면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>어머니가 아니면 안 되는가 하면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>문장에 능하면 누구나 작가가 될 수 있는가 하면 그렇지는 않다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>부장님과 과장님은 툭하면 의견이 대립한다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>初めから宇宙飛行士になるつもりだったかというと</t>
+    <rPh sb="0" eb="1">
+      <t>はじ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>うちゅうひこうし</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>母親でなくてはならないかというと</t>
+    <rPh sb="0" eb="2">
+      <t>ははおや</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>文章がうまければ誰でも作家になれるかというと、そんなことはない。</t>
+    <rPh sb="0" eb="2">
+      <t>ぶんしょう</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>だれ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>さっか</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>部長と課長は何かといえば意見が対立する。</t>
+    <rPh sb="0" eb="2">
+      <t>ぶちょう</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>かちょう</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>なに</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>いけん</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>たいりつ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>등록자는 2021년 8월 현재 144명입니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>登録者は2021年8月現在で144名です。</t>
+    <rPh sb="0" eb="3">
+      <t>とうろくしゃ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>がつ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>げんざい</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>めい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～かいがあって (~한 보람이 있어)
+&lt;동사 과거형 / 명사+の + かいがあって&gt;
+例：頑張ったかいがあって(열심히 한 보람이 있어)、努力のかいがあって(노력한 보람이 있어)、看護のかいがあって(간호한 보람이 있어)</t>
+    <rPh sb="45" eb="46">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>がんば</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>どりょく</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>かんご</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～かというと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～かといえば (~하는가 하면, ~하냐 하면)
+例：困ったかというと(곤란했는가 하면)、いつ好きになったといえば(언제 좋아하게 되었는가 하면)、何かというと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>何かといえば(툭하면, 입만 벙긋하면, 기회만 있으면, 늘)、どちらかというと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>どちらかといえば(어느 쪽인가 하면)</t>
+    </r>
+    <rPh sb="32" eb="33">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>こま</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>す</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>なに</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>なに</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～現在で (~현재, ~시점으로)
+&lt;동사 과거형(～た) / 명사 + 現在で&gt;
+例：この</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>の人口は、昨年の1月現在で(이 나라의 인구는 작년 1월 시점으로)、2021年10月15日現在で(2021년 10월 15일 현재)、いつ現在で(언제 시점으로)</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>げんざい</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>くに</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>じんこう</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>さくねん</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>がつげんざい</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>がつ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>にち</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>げんざい</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>げんざい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그는 나이는 젊지만 상당히 유능하다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼は年こそ若いが非常に有能だ。</t>
+    <rPh sb="0" eb="1">
+      <t>かれ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>とし</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>わか</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ひじょう</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゆうのう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>민폐를 끼치는 경우도 있기 때문에</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>일기예보는 빗나가는 경우가 있다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>問題を解いてみるとできないということがよくある</t>
+    <rPh sb="0" eb="2">
+      <t>もんだい</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>と</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>문제를 풀어보면 불가능하다는 경우가 자주 있다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>迷惑をかけることもあるので</t>
+    <rPh sb="0" eb="2">
+      <t>めいわく</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>天気予報ははずれることがある。</t>
+    <rPh sb="0" eb="4">
+      <t>てんきよほう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～こそ～が (~는 ~지만)
+&lt;～こそ + ～が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>けれども</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ものの 등 (역접 접속사)&gt;
+例：ことばづかいこそ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>悪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>いが、デザインこそ古いが、時間こそかかるが</t>
+    </r>
+    <rPh sb="46" eb="47">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>わる</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ふる</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>じかん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ことがある (~하는 경우가 있다) [빈도가 적은 일]
+&lt;동사 사전형/부정형 + ことがある&gt;
+例：彼はときどき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>校を休むことがあります(그는 가끔 학교를 쉴 때가 있습니다)、天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>のいい日に子どもと散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>歩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>することがあるぐらいで(날씨가 좋은 날에 아이와 산책하는 경우가 있을 정도로)</t>
+    </r>
+    <rPh sb="52" eb="53">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>かれ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>がっこう</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>やす</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>てんき</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ひ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>こ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>さんぽ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>새삼 그에게 그런 편지 따위 쓸 필요는 없어.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今さら彼にそんな手紙など書くことはないよ。</t>
+    <rPh sb="0" eb="1">
+      <t>いま</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>かれ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>てがみ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>지금까지 뭔가에 열중한 적이 있었던가?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그 책이라면 어렸을 적에 읽은 적이 있습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그런 얘기는 들은 적이 없다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>これまで何かに夢中になったことがあっただろうか</t>
+    <rPh sb="4" eb="5">
+      <t>なに</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>むちゅう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>その本なら子どものころ読んだことがあります。</t>
+    <rPh sb="2" eb="3">
+      <t>ほん</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>こ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>よ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>そんな話は聞いたことがない。</t>
+    <rPh sb="3" eb="4">
+      <t>はなし</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>き</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～ことはない (~할 필요는 없다)
+&lt;동사 사전형 + ことはない&gt;
+例：そんなにあわてて結婚することはないよ(그렇게 서둘러 결혼할 필요는 없어)、まだ30分あるから急ぐことはない(아직 30분 있으니까 서두를 필요는 없다)</t>
+    <rPh sb="36" eb="37">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>けっこん</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ぷん</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>いそ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～たことがある (~한 적이 있다) / ～たことがない (~한 적이 없다)
+&lt;동사 과거형(～た) + ことがある / ことがない&gt;
+例：UFOを見たことがありますか(UFO를 본 적이 있습니까?)、そんな話聞いたことある？(그런 말 들은 적 있어?)、私はハワイに行ったことがありません(저는 하와이에 간 적이 없습니다)、10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>歳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>になるまで海を見たことがなかった(10살이 될 때까지 바다를 본 적이 없었다)</t>
+    </r>
+    <rPh sb="69" eb="70">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>み</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>はなしき</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>い</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>さい</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>うみ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>み</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～たことがある (~한 적이 있다) / ～たことがない (~한 적이 없다)
+&lt;동사 과거형(～た) + ことがある / ことがない&gt;
+例：UFOを見たことがありますか(UFO를 본 적이 있습니까?)、そんな話聞いたことある？(그런 말 들은 적 있어?)、私はハワイに行ったことがありません(저는 하와이에 간 적이 없습니다)、10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>歳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>になるまで海を見たことがなかった(11살이 될 때까지 바다를 본 적이 없었다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="69" eb="70">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>み</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>はなしき</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>い</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>さい</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>うみ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>み</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～たことがある (~한 적이 있다) / ～たことがない (~한 적이 없다)
+&lt;동사 과거형(～た) + ことがある / ことがない&gt;
+例：UFOを見たことがありますか(UFO를 본 적이 있습니까?)、そんな話聞いたことある？(그런 말 들은 적 있어?)、私はハワイに行ったことがありません(저는 하와이에 간 적이 없습니다)、10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>歳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>になるまで海を見たことがなかった(12살이 될 때까지 바다를 본 적이 없었다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="69" eb="70">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>み</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>はなしき</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>い</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>さい</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>うみ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>み</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>동일본 지도 작성도 명을 받게 된다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>집세는 한 달에 6만 엔이니까, 1년에 72만 엔이나 지불하는 셈이 된다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>東日本の地図作成も命じられることとなる</t>
+    <rPh sb="0" eb="3">
+      <t>ひがしにっぽん</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ちずさくせい</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>めい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>家賃は1か月6万円だから、1年で72万円も支払うことになる。</t>
+    <rPh sb="0" eb="2">
+      <t>やちん</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>げつ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>まんえん</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>まんえん</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>しはら</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ことになる (~하게 되다, ~하는 셈이 되다)
+&lt;동사/い형용사 사전형 + ことになる&gt;
+例：1年で60万円も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>払</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>うことになる(1년에 60만 엔이나 지불하는 셈이 된다)、1か月あたり5万円も安いことになる(한 달에 5만 엔이나 저렴해지는 셈이 된다)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>売</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>値は500円上げることになる(매매가는 500엔 오르는 셈이 된다)</t>
+    </r>
+    <rPh sb="49" eb="50">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>まんえん</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>はら</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>げつ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>まんえん</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>やす</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>うりね</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>えん</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>あ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ことになる (~하게 되다, ~하는 셈이 되다)
+&lt;동사/い형용사 사전형 + ことになる&gt;
+例：1年で60万円も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>払</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>うことになる(1년에 60만 엔이나 지불하는 셈이 된다)、1か月あたり5万円も安いことになる(한 달에 5만 엔이나 저렴해지는 셈이 된다)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>売</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>値は500円上げることになる(매매가는 501엔 오르는 셈이 된다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="49" eb="50">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>まんえん</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>はら</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>げつ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>まんえん</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>やす</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>うりね</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>えん</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>あ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>책이나 인터넷 자료를 베낀 것만으로는 리포트를 쓴 것이 되지는 않는다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>本やインターネットの資料を写しただけではレポートを書いたことにはならない。</t>
+    <rPh sb="0" eb="1">
+      <t>ほん</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>しりょう</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>うつ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>못 들은 걸로 해주지 않을래?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>상사로서는 못 본 걸로 하고</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A : 전철과 버스 중 어느 쪽이 좋아요?
+B : 글쎄요, 버스는 늘 붐비니까 오늘은 전철로 가기로 합시다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>聞かないことにしてくれない？</t>
+    <rPh sb="0" eb="1">
+      <t>き</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>上司としては見なかったことにして</t>
+    <rPh sb="0" eb="2">
+      <t>じょうし</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>み</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A：電車とバスとどちらがいいですか。
+B：そうですね。バスはいつもこみますから、今日は電車で行くことにしましょう。</t>
+    <rPh sb="2" eb="4">
+      <t>でんしゃ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>きょう</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>でんしゃ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ことにはならない (~한 것이 되지는 않는다) [충족 요건이 부족하여 실현되지 못함을 표현]
+&lt;(～だけでは +) 동사 과거형(～た) + ことにはならない&gt;
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>件をクリアしたことにはならない(조건을 통과한 것이 되지는 않는다)、電話をかけただけでは入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>したことにはならない(전화를 건 것만으로는 가입한 것이 되지는 않는다)</t>
+    </r>
+    <rPh sb="86" eb="87">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>じょうけん</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>でんわ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>にゅうかい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ことにする (~하게 되다, ~하기로 하다)
+例：どこへも行かないで勉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>することにしたよ(아무 데도 가지 않고 공부하기로 했어)、甘い物は食べないことに使用(단 것은 먹지 말아야지)</t>
+    </r>
+    <rPh sb="25" eb="26">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>い</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>べんきょう</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>あま</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>もの</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>た</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>しよう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>리포트는 마지막까지 쓰기는 썼습니다만 아직 부족한 부분이 있습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>レポートは最後まで書いたことは書いたんですが、まだ足りない部分があります。</t>
+    <rPh sb="5" eb="7">
+      <t>さいご</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>か</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>か</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>た</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ぶぶん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ことは～が (~하기는 ~지만) [비슷한 뜻의 강조]
+&lt;AことはBが&gt;
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>医</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>者であることは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>医</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>者なのですが(의사이기는 합니다만)、難しいことは難しいが(어렵기는 어렵지만)、はったことははったが(붙이기는 붙였지만)
+≒ ～には～が (~하기는 ~지만)</t>
+    </r>
+    <rPh sb="39" eb="40">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>いしゃ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>いしゃ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>むずか</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>むずか</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>친구가 남은 콘서트 티켓을 한 장 주어서 나는 표를 사지 않아도 되었다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>우산을 가지고 갔기 때문에 갑자기 비가 와도 젖지 않았다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>다행히 친구가 냉장고를 줘서 새 것을 사지 않아도 되었다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>友達が、余っていたコンサートのチケットを1枚くれたので、私はチケットを買わずにすんだ。</t>
+    <rPh sb="0" eb="2">
+      <t>ともだち</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>あま</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>まい</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>かさを持って行ったので、突然雨に降られてもぬれないですんだ。</t>
+    <rPh sb="3" eb="4">
+      <t>も</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>い</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>とつぜん</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>あめ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ふ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>幸い友達が冷蔵庫をくれたので、新しいのを買わなくて済んだ。</t>
+    <rPh sb="0" eb="1">
+      <t>さいわ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ともだち</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>れいぞうこ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>あたら</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>か</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>す</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ずにすむ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ないですむ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～なくて(も)すむ (~하지 않고 끝나다, ~하지 않아도 된다)
+&lt;동사 부정형 + ずにすむ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ないですむ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>なくて(も)すむ&gt;
+例：お金を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>払</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>わずにすむ(돈을 지불하지 않아도 된다)、暑さにやられずにすんだ(더위에 지치지 않고 끝났다)、行かないですむ(가지 않아도 된다)、ぬれないですんだ(젖지 않았다)、めんどうな計算はしなくてもすむ(귀찮은 계산은 하지 않아도 된다)、買わなくてすんだ(사지 않아도 되었다)</t>
+    </r>
+    <rPh sb="79" eb="80">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>かね</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>はら</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>あつ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>い</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>けいさん</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11023,19 +12482,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11372,10 +12831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE3EC4-AD3B-4030-96E8-1E76FF9B4BDB}">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -14070,9 +15529,273 @@
         <v>617</v>
       </c>
     </row>
+    <row r="245" spans="1:3" ht="63">
+      <c r="A245" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="47.25">
+      <c r="A246" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="47.25">
+      <c r="A247" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="47.25">
+      <c r="A248" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="47.25">
+      <c r="A249" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="63">
+      <c r="A250" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="47.25">
+      <c r="A251" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="63">
+      <c r="A252" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="63">
+      <c r="A253" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="63">
+      <c r="A254" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="63">
+      <c r="A255" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="78.75">
+      <c r="A256" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="78.75">
+      <c r="A257" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="78.75">
+      <c r="A258" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="63">
+      <c r="A259" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="63">
+      <c r="A260" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="63">
+      <c r="A261" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="47.25">
+      <c r="A262" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="47.25">
+      <c r="A263" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="63">
+      <c r="A264" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="78.75">
+      <c r="A265" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="78.75">
+      <c r="A266" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="78.75">
+      <c r="A267" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="78.75">
+      <c r="A268" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <phoneticPr fontId="1" type="Hiragana"/>
+  <phoneticPr fontId="2" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/anki_deque/darakwon_n2_grammar.xlsx
+++ b/anki_deque/darakwon_n2_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B58E478-3444-4493-8529-28362A4F2B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6562A8-E26A-44C4-8474-E61F8ED7FA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="888">
   <si>
     <t>あれこれ質問にこたえさせられたあげく</t>
     <rPh sb="4" eb="6">
@@ -12374,6 +12374,3587 @@
     </rPh>
     <rPh sb="206" eb="207">
       <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>앞으로 보다 큰 성과를 기대할 수 있을 것 같다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>당장에라도 뛰쳐나올 것 같다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 의자, 아주 튼튼해 보이네요.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>100년 이상 사는 것도 있다고 한다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이벤트를 기획하는 자치단체 등이 늘어나고 있다고 합니다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>히로시 군이 아들과 놀아줬다고 해서</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>딸이 미국에 유학하고 있었을 때는 대단히 신세를 졌다고 하던데, 고마웠습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～そうだ (~할 것 같다, ~해 보인다) [추측]
+&lt;동사 ます형 / 형용샤의 어간 + そうだ&gt; &lt;いい → よさそうだ、ない → なさそうだ&gt;
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>訳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>がありそうな顔(까닭이 있어 보이는 얼굴)、これでよさそうですね(이걸로 괜찮은 것 같군요)、怒られそうだ(야단 맞을 것 같다)</t>
+    </r>
+    <rPh sb="77" eb="78">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>わけ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>かお</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>おこ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～そうだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>そうで (~라고 한다, ~한다고 해서) [전문]
+&lt;용언의 종지형 + そうだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>そうで&gt;
+例：息子がたいへんお世話になったそうで(아들이 무척 신세를 졌다고 해서)、夜は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>静</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>かだそうだ(밤에는 조용하다고 한다)、新しいカ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>テンを買いたいそうだから(새로운 커튼을 사고 싶다고 하니까)</t>
+    </r>
+    <rPh sb="52" eb="53">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>むすこ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>せわ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>よる</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>しず</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>あたら</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今後、より大きな成果が期待できそうだ</t>
+    <rPh sb="0" eb="2">
+      <t>こんご</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>おお</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>せいか</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>きたい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今にも走り出しそうだ</t>
+    <rPh sb="0" eb="1">
+      <t>いま</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>はし</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>だ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この椅子、とても丈夫そうですね。</t>
+    <rPh sb="2" eb="4">
+      <t>いす</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>じょうぶ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>100年以上生きるものもいるそうだ</t>
+    <rPh sb="3" eb="6">
+      <t>ねんいじょう</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>イベントを企画する自治体など、増えているそうです</t>
+    <rPh sb="5" eb="7">
+      <t>きかく</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>じちたい</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ふ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>息子さんがひろし君に遊んでもらったそうで</t>
+    <rPh sb="0" eb="2">
+      <t>むすこ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>くん</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>あそ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>娘がアメリカに留学していた時はたいへんお世話になったそうで、ありがとうございました。</t>
+    <rPh sb="0" eb="1">
+      <t>むすめ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>りゅうがく</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>とき</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>せわ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>몇 년 동안 일해도 내 집은 살 수 없을 것 같다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이런 정체로는 약속 시간에 맞출 수 없을 것 같다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>何年働いても自分の家は買えそうもない</t>
+    <rPh sb="0" eb="3">
+      <t>なんねんはたら</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>じぶん</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>いえ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この渋滞では約束の時刻に間に合いそうにもない。</t>
+    <rPh sb="2" eb="4">
+      <t>じゅうたい</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>やくそく</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>じこく</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～そうもない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～そうにもない (~할 것 같지도 않다, ~못 할 것 같다)
+&lt;동사 ます형 + そうもない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>そうにもない&gt;
+例：雨は降りそうもない(비는 올 것 같지 않다)、とてもできそうにもない(도저히 못 할 것 같다)、達成できそうもない(달성하지 못 할 것 같다)</t>
+    </r>
+    <rPh sb="64" eb="65">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>あめ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ふ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>たっせい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>좀 조심하는 것이 어떨까요?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그렇게 몸상태가 안 좋으면 무리하지 말고 쉬면 되잖아.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>먼저 숙제를 해치우는 게 어때?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～たらいい(ん)じゃないか (~하면 되지 않을까?, ~하면 되잖아?) / ～たらどうか (~하는 게 어떨까?) [의견 제시, 조언]
+&lt;동사 가정형(たら) + たらいいんじゃないか / たらどうか&gt;
+例：もう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>帰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ったらいいじゃないか(그만 돌아가면 되잖아)、仕上げたらいいじゃないか(왼성하면 되지 않을까)、彼女に聞いてみたらどうか(그녀에게 물어 보는 것이 어떨까?)</t>
+    </r>
+    <rPh sb="106" eb="107">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>かえ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>しあ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>かのじょ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>き</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>少し気をつけてみたらどうでしょうか</t>
+    <rPh sb="0" eb="1">
+      <t>すこ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>き</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>そんなに体の具合が悪いなら、無理をしないで休んたらいいじゃないか。</t>
+    <rPh sb="4" eb="5">
+      <t>からだ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ぐあい</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>わる</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>むり</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>やす</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>まず宿題を片付けてしまったらどうか？</t>
+    <rPh sb="2" eb="4">
+      <t>しゅくだい</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>かたづ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>지금까지 뭔가에 열중한 적이 있었던가?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>우리가 살고 있는 지구는 도대체 어떻게 해서 생겨난 것일까요?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>하와이까지 비행기로 시간이 얼마나 걸릴까?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>단 4종류로 나뉘어진다고는 말할 수 없는 것이 아닐까요?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>맥주를 마셔버린 것은 누구일까?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>와타나베 선수는 다음 시즌에 홈런왕이 될 것인가?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～(の)だろうか (~일까?) [화자의 추측, 이유]
+&lt;정중어 - でしょうか(일까요?)&gt;
+例：雪は降るだろうか(눈이 올까?)、甘いものを食べすぎだから、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>虫歯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ができたのだろうか(단 것을 너무 먹어서 충치가 생긴 걸까?)</t>
+    </r>
+    <rPh sb="49" eb="50">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ゆき</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ふ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>あま</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>た</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>むしば</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>これまで何かに夢中になったことがあっただろうか</t>
+    <rPh sb="4" eb="5">
+      <t>なに</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>むちゅう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>私たちが住んでいる地球は、いったいどうやってできたのでしょうか</t>
+    <rPh sb="0" eb="1">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>す</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ちきゅう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ハワイまで飛行機でどれぐらい時間がかかるのだろうか</t>
+    <rPh sb="5" eb="8">
+      <t>ひこうき</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>じかん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>たった4種類に分けられるとは言えないのではないでしょうか</t>
+    <rPh sb="4" eb="6">
+      <t>しゅるい</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>わ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ビールを飲んでしまったのは誰だろうか。</t>
+    <rPh sb="4" eb="5">
+      <t>の</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>だれ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>渡辺選手は来シーズン、ホームラン王になるだろうか。</t>
+    <rPh sb="0" eb="4">
+      <t>わたなべせんしゅ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>らい</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>おう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>완벽하게 이해했다고 생각하더라도</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>여행한 셈치고 돈은 저금하기로 했다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>하지만 자기는 아직도 젊은 줄 알고 있어.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>完璧に理解したつもりでも</t>
+    <rPh sb="0" eb="2">
+      <t>かんぺき</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>りかい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>旅行したつもりで、お金は貯金することにした。</t>
+    <rPh sb="0" eb="2">
+      <t>りょこう</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>かね</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ちょきん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>でも、自分じゃまだまだ若いつもりでいるよ。</t>
+    <rPh sb="3" eb="5">
+      <t>じぶん</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>わか</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～つもり(で) (~한 셈(치고), ~할 생각(으로)) / ～つもりでいる (~인 줄 알고 있다)
+例：彼女にいろいろ親切にしたつもりなんですが、だまされたつもりで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>飲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>んでみる、冗談のつもりで言ったんですが、自分では正しいつもりでも</t>
+    </r>
+    <rPh sb="53" eb="54">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>かのじょ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>しんせつ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>の</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>じょうだん</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>い</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>じぶん</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ただ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>틀릴 것을 겁내서는 일본어가 늘지 않습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>間違いを恐れていては、日本語が上手になりません。</t>
+    <rPh sb="0" eb="2">
+      <t>まちが</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>おそ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>にほんご</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>じょうず</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ていては (~해서는, ~하고 있어서는) [충고]
+&lt;동사 て형 + いては&gt;
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>毎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>日甘いものばかり食べていては(매일 단 것만 먹어서는)、間違いを恐れていては(틀릴 것을 겁내서는)、そんなにたばこばかり吸っていては(그렇게 담배만 피우고 있어서는)
+≒ ～ては (~해서는)</t>
+    </r>
+    <rPh sb="42" eb="43">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>まいにちあま</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>た</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>まちが</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>おそ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>す</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이벤트를 기획하는 자치단체 등도 늘어나고 있다고 합니다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>3년 전에 한 번 오른 적이 있기 때문에</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>사고가 난 것은 길이 크게 오른쪽으로 굽어 있는 곳이었다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>홋카이도에는 몇 번이나 갔으니까 다음에는 오키나와에 가고 싶어.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>레시피에 적혀 있는 대로</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>책에 적혀 있는 대로</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>딸 방을 청소하려고 했더니 이미 정리되어 있었다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>우유는 매일 꼭 마시고 있습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～てある (~해져 있다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> [상태, 완료]
+例：机の上に置いてありますよ(책상 위에 놓여져 있어요)、台所に夕飯の用意がしてあった(부엌에 저녁밥이 준비되어 있었다)</t>
+    </r>
+    <rPh sb="23" eb="24">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>つくえ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>うえ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>お</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>だいどころ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ゆうはん</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ようい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>イベントを企画する自治体なども増えているそうです</t>
+    <rPh sb="5" eb="7">
+      <t>きかく</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>じちたい</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ふ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>3年前に一度登っているから</t>
+    <rPh sb="1" eb="3">
+      <t>ねんまえ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>いちど</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>のぼ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ている (~하고 있다) [진행, 과거의 경험, 평소의 습관, 성질]
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>議がもう始めっていた(회의가 이미 시작되어 있었다)、この</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>辞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>典はとても役に立っています(이 사전은 무척 도움이 되고 있습니다)、富士山には2年前登っています(후지산에는 2년 전에 오른 적이 있습니다)、朝4時にはたいてい起きています(아침 4시에는 대개 일어나 있습니다)</t>
+    </r>
+    <rPh sb="39" eb="40">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>かいぎ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>はじ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>じてん</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>やく</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>た</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>ふじさん</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>まえ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>のぼ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>あさ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>お</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ている (~하고 있다) [진행, 과거의 경험, 평소의 습관, 성질]
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>議がもう始めっていた(회의가 이미 시작되어 있었다)、この</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>辞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>典はとても役に立っています(이 사전은 무척 도움이 되고 있습니다)、富士山には2年前登っています(후지산에는 2년 전에 오른 적이 있습니다)、朝4時にはたいてい起きています(아침 5시에는 대개 일어나 있습니다)</t>
+    </r>
+    <rPh sb="39" eb="40">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>かいぎ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>はじ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>じてん</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>やく</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>た</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>ふじさん</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>まえ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>のぼ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>あさ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>お</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ている (~하고 있다) [진행, 과거의 경험, 평소의 습관, 성질]
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>議がもう始めっていた(회의가 이미 시작되어 있었다)、この</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>辞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>典はとても役に立っています(이 사전은 무척 도움이 되고 있습니다)、富士山には2年前登っています(후지산에는 2년 전에 오른 적이 있습니다)、朝4時にはたいてい起きています(아침 6시에는 대개 일어나 있습니다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="39" eb="40">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>かいぎ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>はじ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>じてん</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>やく</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>た</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>ふじさん</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>まえ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>のぼ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>あさ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>お</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ている (~하고 있다) [진행, 과거의 경험, 평소의 습관, 성질]
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>議がもう始めっていた(회의가 이미 시작되어 있었다)、この</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>辞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>典はとても役に立っています(이 사전은 무척 도움이 되고 있습니다)、富士山には2年前登っています(후지산에는 2년 전에 오른 적이 있습니다)、朝4時にはたいてい起きています(아침 7시에는 대개 일어나 있습니다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="39" eb="40">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>かいぎ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>はじ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>じてん</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>やく</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>た</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>ふじさん</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>まえ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>のぼ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>あさ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>お</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ている (~하고 있다) [진행, 과거의 경험, 평소의 습관, 성질]
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>議がもう始めっていた(회의가 이미 시작되어 있었다)、この</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>辞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>典はとても役に立っています(이 사전은 무척 도움이 되고 있습니다)、富士山には2年前登っています(후지산에는 2년 전에 오른 적이 있습니다)、朝4時にはたいてい起きています(아침 8시에는 대개 일어나 있습니다)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="39" eb="40">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>かいぎ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>はじ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>じてん</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>やく</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>た</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>ふじさん</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>まえ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>のぼ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>あさ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>お</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>事故があったのは道が大きく右に曲がっているところだった。</t>
+    <rPh sb="0" eb="2">
+      <t>じこ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>みち</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>おお</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>みぎ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ま</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>北海道には何回も行っているから次は沖縄に行きたい。</t>
+    <rPh sb="0" eb="3">
+      <t>ほっかいどう</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>なんかい</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>い</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>つぎ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>おきなわ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>牛乳は毎日必ず飲んでいます。</t>
+    <rPh sb="0" eb="2">
+      <t>ぎゅうにゅう</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>まいにちかなら</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>の</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>レシピに書いてあるとおりに</t>
+    <rPh sb="4" eb="5">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>本に書いてあるとおりに</t>
+    <rPh sb="0" eb="1">
+      <t>ほん</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>娘の部屋を掃除しようとしたら、もうかたづけてあった。</t>
+    <rPh sb="0" eb="1">
+      <t>むすめ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>へや</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>そうじ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～ておく (~해 두다) [준비, 상태 유지]
+例：ホテルを予約しておかなくてはなりません(호텔을 예약해 두어야 합니다)、しばらく窓をあけておきましょう(잠시 창문을 열어 둡시다)</t>
+    <rPh sb="25" eb="26">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>よやく</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>まど</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～てみる (~해 보다) [시도]
+例：何度か書いてみました(몇 번인가 써 봤습니다)、この服、着てみて(이 옷 입어봐)、この</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>辞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>書は作ってみてごらん(이 사전을 사용해 보렴)</t>
+    </r>
+    <rPh sb="18" eb="19">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>なんど</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>か</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ふく</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>き</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>じしょ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>つく</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～てしまう (~해 버리다) [끝냄, 의도하지 않은 일]
+例：子どもたちが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>飲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>んでしまいました(아이들이 마셔버렸습니다)、5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>対</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2でまけてしまった(5대2로 지고 말았다)</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>こ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>の</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>たい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>알 수 있게 해 두면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>내일 준비를 해 둬</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>문제를 풀어보면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이런 과학 이야기를 해 보는 것도</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>새로 생긴 레스토랑에 가 봤어? 맛있어.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>정원의 꽃이 시들어버리지 않을까 하고</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>쓰러지지 않도록 해</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그만 텔레비전을 계속 보고 말아서</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>버려 버릴까 생각했지만</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>가족처럼 생각하고 있던 개가 죽고 말았다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>分かるようにしておくと</t>
+    <rPh sb="0" eb="1">
+      <t>わ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>明日の準備をしておきなさいよ</t>
+    <rPh sb="0" eb="2">
+      <t>あした</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>じゅんび</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A：ワインを何本ぐらい買っておきましょうか。
+B：そうですねえ、3本ぐらい買っておけばいいんじゃないですか。</t>
+    <rPh sb="6" eb="8">
+      <t>なんぼん</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>か</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ぼん</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>問題を解いてみると</t>
+    <rPh sb="0" eb="2">
+      <t>もんだい</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>と</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>スケジュールを確認してみないと</t>
+    <rPh sb="7" eb="9">
+      <t>かくにん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A : 와인을 몇 병 정도 사둘까요?
+B : 글쎄요, 세 병 정도 사 두면 되지 않을까?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>스케줄을 확인해 보지 않으면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>このような科学の話をしてみるのも</t>
+    <rPh sb="5" eb="7">
+      <t>かがく</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>はなし</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>新しくできたレストランに行ってみた？おいしいよ。</t>
+    <rPh sb="0" eb="1">
+      <t>あたら</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>庭の花が枯れてしまわないか</t>
+    <rPh sb="0" eb="1">
+      <t>にわ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>はな</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>倒れてしまわないようにね</t>
+    <rPh sb="0" eb="1">
+      <t>たお</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ついテレビを見続けてしまい</t>
+    <rPh sb="6" eb="8">
+      <t>みつづ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>捨ててしまうかと思ったが</t>
+    <rPh sb="0" eb="1">
+      <t>す</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>家族のように思っていた犬が死んでしまった。</t>
+    <rPh sb="0" eb="2">
+      <t>かぞく</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>おも</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>いぬ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>し</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>오늘 회합에는 어떤 수단을 써서라도 시간대로 도착해야 한다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今日の会合には、どんな手段を使ってでも時間通りに到着しなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>きょう</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>かいごう</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>しゅだん</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>つか</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>じかんどお</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>とうちゃく</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>한 번 사내에서 검토한 다음이 아니면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>철학 I 의 학점을 취득한 다음이 아니면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그는 어딘가 순진하지 않은 데가 있다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>아르바이트가 있어서 아무래도 그 날이 아니면 올 수 없어.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>번거롭지 않으시다면 꼭 부탁드리겠습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>一度社内で検討してからでないと</t>
+    <rPh sb="0" eb="4">
+      <t>いちどしゃない</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>けんとう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>哲学Ⅰの単位を取得してからでないと</t>
+    <rPh sb="0" eb="2">
+      <t>てつがく</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>たんい</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>しゅとく</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼はどこか素直でないところがある。</t>
+    <rPh sb="0" eb="1">
+      <t>かれ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>すなお</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>バイトがあって、どうしてもその日でないと来られない。</t>
+    <rPh sb="15" eb="16">
+      <t>ひ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>こ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ご面倒でなければ、ぜひお願いします。</t>
+    <rPh sb="1" eb="3">
+      <t>めんどう</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ねが</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～てでも (~해서라도) [목표를 이루기 위한 강경한 수단]
+&lt;동사 て형 + でも&gt;
+例：どんな手段を使ってでも(어떤 수단을 써서라도)、家を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>売</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ってでも(집을 팔아서라도)、この試合だけは、這ってでも出たい(이 시합만은 기어서라도 나가고 싶다)</t>
+    </r>
+    <rPh sb="46" eb="47">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>しゅだん</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>つか</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>いえ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>う</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>しあい</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>は</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>で</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～でない (~이 아니다, ~하지 않다) / ～でないと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～でなければ (~하지 않으면, 이/가 아니면)
+例：スマ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>トフォンを持ちでない場合は、映</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>が相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>上手でないと、心が豊かでなければ</t>
+    </r>
+    <rPh sb="56" eb="57">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>も</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ばあい</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>えいが</t>
+    </rPh>
+    <rPh sb="78" eb="82">
+      <t>そうとうじょうず</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>こころ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ゆた</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>부모가 다른 사람을 늘 원망하기만 하면 자식도 다른 사람을 원망하게 된다고 한다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>취직이 정해졌다고 해서 기뻐하고만 있을 수는 없습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>親が他人をいつもうらんでばかりいると子ども人をうらむようになるという。</t>
+    <rPh sb="0" eb="1">
+      <t>おや</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>たにん</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>こ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ひと</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>就職が決まったからといって、喜んでばかりはいられません。</t>
+    <rPh sb="0" eb="2">
+      <t>しゅうしょく</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>き</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>よろこ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～てばかりいる (~하고만 있다) [같은 일의 반복]
+&lt;동사 て형 + ばかりいる&gt;
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>悩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>んでばかりいると[고민만 하고 있으면]、負けてばかりいる[지고만 있다]、ゲ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ムをしてばかりいる[게임만 한다]</t>
+    </r>
+    <rPh sb="45" eb="46">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>なや</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ま</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～てばかりはいられない (~하고만 있을 수는 없다)
+&lt;동사 て형 + ばかりはいられない&gt;
+例：悲しんでばかりはいられません(~슬퍼하고만 있을 수는 없습니다)、食べてばかりはいられない(먹고만 있을 수는 없다)、待ってばかりはいられない(기다리고만 있을 수는 없다)</t>
+    <rPh sb="48" eb="49">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>かな</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>た</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ま</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>자기 나라에 대해 질문을 받고서야 비로소</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>정치에 대한 신뢰가 있어야 비로소</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>아버지가 돌아가시고 나서야 비로소 그 고마움을 알았다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>自分の国のことを聞かれてはじめて</t>
+    <rPh sb="0" eb="2">
+      <t>じぶん</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>くに</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>き</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>政治に対する信頼があって初めて</t>
+    <rPh sb="0" eb="2">
+      <t>せいじ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>たい</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>しんらい</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>はじ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>父が亡くなってはじめて、そのありがたさがわかった。</t>
+    <rPh sb="0" eb="1">
+      <t>ちち</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>な</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>자신의 이익을 위해서 법률을 바꾸는 일이 있어서는 안 된다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～てはじめて (~서야 비로소) [전후 관계에서 몰랐던 것을 알게 됨]
+&lt;동사 て형 + はじめて&gt;
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>実</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>際に自分で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>読</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>んでみてはじめて(실제로 직접 읽어 보고 나서야 비로소)、先生が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>教</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>えていただいてはじめて(선생님이 가르쳐 주어서야 비로소)、父が亡くなってはじめて(아버지가 돌아가시고 나서야 비로소)、外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>で暮らしてはじめて(외국에서 살고서야 비로소)</t>
+    </r>
+    <rPh sb="54" eb="55">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>じっさい</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>じぶん</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>よ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>せんせい</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>おし</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ちち</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>な</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>がいこく</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>く</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>自分の利益のために法律を変えることがあってはならない。</t>
+    <rPh sb="0" eb="2">
+      <t>じぶん</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>りえき</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ほうりつ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>완전히 잃어버리는 일은 없다고 해도</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>일본의 6월은 1년 중 해가 지는 게 가장 늦어서 7시가 되어도 어두워지지 않습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～てはならない (~해서는 안 된다)
+&lt;동사 て형 + はならない&gt;
+例：そんなことがあってはならない(그런 일이 있어서는 안 된다)、油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>をしてはならない(방심을 해서는 안 된다)、核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>実験</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>を決して許してはならない(핵실험을 결코 용납해서는 안 된다)
+≒ ～てならない (~해서 견딜 수 없다, 너무 ~하다)</t>
+    </r>
+    <rPh sb="36" eb="37">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ゆだん</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>かくじっけん</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>けっ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ゆる</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ても (~하여도)
+&lt;동사 て형 ＋ も&gt;
+例：朝になっても(아침이 되어도)、深夜になっても(심야가 되어도)、この計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>に失敗しても(이 계획에 실패해도)
+≒ ～にしても、～としても、～とも (~해도, ~하더라도)</t>
+    </r>
+    <rPh sb="23" eb="24">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>あさ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>しんや</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>けいかく</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>しっぱい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>完全に失われることはないにしても</t>
+    <rPh sb="0" eb="2">
+      <t>かんぜん</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>うしな</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>日本の6月は1年でいちばん日が暮れるのが遅くて、7時になっても暗くなりません。</t>
+    <rPh sb="0" eb="2">
+      <t>にほん</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>がつ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ひ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>く</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>おそ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>くら</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>전문적인 사항에 대해서는 하야시 선생님을 빼고 논의해도 소용없다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>専門的なことについては、林先生をぬきにして議論しても仕方がない。</t>
+    <rPh sb="0" eb="3">
+      <t>せんもんてき</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>はやしせんせい</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ぎろん</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>しかた</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～ても仕方がない (~해도 어쩔 수 없다, ~해도 소용없다)
+&lt;동사 て형 + も仕方がない&gt;
+例：話しても仕方がない(얘기해도 소용없다)、先生失格と言われても仕方がない(선생 자격이 없다는 말을 들어도 어쩔 수 없다)、見つけられなくても仕方がない(찾을 수 없어도 어쩔 수 없다)</t>
+    <rPh sb="3" eb="5">
+      <t>しかた</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>はな</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>しかた</t>
+    </rPh>
+    <rPh sb="73" eb="77">
+      <t>せんせいしっかく</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>い</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>しかた</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>み</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>しかた</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>맛있다고 해 줘서 다행이다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>나도 일본어 교육에 무척 관심이 있어서 이번 이야기를 들을 수 있어서 좋았다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그 영화, 보러 가지 않길 잘했어. 하나도 재미없었대.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A : 이렇게 맛있는 스테이크는 먹어 본 적이 없어요.
+B : 고마워. 입맛에 맞아서 다행이다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>おいしいと言ってもらえてよかった</t>
+    <rPh sb="5" eb="6">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>私も日本語教育にとても関心があるので、今回の話が聞けてよかった。</t>
+    <rPh sb="0" eb="1">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>にほんごきょういく</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>かんしん</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>こんかい</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>はなし</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>き</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>あの映画、見て行かなくてよかったよ。ぜんぜんおもしろくなかったんだって。</t>
+    <rPh sb="2" eb="4">
+      <t>えいが</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>み</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>A：こんなにおいしいステーキ、食べたことがありません。
+B：ありがとう。お気に召してよかった。</t>
+    <rPh sb="15" eb="16">
+      <t>た</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>き</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>め</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～てよかった (~해서 다행이다, ~해서 좋았다) / ～なくてよかった (~하지 않아서 다행이다, ~하지 않길 잘했다)
+&lt;동사 て형 + よかった&gt; &lt;동사 부정형의 て형 + よかった&gt;
+例：彼の告白が聞けてよかった(그의 고백을 들을 수 있어서 다행이다)、遊びに行かなくてよかった(놀러가지 않길 잘했다)</t>
+    <rPh sb="100" eb="101">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>かれ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>こくはく</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>き</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>あそ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>스케줄을 확인해보지 않으면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>내용물을 알 수 있도록 해 두면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그곳을 오른쪽으로 돌면 우체국이 있습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>싫으면 거절하면 될 뿐이잖아?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>물론 다나카 씨가 좋다면 말이지만</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>할 마음이 있으면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>비가 오면 가지 않겠습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>한 번 하겠다고 결정했으면 끝까지 하는 것이 중요하다고 생각한다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>적어도 3년은 계속 할 수 없다면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>차라면 10분이면 갈 수 있지만 걸으면 1시간 걸린다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>커피숍에 들어갔더니 좋은 음악이 흐르고 있었습니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그녀에 관해서라면 아무리 사소한 것이라도</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>팜플렛이라면</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>갖고 싶으면 그 포스터 줄게.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그 이야기라면 내게 맡겨.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～と (~하면) [자연법칙, 습관, 필연, 당연한 결과]
+例：春になると(봄이 되면)、大地震が起こると(대지진이 일어나면)、早くしないと(빨리 하지 않으면)、トンネルを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>抜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>けると(터널을 빠져 나오자)</t>
+    </r>
+    <rPh sb="32" eb="33">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>はる</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>だいじしん</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>お</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>はや</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ぬ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ば (~하면) [이루어지지 않은 일을 조건으로 가정]
+例：時間があれば(시간이 있으면)、4月になれば(4월이 되면)</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>がつ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ば (~하면) [이루어지지 않은 일을 조건으로 가정]
+例：時間があれば(시간이 있으면)、4月になれば(5월이 되면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>がつ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ば (~하면) [이루어지지 않은 일을 조건으로 가정]
+例：時間があれば(시간이 있으면)、4月になれば(6월이 되면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>がつ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ば (~하면) [이루어지지 않은 일을 조건으로 가정]
+例：時間があれば(시간이 있으면)、4月になれば(7월이 되면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>がつ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～なら(ば) (~라면)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> [상대의 말에 대한 권유, 조언 / 화제(명사)에 대한 발화]
+例：君がいかないのなら(네가 가지 않는다면)、今の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>社がいやなら(지금의 회사가 싫다면)、もし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>宝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>くじが</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>たったなら(만약 복권이 당첨되었다면)、スキ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>なら(스키라면)、彼なら(그라면)</t>
+    </r>
+    <rPh sb="48" eb="49">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>きみ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>いま</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>かいしゃ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>たから</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>あ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>かれ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>スケジュールを確認してみないと</t>
+    <rPh sb="7" eb="9">
+      <t>かくにん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>中身がわかるようにしておくと</t>
+    <rPh sb="0" eb="2">
+      <t>なかみ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>そこを右に曲がると郵便局があります。</t>
+    <rPh sb="3" eb="4">
+      <t>みぎ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ま</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ゆうびんきょく</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>嫌なら断ればいいだけでしょう？</t>
+    <rPh sb="0" eb="1">
+      <t>いや</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ことわ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>もちろん田中さんがよければだけど</t>
+    <rPh sb="4" eb="6">
+      <t>たなか</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>やる気があれば</t>
+    <rPh sb="2" eb="3">
+      <t>き</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>雨が降れば行きません。</t>
+    <rPh sb="0" eb="1">
+      <t>あめ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ふ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>一度やると決めったら、最後までやり抜くことが大事だっと思う。</t>
+    <rPh sb="0" eb="2">
+      <t>いちど</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>き</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>さいご</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ぬ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>だいじ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>少なくとも3年はやり続けられなかったら</t>
+    <rPh sb="0" eb="1">
+      <t>すく</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ねん</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>つづ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>車だったら10分で行けるが、歩いたら1時間かかる。</t>
+    <rPh sb="0" eb="1">
+      <t>くるま</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ぷん</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>い</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ある</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>じかん</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～たら (~했더니)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> [회화체, 범용]
+例：明日晴れだったら(내일 맑으면)、私があなただったら(내가 당신이라면)、喫茶店に入ったら(커피숍에 들어갔더니)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>薬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>飲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>んだら(약을 먹었더니)</t>
+    </r>
+    <rPh sb="21" eb="22">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>あしたは</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>きっさてん</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>はい</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>くすり</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>の</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>喫茶店に入ったらいい音楽が流れていました。</t>
+    <rPh sb="0" eb="3">
+      <t>きっさてん</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>はい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼女のことならどんなに小さなことでも</t>
+    <rPh sb="0" eb="2">
+      <t>かのじょ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ちい</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>パンプレットなら</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>欲しいならそのポスターあげるよ。</t>
+    <rPh sb="0" eb="1">
+      <t>ほ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>その話なら、僕にまかせて。</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>어두워지면 안 되니까 이제 돌아갑시다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>暗くなるといけないので、もう帰りましょう。</t>
+    <rPh sb="0" eb="1">
+      <t>くら</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>かえ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～といけない (~하면 안 된다) / ～といけないから</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～といけないので (~하면 안 되니까) [바람직하지 않음]
+&lt;동사 사전형 + といけない (+ から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ので)&gt;
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>遅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>くなるといけない(늦어지면 안 된다)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>盗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>まれるといけない(도둑맞으면 안 된다)、雨に降られるといけないから(비를 맞으면 안 되니까)</t>
+    </r>
+    <rPh sb="88" eb="89">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>おそ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ぬす</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>あめ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>ふ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>된장이나 간장과 같은 조미료</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 인형은 '안녕하세요' '안녕히 가세요'와 같은 간단한 말을 합니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>みそやしょうゆといった調味料</t>
+    <rPh sb="11" eb="14">
+      <t>ちょうみりょう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この人形は、「こんにちは」「さようなら」といった簡単な言葉を話します。</t>
+    <rPh sb="2" eb="4">
+      <t>にんぎょう</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>かんたん</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ことば</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>はな</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～といった (~라고 하는, ~(와/과) 같은) [예시]
+&lt;명사 + といった&gt;
+例：タオルや洗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>剤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>といった(수건이나 세제와 같은)、おはよう、おやすみといった(안녕, 잘 자와 같은)、消費電力の抑制や環境への配慮といった(소비 전력의 억제나 환경에 대한 배려라고 하는)</t>
+    </r>
+    <rPh sb="43" eb="44">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>せんざい</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>しょうひ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>でんりょく</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>よくせい</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>かんきょう</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>はいりょ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>단지 기분 문제가 아닐까라고도 생각합니다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>일본문화의 하나로 소개하려고 한다</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 문제, 시험에 나올 것 같아?</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>오늘 저녁은 카레를 먹으려고 합니다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ただ、気分の問題ではないかと思います。</t>
+    <rPh sb="3" eb="5">
+      <t>きぶん</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>もんだい</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この問題、テストに出ると思う？</t>
+    <rPh sb="2" eb="4">
+      <t>もんだい</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>で</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>日本文化の一つとして紹介しようと思う</t>
+    <rPh sb="0" eb="4">
+      <t>にほんぶんか</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>しょうかい</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今夜はカレーにしようと思います。</t>
+    <rPh sb="0" eb="2">
+      <t>こんや</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～と思う (~라고 생각하다, ~일/할 것이다) [예상, 추측, 상상]
+例：今日は晴れると思う(오늘은 날이 갤 거라고 생각해)、きっと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ると思うよ(틀림없이 올 거야)</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>おも</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>きょう</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>は</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>おも</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>く</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(よ)うとおもう (~하려고 생각하다, ~하려고 하다) [결심, 의지]
+&lt;동사 의지형 + (よ)うとおもう&gt;
+例：明日の朝出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>発</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>しようと思っている(내일 아침에 출발하려고 한다)、この計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>は中止にしようと思う(이 계획은 중지하려고 한다)</t>
+    </r>
+    <rPh sb="60" eb="61">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>けいかく</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그가 웃고 있는 것을 보면 합격했음이 틀림없다.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>좀처럼 집에 들어오지 않는 것을 보면 남동생은 야근이라도 하고 있는 것이겠지.</t>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼が笑っているところをみると、合格したにちがいない。</t>
+    <rPh sb="0" eb="1">
+      <t>かれ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>わら</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ごうかく</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>なかなか帰ってこないところをみると、弟は残業でもしているのだろう。</t>
+    <rPh sb="4" eb="5">
+      <t>かえ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>おとうと</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ざんぎょう</t>
+    </rPh>
+    <phoneticPr fontId="2" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～ところをみると (~하는 것을 보면)
+例：あんなに喜んでいるところをみると(그토록 기뻐하고 있는 것을 보면)、あわてたところをみると(당황한 것을 보면)、人がたくさん集まっているところをみると(사람이 많이 모여있는 것을 보면)</t>
+    <rPh sb="21" eb="22">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>よろこ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>あつ</t>
     </rPh>
     <phoneticPr fontId="2" type="Hiragana"/>
   </si>
@@ -12831,10 +16412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE3EC4-AD3B-4030-96E8-1E76FF9B4BDB}">
-  <dimension ref="A1:D268"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B355" sqref="B355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -15793,6 +19374,941 @@
         <v>680</v>
       </c>
     </row>
+    <row r="269" spans="1:3" ht="63">
+      <c r="A269" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="63">
+      <c r="A270" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="63">
+      <c r="A271" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="63">
+      <c r="A272" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="63">
+      <c r="A273" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="63">
+      <c r="A274" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="63">
+      <c r="A275" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="63">
+      <c r="A276" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="63">
+      <c r="A277" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="63">
+      <c r="A278" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="63">
+      <c r="A279" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="63">
+      <c r="A280" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="63">
+      <c r="A281" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="63">
+      <c r="A282" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="63">
+      <c r="A283" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="63">
+      <c r="A284" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="63">
+      <c r="A285" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="63">
+      <c r="A286" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="47.25">
+      <c r="A287" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="47.25">
+      <c r="A288" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="47.25">
+      <c r="A289" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="78.75">
+      <c r="A290" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="63">
+      <c r="A291" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="63">
+      <c r="A292" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="63">
+      <c r="A293" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="63">
+      <c r="A294" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="63">
+      <c r="A295" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="47.25">
+      <c r="A296" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="47.25">
+      <c r="A297" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="47.25">
+      <c r="A298" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="47.25">
+      <c r="A299" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="47.25">
+      <c r="A300" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="47.25">
+      <c r="A301" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="47.25">
+      <c r="A302" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="47.25">
+      <c r="A303" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="47.25">
+      <c r="A304" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="47.25">
+      <c r="A305" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="31.5">
+      <c r="A306" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="31.5">
+      <c r="A307" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="31.5">
+      <c r="A308" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="31.5">
+      <c r="A309" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="31.5">
+      <c r="A310" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="63">
+      <c r="A311" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="31.5">
+      <c r="A312" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="31.5">
+      <c r="A313" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="31.5">
+      <c r="A314" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="31.5">
+      <c r="A315" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="31.5">
+      <c r="A316" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="47.25">
+      <c r="A317" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="63">
+      <c r="A318" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="78.75">
+      <c r="A319" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="78.75">
+      <c r="A320" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="78.75">
+      <c r="A321" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="78.75">
+      <c r="A322" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="63">
+      <c r="A323" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="63">
+      <c r="A324" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="63">
+      <c r="A325" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="63">
+      <c r="A326" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="63">
+      <c r="A327" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="63">
+      <c r="A328" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="63">
+      <c r="A329" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="47.25">
+      <c r="A330" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="47.25">
+      <c r="A331" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="47.25">
+      <c r="A332" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="31.5">
+      <c r="A333" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="31.5">
+      <c r="A334" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="31.5">
+      <c r="A335" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="31.5">
+      <c r="A336" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="47.25">
+      <c r="A337" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="47.25">
+      <c r="A338" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="47.25">
+      <c r="A339" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="47.25">
+      <c r="A340" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="47.25">
+      <c r="A341" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="47.25">
+      <c r="A342" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="47.25">
+      <c r="A343" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="47.25">
+      <c r="A344" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="63">
+      <c r="A345" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="63">
+      <c r="A346" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="63">
+      <c r="A347" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="31.5">
+      <c r="A348" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="31.5">
+      <c r="A349" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="63">
+      <c r="A350" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="63">
+      <c r="A351" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="47.25">
+      <c r="A352" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="47.25">
+      <c r="A353" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="Hiragana"/>

--- a/anki_deque/darakwon_n2_grammar.xlsx
+++ b/anki_deque/darakwon_n2_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6562A8-E26A-44C4-8474-E61F8ED7FA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CABDE7-9B8D-4E35-97E9-051EEE25B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
   </bookViews>
@@ -36,716 +36,716 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="932">
   <si>
     <t>あれこれ質問にこたえさせられたあげく</t>
     <rPh sb="4" eb="6">
       <t>しつもん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>여러 가지 질문에 억지로 대답한 끝에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>몹시 고심한 끝에 과감히 그녀에게 청혼을 하기로 했다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は一番行きたかった大学に合格し、うれしさのあまり跳び上がった。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 가장 가고 싶었던 대학에 합격하여 기쁜 나머지 껑충 뛰었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>仕事をする一方で、遊ぶことも忘れない、そんな若者が増えている。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일을 하는 한편으로 노는 것도 잊지 않는 그런 젊은이가 늘고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>警察の呼びかけにもかかわらず、オートバイの事故は増える一方だ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>경찰의 호소에도 불구하고 오토바이 사고는 늘어나기만 한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>周囲の期待は高まる一方だ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>주위의 기대는 높아만 진다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>このへんは物価が高いうえに交通も不便なので暮らしにくい。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 근처는 물가가 비싼 데다가 교통도 불편하기 때문에 살기 불편하다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>こうなったうえは、何としても責任をとるつもりです。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이렇게 된 바에는 어떻게든 책임을 질 작정입니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この辺りはにぎやかだか、夜になると人通りもなくなるから、明るいうちに帰ろう。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 부근은 붐비지만 밤이 되면 인적도 뜸해지니 밝을 때에 돌아가자.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>CMなどで何度か見ているうちに</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>광고 방송 등에서 몇 번인가 보는 동안에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>冷めないうちに、召し上がってください。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>식기 전에 드세요.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>何か月もしないうちに</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>몇 개월도 지나기 전에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼の取った態度は、私には十分理解しうるものであった。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그가 취한 태도는 내가 충분히 이해할 수 있는 것이었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>大雨で裏山がくずれるおそれがあるため、近くの公民館に避難した。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>폭우로 뒷산이 무너질 우려가 있어 근처에 있는 주민회관으로 피난했다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>私が記憶するかぎり、彼は結婚したことはない。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>내가 기억하는 한 그는 결혼한 적이 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>あの人が謝らないかぎり、私は許しません。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그 사람이 사과하지 않는 한 나는 용서하지 않겠습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>椅子に編みかけのセーターが置いてあった。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>의자에 뜨다 만 스웨터가 놓여 있었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>冷蔵庫のなかの野菜がくさりかけている。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>냉장고 안의 야채가 썩으려고 한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>つい思ってしまいがちだ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그만 생각해 버리는 경우가 많다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>病気がちの彼には、こんな激しいスポーツはできない。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>잔병치레가 잦은 그는 이런 과격한 운동은 할 수 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>一つ悪いことがあると、何につけても悪く考えがちになる。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>한 가지 나쁜 일이 있으면 뭐든지 나쁘게 생각하게 된다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ぴかっと光ったかと思ったら、しばらくしてかみなりが鳴った。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>번쩍 빛이 나는가 싶더니 잠시 후에 천둥이 쳤다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>娘は「いってきます」と言い終わるか終わらないかのうちに</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>딸은 '다녀오겠습니다'라고 말을 끝내자마자</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼は、問題を見るか見ないかのうちに、もう答えを書き始めていた。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그는 문제를 보자마자 벌써 답을 적기 시작했다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>もう３がつなのに、今日は真冬にでも戻ったかのようだ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이제 3월인데 오늘은 마치 한겨울로 돌아간 듯하다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>明日の夕方から夜にかけて</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>내일 저녁부터 밤에 걸쳐</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>日本では、8月の下旬から9月の上旬にかけて台風が多い。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일본에서는 8월 하순부터 9월 초순에 걸쳐 태풍이 많다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>発達する低気圧の影響で、土曜日の夕方から日曜日の朝にかけて、激しい雨が降るおそれがあります。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>발달하는 저기압의 영향으로 토요일 저녁부터 일요일 아침에 걸쳐 심한 비가 내릴 우려가 있습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今の状況からいって、このまま計画をすすめるのは無理です。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>지금 상황으로 보건대 이 상태로 계획을 추진하는 것은 무리입니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>私の経験から言うと、留学はした方がいいよ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>내 경험으로 보아 유학은 하는 편이 좋아.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼に伝わっていないことからして</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그에게 전해지지 않은 것부터가</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>私は彼のことが大嫌いだ。彼の話し方や服装からしてがまんならない。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>나는 그 사람을 무척 싫어한다. 그 사람의 말투나 복장부터가 참을 수 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>実務経験者ということからすると</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>실무 경험자라는 것으로 보아</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>アクセントからすると、どうやらあの人は外国出身らしい。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>악센트로 보아 아무래도 그 사람은 외국 출신인 것 같다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>親が頭がいいからといって、子どもも必ず頭がいいとはかぎらない。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>부모가 머리가 좋다고 해서 자식도 꼭 머리가 좋다고는 할 수 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>しばらく連絡がないからといって、そんなに心配することはないよ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>잠시 연락이 없다고 해서 그렇게 걱정할 필요는 없어.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>いったん仕事を引き受けたからには</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일단 일을 맡은 이상에는</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>一度やると決めたからには途中でやめるわけにないかない。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>한번 하겠다고 결정한 이상에는 도중에 그만둘 수는 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>以前と比べると観光客が少し減り気味です。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이전에 비해 관광객이 조금 줄어든 듯합니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>このところ忙しくて少し疲れ気味だから、今日は早く帰ることにした。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>요즘 바빠서 조금 피곤한 듯해서 오늘은 일찍 들어가기로 했다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>髪は半年前に切ったきり</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>머리는 반년 전에 자른 이래로</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>あの人は出かけたきり戻ってこなかった。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그 사람은 나간 채 돌아오지 않았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>本田さんとは3年前に一度会ったきりだ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>혼다 씨와는 3년 전에 한 번 만났을 뿐이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼はまだ学生のくせに外車をのりまわしているそうだ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그는 아직 학생인 주제에 외제차를 타고 다닌다고 한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>山田さんは大学で英語を専攻したくせに簡単な挨拶もできない。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>야마다 씨는 대학에서 영어를 전공했으면서도 간단한 인사도 못한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>近くの公園で子どもたちが楽しげに遊んでいる。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>근처 공원에서 아이들이 즐거운 듯이 놀고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今年こそ結婚を申し込もう</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>올해야말로 청혼을 해야지</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今でこそ一流企業と言われる</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>지금에서야말로 일류기업이라 불리는</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>いつも約束の時間に遅れて迷惑をかけるので、今度こそ、遅刻をしないようにしよう。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>항상 약속 시간에 늦어 폐를 끼치기 때문에 이번에야말로 지각을 하지 않도록 하자.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>一度は経験させたいと願うからこそだ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>한 번은 경험하게 하고 싶다고 바라기 때문이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>自分の才能を信じ続けてきたからこそ、彼女は成功することができる。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>자신의 재능을 계속 믿어왔기 때문에 그녀는 성공할 수 있었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>どんなに大変なことかわかりました。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>얼마나 힘든지 알았습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>日本に来たばかりの時、あなたの親切がどんなにうれしかったことか。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일본에 온 지 얼마 되지 않았을 때, 당신의 친절이 얼마나 기뻤던지.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>腰の曲がった老人に似ているところから</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>허리가 굽은 노인을 닮았다는 점에서</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>「百」の字から「一」をとると「白」という字になることから</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>百'이라는 글자에서 '一'을 빼면 '白'이라는 글자가 되기 때문에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>岡田さんは何でもよく知っていることから、友達に「博士」と呼ばれている。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>오카다 씨는 뭐든지 잘 알고 있어서 친구들에게 '박사'라고 불리고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は父親が韓国人であるところから、韓国人の知り合いも多い。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 아버지가 한국인이어서 한국인 친구도 많다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>あの人のことだから、どうせ時間どおりには来ないだろう。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그 사람이니까 어차피 시간대로는 오지 않을 것이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>失敗をおそれることなく挑戦してほしい。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>실패를 두려워하지 말고 도전해주었으면 한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>不思議なことに</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>신기하게도</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>困ったことに、操作ミスでコンピューターが動かなくなってしまった。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>난처하게도 조작 실수로 컴퓨터가 작동하지 않게 되어버렸다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今は食事の最中だから、タバコは遠慮したほうがいいですよ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>지금은 한창 식사 중이니 담배는 삼가는 것이 좋아요.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>質問の内容すら</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>질문의 내용조차</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今の調子では、予選に出ることさえ難しい。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>지금 상태로는 예선에 나가는 것조차 어렵다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>漢字どころか、ひらがなすら読めない。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>한자는커녕 히라가나조차 읽지 못한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>事前にリストをしっかり確認さえしておけば</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>사전에 목록을 제대로 확인만 해 두면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>水やりを忘れさえしなければ</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>물 주는 것을 잊지만 않으면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この試合に勝ちさえすれば、オリンピックに出場できる。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 시합에 이기기만 하면 올림픽에 출전할 수 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>面白くさえあればどんな本でもけっこうです。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>재밌기만 하면 어떤 책이든 좋습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼女はひまさえあればファッション雑誌を読んでいる。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 틈만 나면 패션 잡지를 읽고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今回の事件では会社に問題があったと言わざるをえない。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이번 사건에서는 회사에 문제가 있었다고 말할 수밖에 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>2回も同じ間違いをするとは、注意が足りなかったと言わざるをえない。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>두 번이나 같은 실수를 하다니, 주의가 부족했다고 말할 수밖에 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ここまでマスコミにたたかれれば、彼も謝罪せざるをえないだろう。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 정도로 매스컴이 비난하면 그도 사죄할 수밖에 없을 것이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>安い材料でも工夫次第で</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>저렴한 재료라도 궁리하기에 따라</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>明日の試合は天気次第では中止になるかも知れない。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>내일 시합은 날씨에 따라서는 중지가 될지도 모른다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>先日お伝えした日程に誤りがありましたので、今回改めてご連絡した次第です。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일전에 전해 드린 일정에 착오가 있어 이번에 다시 연락을 드린 것입니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>約10年の工事の末</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>약 10년의 공사 끝에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>あれこれ悩んだ末に</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>여러모로 고민한 끝에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この新しい薬は、何年にもわたる研究の末に作り出されたものだ。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 신약은 몇 년에 걸친 연구 끝에 만들어진 것이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼の努力をずっと見てきただけに</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그의 노력을 쭉 보아 온 만큼</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>主人が魚屋も経営しているだけあって</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>남편이 생선 가게도 경영하고 있는 만큼</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は日本に留学していただけあって、日本語がよくできる。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 일본에 유학했던 만큼 일본어를 아주 잘한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この家は、さすが金をかけただけに、大地震でも倒れなかった。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 집은 과연 돈을 들인 만큼 대지진에도 무너지지 않았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼の作業は速くて確実だ。さすがに、ベテランだけのことはある。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그의 작업은 빠르고 확실하다. 과연 베테랑은 다르다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>病院に行ったところ</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>병원에 갔더니</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>遠くを見るようにしたところ</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>먼 곳을 보도록 했더니</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>久しぶりにに故郷に帰ってみたところ、すっかり変わっていて少し悲しかった。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>오랜만에 고향에 돌아가 봤더니 완전히 변해있어서 조금 슬펐다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>二人は出会ったとたんに恋に落ちたそうです。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>두 사람은 만나자마자 사랑에 빠졌다고 합니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>さんざん悩んだあげく、思い切って彼女に結婚を申し込むことにした。</t>
     <rPh sb="4" eb="5">
       <t>なや</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>買い物のついでに</t>
@@ -755,7 +755,7 @@
     <rPh sb="2" eb="3">
       <t>もの</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>コンビニでお弁当を買うついでに、ジュースも買った。</t>
@@ -768,7 +768,7 @@
     <rPh sb="21" eb="22">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ついでに本屋で週刊誌を買ってきて。</t>
@@ -781,27 +781,27 @@
     <rPh sb="11" eb="12">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>쇼핑하는 김에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>편의점에서 도시락을 사는 김에 주스도 샀다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>가는 김에 서점에서 그 주간지 사다 줘.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>차를 사서 드라이브를 겸해 고향에 계신 부모님집에 갔다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>개와 산책할 겸 우체국에 들려 우표를 샀다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>車を買ったので、ドライブをかねてふるさとの両親の家に行った。</t>
@@ -820,7 +820,7 @@
     <rPh sb="26" eb="27">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>犬と散歩がてら郵便局に寄って切手を買った。</t>
@@ -842,7 +842,7 @@
     <rPh sb="17" eb="18">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>えっ？今日が大学入試でしたっけ。</t>
@@ -852,15 +852,15 @@
     <rPh sb="6" eb="10">
       <t>だいがくにゅうし</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>네? 오늘이 대학 입학 시험이었던가요?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>야마모토 씨에게 부탁해 봤자 해 줄 리 없어.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>山本さんに頼んだってやってくれっこないよ。</t>
@@ -870,7 +870,7 @@
     <rPh sb="5" eb="6">
       <t>たの</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>11時までには寝ようと思いつつ</t>
@@ -883,7 +883,7 @@
     <rPh sb="11" eb="12">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>勉強しなければと思いつつ遊んでしまう。</t>
@@ -896,7 +896,7 @@
     <rPh sb="12" eb="13">
       <t>あそ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>残念ながら彼の言うとおりだ。</t>
@@ -909,7 +909,7 @@
     <rPh sb="7" eb="8">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>地球は毎年少しずつ暖かくなりつつある。</t>
@@ -922,31 +922,31 @@
     <rPh sb="9" eb="10">
       <t>あたた</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>11시까지는 자려고 생각하면서도</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>공부해야지라고 생각하면서도 놀고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>유감이지만 그가 말하는 대로다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>지구는 매년 조금씩 따뜻해지고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>나는 싫증을 잘 내는 성격이어서 무엇을 하든 금방 그만둬 버린다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>나이를 먹어 사람 이름을 잘 잊어버리게 되었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>私は飽きっぽい性格なので、何をしてもすぐにやめてしまう。</t>
@@ -962,7 +962,7 @@
     <rPh sb="13" eb="14">
       <t>なに</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>年をとって人の名前を忘れっぽくなった。</t>
@@ -978,21 +978,21 @@
     <rPh sb="10" eb="11">
       <t>わす</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>聞かなかったことにしてくれない？</t>
     <rPh sb="0" eb="1">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>よかったら、少しもらってくれない？</t>
     <rPh sb="6" eb="7">
       <t>すこ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>心配して電話をかけてきてくれた友達が</t>
@@ -1005,7 +1005,7 @@
     <rPh sb="15" eb="17">
       <t>ともだち</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>次に会うときに持って来てくれればいいよ</t>
@@ -1021,14 +1021,14 @@
     <rPh sb="10" eb="11">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>「ようこそお越しくださいました」とあいさつしてくれた</t>
     <rPh sb="6" eb="7">
       <t>こ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>私たちの目を楽しませてくれます</t>
@@ -1041,7 +1041,7 @@
     <rPh sb="6" eb="7">
       <t>たの</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は熱心に私の権利を弁護してくれた。</t>
@@ -1060,42 +1060,42 @@
     <rPh sb="11" eb="13">
       <t>べんご</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>못 들은 걸로 해 줄래?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>괜찮으면 조금 받아 줄래?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>걱정되어 전화를 걸어준 친구가</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>다음에 만날 때에 가지고 와 주면 돼</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>잘 오셨습니다'하고 인사해 주었다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>우리의 눈을 즐겁게 해 줍니다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 열렬하게 나의 권리를 변호해 주었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>おいしいと言ってもらえてよかった</t>
     <rPh sb="5" eb="6">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>息子がひろし君に遊んでもらったそうで</t>
@@ -1108,7 +1108,7 @@
     <rPh sb="8" eb="9">
       <t>あそ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>両親に子供のころから自分にやりたいことを自由にやらせてもらってきた</t>
@@ -1124,7 +1124,7 @@
     <rPh sb="20" eb="22">
       <t>じゆう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>友達にバイト先を紹介してもらった。</t>
@@ -1137,23 +1137,23 @@
     <rPh sb="8" eb="10">
       <t>しょうかい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>맛있다고 해 줘서 다행이다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>히로시 군이 아들이랑 놀아줬다고 하던데</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>부모님은 어렸을 때부터 내가 하고 싶은 일을 자유롭게 하게 해 주셨다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>친구가 아르바이트 자리를 소개해 주었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ピアノを弾くことが好きでたまらない</t>
@@ -1163,7 +1163,7 @@
     <rPh sb="9" eb="10">
       <t>す</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>痛み止めを飲んだのに、まだ頭が痛くてたまらない。</t>
@@ -1182,7 +1182,7 @@
     <rPh sb="15" eb="16">
       <t>いた</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>お母さんは君のことが心配でたまらないんだよ。</t>
@@ -1195,27 +1195,27 @@
     <rPh sb="10" eb="12">
       <t>しんぱい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>피아노 치는 것을 정말 정말 좋아한다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>진통제를 먹었는데도 아직 머리가 아파서 견딜 수 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>어머니는 너를 아주 걱정하고 계셔.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>시험 결과가 너무 걱정된다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>친구에게 몇 번이고 전화를 했지만 연결이 되지 않는다. 무슨 일이 있었는지 걱정이 되어 견딜 수 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>試験の結果が気になってならない。</t>
@@ -1228,7 +1228,7 @@
     <rPh sb="6" eb="7">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>友達に何度も電話をしたがつながらない。何かあったのか心配でならない。</t>
@@ -1247,7 +1247,7 @@
     <rPh sb="26" eb="28">
       <t>しんぱい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>風が強かったから、外に落ちちゃったんじゃない？</t>
@@ -1263,7 +1263,7 @@
     <rPh sb="11" eb="12">
       <t>お</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>生活に欠かせない道具として定着したといえるのではないか</t>
@@ -1279,14 +1279,14 @@
     <rPh sb="13" eb="15">
       <t>ていちゃく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今ここにいるわけないじゃない？</t>
     <rPh sb="0" eb="1">
       <t>いま</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>つい食べ過ぎてしまうという人も多いのではないか</t>
@@ -1302,7 +1302,7 @@
     <rPh sb="15" eb="16">
       <t>おお</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>A：あいつ、彼女でもできたんじゃないか。
@@ -1313,7 +1313,7 @@
     <rPh sb="28" eb="30">
       <t>さいきん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>A：真っ青な顔して、どこか悪いんじゃないの？
@@ -1333,41 +1333,41 @@
     <rPh sb="31" eb="32">
       <t>わる</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>바람이 강했으니까 밖에 떨어진 게 아닐까?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>생활에 빠뜨릴 수 없는 도구로써 정착했다고 할 수 있지 않을까?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>지금 여기에 있을 리가 없잖아?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그만 과식을 하고 만다는 사람도 많지 않을까?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>A : 그 녀석, 여자친구라도 생긴 게 아닐까?
 B : 그러고 보니 요즘 패션에 무척 신경 쓰고 있어.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>A : 얼굴이 창백한데, 어디 안 좋은 거 아니야?
 B : 아니, 아픈 데 없어.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>예전에는 신혼여행이라고 하면 하와이를 떠올리는 사람이 많았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일본이라 하면 나는 후지산을 연상합니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>昔は新婚旅行というと、ハワイを思い出す人が多かった。</t>
@@ -1389,7 +1389,7 @@
     <rPh sb="21" eb="22">
       <t>おお</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>日本といえば、私は富士山を連想します。</t>
@@ -1405,15 +1405,15 @@
     <rPh sb="13" eb="15">
       <t>れんそう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>혈액형을 알면 대략적인 성격도 알 수 있다는 것입니다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>임금을 배로 해 달라고 하는 것은 터무니없는 요구라는 것이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>血液型が分かれば大体の性格も分かるというものです。</t>
@@ -1432,7 +1432,7 @@
     <rPh sb="14" eb="15">
       <t>わ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>賃金を倍にしてほしいなどと言うのは、不法な要求というものだ。</t>
@@ -1451,11 +1451,11 @@
     <rPh sb="21" eb="23">
       <t>ようきゅう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>승부는 이기면 그만이 아니다, 어떤 식으로 이겼는가가 중요하다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>勝負は勝てばよいというものではない。どんな勝ち方をしたのかが重要だ。</t>
@@ -1474,11 +1474,11 @@
     <rPh sb="30" eb="32">
       <t>じゅうよう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>역에서 집까지 버스를 타지 않고 걷는 것은 절약이라기보다 건강을 위해서이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>駅から家までバスに乗らず歩くのは、節約というより健康のためだ。</t>
@@ -1500,34 +1500,34 @@
     <rPh sb="24" eb="26">
       <t>けんこう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>한마디로 카레라이스라고 해도</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>요리를 할 수 있다고 해도 계란말이 정도입니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ひとくちにカレーライスといっても</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>料理ができるといっても、たまごやきぐらいです。</t>
     <rPh sb="0" eb="2">
       <t>りょうり</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>초등학생의 체력은 저하되고 있다던데.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>친구가 다쳤다고 하면서 그는 병문안을 갔어.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>小学生の体力は低下しているとか。</t>
@@ -1540,7 +1540,7 @@
     <rPh sb="7" eb="9">
       <t>ていか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>友人がけがをしたとかで、彼は見舞いに行ったよ。</t>
@@ -1550,23 +1550,23 @@
     <rPh sb="12" eb="13">
       <t>かれ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>장관은 만족스러운 답변을 하기는 커녕</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>기뻐해주기는 커녕 민폐를 끼치는 경우도 있기 때문에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>나는 그 사람에게 여러가지로 친절하게 대했다고 생각하는데 감사를 받기는 커녕 원망 받았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>내일은 시험이 있어서 드라이브할 상황이 아니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>大臣は、満足な回答ができなかったどころか</t>
@@ -1579,7 +1579,7 @@
     <rPh sb="7" eb="9">
       <t>かいとう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>喜ばれるどころか、迷惑をかけることもあるので</t>
@@ -1589,7 +1589,7 @@
     <rPh sb="9" eb="11">
       <t>めいわく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>私はあの人にいろいろ親切にしたつもりだが、感謝されるどころか、恨まれた。</t>
@@ -1608,7 +1608,7 @@
     <rPh sb="31" eb="32">
       <t>うら</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>明日は試験があるので、ドライブどころではない。</t>
@@ -1618,15 +1618,15 @@
     <rPh sb="3" eb="5">
       <t>しけん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>바쁘신 중에 일부러 와 주셔서 감사합니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>마침 외출하려던 참에 시골에 계신 어머니로부터 택배가 왔다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>お忙しいところをわざわざおいでいただき、恐縮でございます。</t>
@@ -1636,7 +1636,7 @@
     <rPh sb="20" eb="22">
       <t>きょうしゅく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ちょうど出かけようとしていたところへ、田舎の母から宅急便か届いた。</t>
@@ -1655,34 +1655,34 @@
     <rPh sb="29" eb="30">
       <t>とど</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>프로선수로서는</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>산이나 식물 사진가로서</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>자신에게는 책임이 없어도 본인 책임이라고 해서</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>갑작스런 해고를 부당하다고 하여</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 연구생으로서 이 대학에서 공부하고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>プロの選手としては</t>
     <rPh sb="3" eb="5">
       <t>せんしゅ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>山や植物の写真家として</t>
@@ -1695,7 +1695,7 @@
     <rPh sb="5" eb="8">
       <t>しゃしんか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>自分には責任がなくても自分の責任だとして</t>
@@ -1711,7 +1711,7 @@
     <rPh sb="14" eb="16">
       <t>せきにん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>突然の解雇を不当として</t>
@@ -1724,7 +1724,7 @@
     <rPh sb="6" eb="8">
       <t>ふとう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は研究生として、この大学で勉強している。</t>
@@ -1740,19 +1740,19 @@
     <rPh sb="15" eb="17">
       <t>べんきょう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>갈 수 있다고 해도 도중부터가 될 거라고 생각한다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>어느 별에 생물이 있다고 해도</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>낙천적인 그는 회사에서 해고가 되었다고 해도 별로 걱정하지 않을 것이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>行けるとしても、多分途中からになると思う</t>
@@ -1768,7 +1768,7 @@
     <rPh sb="18" eb="19">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>どこかの星に生物がいたとしても</t>
@@ -1778,7 +1778,7 @@
     <rPh sb="6" eb="8">
       <t>せいぶつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>楽天的な彼は会社を首になったとしてもあまり心配しないだろ。</t>
@@ -1797,11 +1797,11 @@
     <rPh sb="21" eb="23">
       <t>しんぱい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>분화가 어떤 상태인지는 그 현장에 가보지 않으면 알 수 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>噴火がどんな状態なのかは、その現場へ行ってみないことにはわからない。</t>
@@ -1817,30 +1817,30 @@
     <rPh sb="18" eb="19">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>당신의 고생을 모르는 것은 아닙니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>あなたの苦労がわからないことはないです。</t>
     <rPh sb="4" eb="6">
       <t>くろう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>세계 각국의 국회의원 선거에서의 투표율</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>98년 동계 올림픽은 나가노 시에서 열렸다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>국제사회에서의 우리나라의 역할에 관해 서술하시오.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>世界各国の国会議員選挙における投票率</t>
@@ -1856,7 +1856,7 @@
     <rPh sb="15" eb="18">
       <t>とうひょうりつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>98年の冬季オリンピックは長野市において行われた。</t>
@@ -1872,7 +1872,7 @@
     <rPh sb="20" eb="21">
       <t>おこな</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>国際社会における我が国の役割について述べなさい。</t>
@@ -1891,15 +1891,15 @@
     <rPh sb="18" eb="19">
       <t>の</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>손님의 예산에 맞게</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 회사에서는 능력에 따라서 월급이 지급됩니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>客の予算に応じて</t>
@@ -1912,7 +1912,7 @@
     <rPh sb="5" eb="6">
       <t>おう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この会社では、能力に応じて給料が支払われます。</t>
@@ -1931,15 +1931,15 @@
     <rPh sb="16" eb="18">
       <t>しはら</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>짐은 많고 적음에 관계없이 배달해드립니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>노력했는데도 불구하고 모두 실패하고 말았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>荷物は多少にかかわらずご配達します。</t>
@@ -1952,7 +1952,7 @@
     <rPh sb="12" eb="14">
       <t>はいたつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>努力したにもかかわらずすべて失敗してしまった。</t>
@@ -1962,41 +1962,41 @@
     <rPh sb="14" eb="16">
       <t>しっぱい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>외출할 때만</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>우리 아이만은 그런 짓을 할 리가 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>먼저 오신 손님 100분에 한해 경품을 드립니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>우리나라뿐만 아니라</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그는 야구부에 들어 있지만 야구뿐만 아니라 스포츠라면 뭐든지 잘한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>外出するときにかぎって</t>
     <rPh sb="0" eb="2">
       <t>がいしゅつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>うちの子にかぎってぞんなことをするはずがない。</t>
     <rPh sb="3" eb="4">
       <t>こ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>先着のお客様100人にかぎり、景品をさしあげます。</t>
@@ -2012,11 +2012,11 @@
     <rPh sb="15" eb="17">
       <t>けいひん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>わが国に限らず</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼は野球部に入っているが、野球に限らずスポーツなら何でも得意だ。</t>
@@ -2041,7 +2041,7 @@
     <rPh sb="28" eb="30">
       <t>とくい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2090,7 +2090,7 @@
 (例：考えうる(생각할 수 있다)、理解しうる(이해할 수 있다)、ありえない(있을 수 없다)、判定しえない(판정할 수 없다))
 ≒ やむをえない (어쩔 수 없다, 하는 수 없다)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2158,7 +2158,7 @@
       </rPr>
       <t>を始めたかと思ったら(방금 공부를 시작했나 싶더니)、泣き止んだかと思ったら(울음을 그쳤나 했더니)、出かけたかと思ったら(외출했나 싶더니)、空が暗くなったかと思うと(하늘이 어두워졌나 싶더니))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2247,7 +2247,7 @@
       </rPr>
       <t>～からすれば (~으로 보아)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2356,7 +2356,7 @@
       </rPr>
       <t>～から言うと (~으로 보아)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2524,7 +2524,7 @@
       </rPr>
       <t>味(늦는 경향))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2632,7 +2632,7 @@
       </rPr>
       <t>厚なあの人でさえ(온화한 그 사람도)、食事すら(식사조차)、名前すら知らない(이름도 모른다))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2681,7 +2681,7 @@
       <t>スを勝ちぬいた末に)힘든 경주를 이겨낸 끝에))
 ≒ ～あげく (~한 끝에)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2789,7 +2789,7 @@
       </rPr>
       <t>して作った本だけに(고생해서 만든 책인 만큼))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -2961,7 +2961,7 @@
       <t>～(ん)じゃないかな
 ≠ 동사의 의지형 + ～(よ)うではないか</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3026,7 +3026,7 @@
     <rPh sb="73" eb="75">
       <t>おとな</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3074,7 +3074,7 @@
     <rPh sb="74" eb="75">
       <t>あら</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3226,7 +3226,7 @@
     <rPh sb="120" eb="122">
       <t>はつげん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3378,7 +3378,7 @@
     <rPh sb="97" eb="98">
       <t>おう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3467,11 +3467,11 @@
     <rPh sb="75" eb="76">
       <t>かぎ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>남동생은 공부는 못하지만 수영에 있어서는 누구에게도 지지 않는다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>弟は勉強はできないが、泳ぎにかけては誰にも負けない。</t>
@@ -3490,19 +3490,19 @@
     <rPh sb="21" eb="22">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>반대할 게 분명하다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이런 일을 하면 아버지에게 혼날 게 분명하다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>큰 비가 오는 날 운동회라니, 못 할게 분명해.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>反対するに決まっている</t>
@@ -3512,11 +3512,11 @@
     <rPh sb="5" eb="6">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>こんなことをしたら父に𠮟られるに決まっている。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>大雨の日に運動会なんて、できないに決まっている。</t>
@@ -3532,7 +3532,7 @@
     <rPh sb="17" eb="18">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3590,11 +3590,11 @@
     <rPh sb="86" eb="88">
       <t>そうい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>다양한 특수 기술에 더하여 컴퓨터에 의한 화상 처리 기술도 도입하고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3640,7 +3640,7 @@
     <rPh sb="89" eb="90">
       <t>かぜ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>様々な特殊技術にくわえて、コンピューターによる画像処理技術も導入している。</t>
@@ -3659,15 +3659,15 @@
     <rPh sb="30" eb="32">
       <t>どうにゅう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 계획을 그대로 추진할지 말지 어느 쪽이든</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>아무리 바빴다고 해도 전화를 걸 정도의 시간은 있었을 것이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3706,7 +3706,7 @@
     <rPh sb="59" eb="60">
       <t>むかし</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この計画をこのまま進めるかやめるかいずれにしても</t>
@@ -3716,7 +3716,7 @@
     <rPh sb="9" eb="10">
       <t>すす</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>どんなに忙しかったにしても、電話をかけるくらいの時間はあっただろう。</t>
@@ -3729,23 +3729,23 @@
     <rPh sb="24" eb="26">
       <t>じかん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>싱글룸치고는</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>처음치고는 꽤 잘했다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>남동생은 초등학교 4학년치고는 키가 작은 편입니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>シングルルームにしては</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>初めてにしてはなかなか上手だった</t>
@@ -3755,7 +3755,7 @@
     <rPh sb="11" eb="13">
       <t>じょうず</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>弟は小学生にしては、背が低いほうです。</t>
@@ -3771,7 +3771,7 @@
     <rPh sb="12" eb="13">
       <t>ひく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -3899,15 +3899,15 @@
     <rPh sb="121" eb="122">
       <t>つく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>가든 가지 않든 오늘 중으로 답변을 해야 한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>시험 문제가 어려웠다 하더라도 좀 더 좋은 점수를 받고 싶었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>行くにしろ行かないにしろ、今日のうちに返事をしなければならない。</t>
@@ -3923,7 +3923,7 @@
     <rPh sb="19" eb="21">
       <t>へんじ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>試験の問題が難しかったにせよ、もう少しいい点がとりたかった。</t>
@@ -3942,7 +3942,7 @@
     <rPh sb="21" eb="22">
       <t>てん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4016,7 +4016,7 @@
     <rPh sb="73" eb="74">
       <t>う</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～にせよ (~라 하더라도)
@@ -4036,15 +4036,15 @@
     <rPh sb="49" eb="50">
       <t>し</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>열차는 잠시 해안을 따라 달렸습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>지침에 따라 개인정보를 취급하고 있습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>列車はしばらく海岸にそって走りました。</t>
@@ -4057,7 +4057,7 @@
     <rPh sb="13" eb="14">
       <t>はし</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ガイドラインにそい、個人情報を取り扱っています。</t>
@@ -4070,15 +4070,15 @@
     <rPh sb="17" eb="18">
       <t>あつか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>갑자기 비가 내릴 때에 대비하여</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>상대방의 공격에 대비하여 블로킹 연습을 했습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>突然雨が降るときに備えて</t>
@@ -4091,7 +4091,7 @@
     <rPh sb="9" eb="10">
       <t>そな</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>相手のアタックに備えてブロックの練習をしました。</t>
@@ -4104,7 +4104,7 @@
     <rPh sb="16" eb="18">
       <t>れんしゅう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4210,7 +4210,7 @@
     <rPh sb="92" eb="94">
       <t>ほうし</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4270,19 +4270,19 @@
     <rPh sb="82" eb="83">
       <t>そな</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>주인이 어지간히 소중히 다뤘음이 틀림없다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그 아이는 장래에 대단한 인물이 될 것이 틀림없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>복장은 평소랑 꽤 다르지만 역시 저건 이시하라 씨가 분명하다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>持ち主によほど大切にされていたに相違ない</t>
@@ -4298,7 +4298,7 @@
     <rPh sb="16" eb="18">
       <t>そうい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>あの子は将来、大物になるに違いない。</t>
@@ -4314,7 +4314,7 @@
     <rPh sb="13" eb="14">
       <t>ちが</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>服装はいつもとだいぶ違うが、やっぱりあれは石原さんに相違ない。</t>
@@ -4330,7 +4330,7 @@
     <rPh sb="26" eb="28">
       <t>そうい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4439,19 +4439,19 @@
     <rPh sb="148" eb="150">
       <t>そうい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이야기를 들을 때마다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>지진 뉴스를 들을 때마다 불안해집니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>어릴 적부터 쭉 좋든 싫든 툭하면 형과 비교되어 왔다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>話を聞くにつけ</t>
@@ -4461,7 +4461,7 @@
     <rPh sb="2" eb="3">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>地震のニュースを聞くにつけ、不安な気持ちになります。</t>
@@ -4477,7 +4477,7 @@
     <rPh sb="17" eb="19">
       <t>きも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>子供の頃からずっといいにつけわるいにつけ、何かというと兄と比較されてきたのだ。</t>
@@ -4496,7 +4496,7 @@
     <rPh sb="29" eb="31">
       <t>ひかく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4559,7 +4559,7 @@
     <rPh sb="58" eb="59">
       <t>よ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～につけ～につけ (~든 ~든)
@@ -4583,15 +4583,15 @@
     <rPh sb="86" eb="87">
       <t>かな</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>꽃이 저녁 때가 가까워지면서</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>도시의 인구가 늘어남에 따라 범죄가 증가해 왔다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>花が夕方が近づくにつれて</t>
@@ -4604,7 +4604,7 @@
     <rPh sb="5" eb="6">
       <t>ちか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>都市の人口が増えるにつれて、犯罪が増加してきた。</t>
@@ -4623,7 +4623,7 @@
     <rPh sb="17" eb="19">
       <t>ぞうか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4701,11 +4701,11 @@
     <rPh sb="122" eb="123">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>유학생에게 있어서 살 곳을 찾는 것은 커다란 문제이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>留学生にとって住むところをさがすのは大きな問題だ。</t>
@@ -4721,15 +4721,15 @@
     <rPh sb="21" eb="23">
       <t>もんだい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>고령화에 따라 노인 의료 문제도 심각해지고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>화산활동에 동반한 현상은 다음과 같은 것이 있습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>高齢化にともない、老人医療の問題も深刻になりつつある。</t>
@@ -4745,7 +4745,7 @@
     <rPh sb="17" eb="19">
       <t>しんこく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>火山活動にともなう現象は、次のようなものがあります。</t>
@@ -4758,7 +4758,7 @@
     <rPh sb="13" eb="14">
       <t>つぎ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4798,7 +4798,7 @@
     <rPh sb="67" eb="68">
       <t>ちち</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4901,7 +4901,7 @@
     <rPh sb="106" eb="108">
       <t>はったつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -4984,11 +4984,11 @@
     <rPh sb="79" eb="81">
       <t>ぎせい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>전문가의 예측과 달리 경기 회복이 늦어지고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>専門家の予測に反して、景気の回復が遅れている。</t>
@@ -5010,11 +5010,11 @@
     <rPh sb="17" eb="18">
       <t>おく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>우리 회사가 여기까지 성장할 수 있었던 것도 바로 사원 전원의 노력이 있었기 때문이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>わが会社がここまで成長できたのも、社員全員の努力があったからにほかならない。</t>
@@ -5030,7 +5030,7 @@
     <rPh sb="22" eb="24">
       <t>どりょく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～に反し(て) (~와 반대로, ~와 달리)
@@ -5063,7 +5063,7 @@
     <rPh sb="77" eb="79">
       <t>けっか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -5129,23 +5129,23 @@
     <rPh sb="121" eb="122">
       <t>も</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 사람을 빼고는 일본 재즈를 논할 수 없을 정도</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>농담하지 말고 진지하게 생각해 주세요.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>긍정적인 면도 부정적인 면도 있지만, 현재는 이제 관광을 빼고는 논할 수 없는 시대입니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>영국 문학은 셰익스피어를 빼고는 말할 수 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この人抜きには日本のジャズは語れないほど</t>
@@ -5158,7 +5158,7 @@
     <rPh sb="14" eb="15">
       <t>かた</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>冗談ぬきでまじめに考えてください。</t>
@@ -5168,7 +5168,7 @@
     <rPh sb="9" eb="10">
       <t>かんが</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>プラスの面もマイナスの面もあるにせよ、現代はもはや観光抜きには語れない時代です。</t>
@@ -5190,7 +5190,7 @@
     <rPh sb="35" eb="37">
       <t>じだい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>イギリスの文学はシェイクスピアぬきでは語りえない。</t>
@@ -5200,7 +5200,7 @@
     <rPh sb="19" eb="20">
       <t>かた</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -5246,15 +5246,15 @@
     <rPh sb="152" eb="153">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>재정 문제를 빼고 복지 정책을 생각해도 별로 의미가 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이기고 지는 것을 떠나 둘 다 정말 잘했다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>財政問題をぬきにして福祉政策を考えても、あまり意味がない。</t>
@@ -5270,7 +5270,7 @@
     <rPh sb="23" eb="25">
       <t>いみ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>勝ち負けの話はぬきにして、お互いよくやったと思う。</t>
@@ -5289,7 +5289,7 @@
     <rPh sb="22" eb="23">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ぬきにして (~(은/는) 생략하고, ~(을/를) 빼고)
@@ -5310,11 +5310,11 @@
     <rPh sb="175" eb="179">
       <t>りがいとくしつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>젊은이뿐만 아니라 노인과 아이들에게도 인기가 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>若い人のみならず老人や子どもたちにも人気がある。</t>
@@ -5333,7 +5333,7 @@
     <rPh sb="18" eb="20">
       <t>にんき</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -5485,19 +5485,19 @@
     <rPh sb="112" eb="113">
       <t>かぎ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>흥미가 있었던 별이나 달력에 대해 다카하시 요시토키 밑에서 배우기 시작했다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>저는 이시하라 선생님 지도 하에 연구하고 있습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>사람들의 대표는 '국민국가'라는 명목 하에 하나의 언어, 하나의 민족으로 통일하고자 하는 정부를 탄생시켰다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>興味があった星や暦について高橋義時のもとで学び始めた</t>
@@ -5519,7 +5519,7 @@
     <rPh sb="23" eb="24">
       <t>はじ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>私は石原先生のもとで研究しています。</t>
@@ -5532,7 +5532,7 @@
     <rPh sb="10" eb="12">
       <t>けんきゅう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>人々の代表は、「国民国家」の名のもとに、一つの言語・一つの民族で統一しようとする政府を誕生させた。</t>
@@ -5566,7 +5566,7 @@
     <rPh sb="43" eb="45">
       <t>たんじょう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～のもとで (~아래서, ~밑에서, ~지도 하에)
@@ -5584,7 +5584,7 @@
     <rPh sb="68" eb="72">
       <t>きたむらせんせい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -5679,22 +5679,22 @@
     <rPh sb="107" eb="109">
       <t>かんとく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>내가 실수를 하는 바람에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>오래된 생선회를 먹은 탓에 배탈이 나고 말았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>僕がミスをしたばかりに</t>
     <rPh sb="0" eb="1">
       <t>ぼく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>古いさしみを食べたばかりにおなかをこわしてしまった。</t>
@@ -5704,27 +5704,27 @@
     <rPh sb="6" eb="7">
       <t>た</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>정말로 장래에 될지 안 될지는 차치하고</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>데이트할 때 입는다면 몰라도</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>10년 전이면 몰라도 지금은 그런 옷은 입을 수 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 레스토랑은 조금 비싸지만 가격은 그렇다 치고 맛은 좋네요.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그는 그렇다 치고 팀의 다른 멤버들과는 잘 지내고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>本当に将来なるかどうかは別として</t>
@@ -5737,14 +5737,14 @@
     <rPh sb="12" eb="13">
       <t>べつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>デートで着るならともかく</t>
     <rPh sb="4" eb="5">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>このレストラン、ちょっと高いんですけと、値段はともかく味はいいですよ。</t>
@@ -5757,7 +5757,7 @@
     <rPh sb="27" eb="28">
       <t>あじ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>10年前ならともかく、今はそんな服は着られない。</t>
@@ -5776,7 +5776,7 @@
     <rPh sb="18" eb="19">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼は別としてチームのほかのメンバーとはうまくいっている。</t>
@@ -5786,102 +5786,102 @@
     <rPh sb="2" eb="3">
       <t>べつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>~あまり (~한 나머지)
 &lt;형용사와 동사의 명사형 + の + あまり&gt; &lt;동사 과거형(～た) + あまり&gt; &lt;동사 사전형 + あまり&gt;
 (例：心配のあまり(걱정한 나머지)、悲しみのあまり(슬픈 나머지)、うれしさのあまり(기쁜 나머지)、考えすぎたあまり(너무 생각한 나머지))</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～うえは (~한 이상에는, ~한 바에는) [문어적, 딱딱한 표현으로 제한적으로 사용]
 &lt;동사 과거형(～た) + うえは&gt;
 (例：こうなったうえは(이렇게 된 바에는)、約束したうえは(약속한 이상에는)、秘密を知ったうえは(비밀을 안 이상에는))
 ≒ ～以上は / ～からには (~한 이상에는)</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ないうちに (~하지 않는 사이에, ~하기 전에)
 &lt;～うちに의 부정&gt;
 (例：雨が降らないうちに(비가 오기 전에)、暗くならないうちに(어두워지기 전에)、忘れないうちに(잊어버리기 전에))</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～おそれがある (~할 우려가 있다)
 &lt;おそれ가 명사이므로 그에 준하는 접속&gt; &lt;동사 사전형 + おそれがある&gt; &lt;명사 + の + おそれがある&gt;
 (例：大事故につながるおそれがある(대형 사고로 이어질 우려가 있다)、こわれるおそれがある(부서질 우려가 있다)、倒産のおそれがある(도산의 우려가 있다))</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～か～ないのうちに (~하자마자)
 &lt;동사 사전형 + ～か～ないかのうちに&gt; &lt;동사의 과거형 + ～か～ないかのうちに&gt;
 (例：家に着くか着かないかのうちに(집에 도착하자마자)、先生の講義が終わるか終わらないかのうちに(선생님의 강의가 끝나자마자)、そう言ったか言わないかのうちに(그렇게 말하자마자))
 ≒ たとたん(に) (~한 순간(에))</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～かのようだ ((마치) ~인 듯하다, ~인 것 같다)
 &lt;동사의 과거형 + かのようだ&gt; &lt;동사의 현재진행형 + かのようだ&gt;
 (例：まるで夏になったかのようだ(마치 여름이 된 것 같다)、有名人にでもなったかのようだ(유명인이라도 된 것 같다)、生きているかのようだ(마치 살아 있는 것 같다)、まるですべてを知っているかのようだ(마치 전부 알고 있는 듯하다))</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～から～にかけて (~부터 ~에 걸쳐)
 (例：おとといから今日にかけて(그저께부터 오늘에 걸쳐)、2月から3月にかけて(2월부터 3월에 걸쳐)、1丁目から3丁目にかけて(1가부터 3가에 걸쳐))
 ≒ ～にわたって (~에 걸쳐)</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～からといって (~라고 해서)
 &lt;～からといって + 부분 부정 표현 (例：～(という)わけではない((~라는) 것은 아니다)、～とはかぎらない(~라고는 할 수 없다)、～とはいえない(~라고는 말할 수 없다))&gt;</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～くせに (~인 주제에, ~이면서도)
 (例：知らないくせに(알지도 못하는 주제에)、きらいなくせに(싫어하는 주제에)、まだ子どものくせに(아직 어린애인 주제에)、日本に3年もいたくせに(일본에 3년이나 있었으면서도))</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～げに (~한 듯이) [고풍스러운 표현]
 &lt;い형용사(い삭제) + げに&gt; &lt;동사 ます형 + げに&gt;
 (例：悲しげに(슬픈 듯이)、さびしげに(쓸쓸한 듯이)、なつかしげに(의미가 있는 듯이))</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t xml:space="preserve">～こそ (~야말로)
 (例：こちらこそ(저야말로)、今でこそ(지금에서야말로)) </t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～からこそ (~이기 때문에)
 (例：かっているからこそ(알고 있기 때문에)、あなたのことを思っているからこそ(당신을 생각하기 때문에))</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ことか (~던가, ~인지) [감탄, 반문]
 &lt;주로 なんと(얼마나)、何度(몇 번)、どんなに(얼마나) 등과 호응&gt;
 (例：なんと速いことか(얼마나 빠른지)、何度やめようと思ったことか(얼마나 그만두려 했던가)、何度注意したことか(몇 번 주의를 주었던가)、どんなにさびしいことか(얼마나 쓸쓸한지))
 ≒ ～ものか (~할까 보냐)</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ことから / ～ところから (~로 인해, ~때문에 / ~하는 점에서, ~해서) [근거, 유래]
 (例：子どもが少なくなってきていることから(어린이가 줄고 있기 때문에)、米君の基地が多いことから(미군 기지가 많아서)、性能もよくなったことから(성능도 좋아졌기 때문에)、へびそっくりのところから(뱀과 꼭 닮은 점에서)、えびに似ているところから(새우와 닮아서))</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ことなく (~하지 않고)
 &lt;동사 사전형 + ことなく&gt;
 (例：いつまでも忘れることなく(언제까지나 잊지 않고)、友を見捨てることなく(친구를 버리지 않고)、信念をまげることなく(신념을 굽히지 않고))</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ことに (~하게도)
 &lt;동사 과거형(～た) + ことに&gt; &lt;い형용사/な형용사 + ことに&gt;
 (例：困ったことに(난처하게도)、驚いたことに(놀랍게도)、おもしろいことに(우습게도)、興味深いことに(흥미롭게도)、うれしいことに(기쁘게도))
 ≒ ～ことには (~하게도)</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～っけ (~던가, ~였더라)
@@ -5911,7 +5911,7 @@
     <rPh sb="109" eb="110">
       <t>たく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～つつある (~중이다, ~하고 있다)
@@ -5934,7 +5934,7 @@
     <rPh sb="57" eb="58">
       <t>む</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～っぽい (~의 경향이 강하다, ~같다, ~한 성질이 있다)
@@ -5949,17 +5949,17 @@
     <rPh sb="85" eb="86">
       <t>おこ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～てくれる ((남이 나에게) ~해 주다)
 [행동을 하는 사람이 주어]</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～てもらう ((내가 남에게) ~해 받다 → (남이 나에게) ~해 주다)
 [행동을 받는 '나'가 주어]</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～てたまらない (~해서 견딜 수 없다, 너무 ~하다)
@@ -5978,7 +5978,7 @@
     <rPh sb="115" eb="116">
       <t>す</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～というものだ (~라는 것이다)
@@ -5996,7 +5996,7 @@
     <rPh sb="111" eb="114">
       <t>ひじょうしき</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～とか (~라고 하던데) [전문, 불확실]
@@ -6017,7 +6017,7 @@
     <rPh sb="69" eb="70">
       <t>あ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ところを (~(인/한) 중에)
@@ -6034,7 +6034,7 @@
     <rPh sb="57" eb="58">
       <t>あぶ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～に(も)かかわらず (~에(도) 관계없이, ~에도 불구하고)
@@ -6066,7 +6066,7 @@
     <rPh sb="112" eb="113">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～にかけては (~에 있어서는, ~에 관한 한)
@@ -6090,7 +6090,7 @@
     <rPh sb="88" eb="89">
       <t>はや</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ばかりに (~하는 바람에, ~하는 탓에)
@@ -6114,7 +6114,7 @@
     <rPh sb="106" eb="107">
       <t>た</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6265,19 +6265,19 @@
     <rPh sb="238" eb="239">
       <t>べつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>떠맡을 수밖에 없을 것이다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>오늘은 비가 오지 않을 거라 생각해서 우산을 가져오지 않았습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이제 이런 짓은 하지 않겠다고 신에게 맹세했습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>引き受けるしかあるまい</t>
@@ -6287,7 +6287,7 @@
     <rPh sb="2" eb="3">
       <t>う</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今日は雨が降るまいと思って、かさを持ってきませんでした。</t>
@@ -6306,7 +6306,7 @@
     <rPh sb="17" eb="18">
       <t>も</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>もう、このようなことはしまいと神に誓いました。</t>
@@ -6316,7 +6316,7 @@
     <rPh sb="17" eb="18">
       <t>ちか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6388,7 +6388,7 @@
     <rPh sb="167" eb="170">
       <t>らいがっき</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6460,7 +6460,7 @@
     <rPh sb="167" eb="170">
       <t>らいがっき</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6532,11 +6532,11 @@
     <rPh sb="167" eb="170">
       <t>らいがっき</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>어르신에게 적합한 서비스나 상품이 있습니까?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>お年寄り向きのサービスや商品がありますか。</t>
@@ -6549,11 +6549,11 @@
     <rPh sb="12" eb="14">
       <t>しょうひん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 회사에서는 어린이용 텔레비전 프로그램을 만들고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この会社では、子どもむけのテレビ番組を作っている。</t>
@@ -6569,15 +6569,15 @@
     <rPh sb="19" eb="20">
       <t>つく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>빨래를 좋아하는 사람도 있고 요리가 취미라는 사람도 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이런 사건을 일으키다니, 부모도 부모지만 자식도 자식이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>洗濯の好きな人もいれば、料理が趣味という人もいる。</t>
@@ -6593,14 +6593,14 @@
     <rPh sb="12" eb="14">
       <t>りょうり</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>こんな事件を起こすなんて、親も親なら子も子だ。</t>
     <rPh sb="3" eb="5">
       <t>じけん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6655,7 +6655,7 @@
     <rPh sb="108" eb="109">
       <t>じょう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6744,7 +6744,7 @@
     <rPh sb="87" eb="90">
       <t>ゆしゅつひん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6799,7 +6799,7 @@
     <rPh sb="126" eb="127">
       <t>とき</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～も～なら～も (~도 ~지만 ~도)
@@ -6819,11 +6819,11 @@
     <rPh sb="30" eb="31">
       <t>こ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀는 어머니가 말리는 것도 개의치 않고 택시를 타고 가버렸다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼女は母親がとめるのもかまわず、タクシーに乗って行ってしまった。</t>
@@ -6839,7 +6839,7 @@
     <rPh sb="24" eb="25">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～もかまわず (~도 개의치 않고)
@@ -6866,11 +6866,11 @@
     <rPh sb="125" eb="126">
       <t>わたし</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>스포츠에는 승부를 넘어 사람들의 감동을 불러일으키는 데가 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>スポーツには、勝負を超えて人々の感動をさそうものがある。</t>
@@ -6883,7 +6883,7 @@
     <rPh sb="13" eb="18">
       <t>ひとびとのかんどう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6912,7 +6912,7 @@
       <t>んだあげく(고심한 끝에)、困ったあげく(난처한 끝에)、考えたあげく(생각한 끝에)
 ≒ ～の末に「のすえに」 (~한 끝에)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -6941,7 +6941,7 @@
       <t>んだあげく(고심한 끝에)、困ったあげく(난처한 끝에)、考えたあげく(생각한 끝에))
 ≒ ～の末に「のすえに」 (~한 끝에)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7012,7 +7012,7 @@
     <rPh sb="1" eb="3">
       <t>いっぽう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7041,7 +7041,7 @@
       <t>える一方だ(늘어나기만 한다)、減る一方だ(줄어들기만 한다)、失業率はあがる一方だ(실업률은 올라가기만 한다))
 ≒ ～ばかりだ (~하기만 하다)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7090,7 +7090,7 @@
       <t>くうえに(잘 듣는 데다가))
 ≒ ~上 (~상)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7179,7 +7179,7 @@
       </rPr>
       <t>が健康なうちは(몸이 건강할 때에는))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7268,7 +7268,7 @@
       </rPr>
       <t>が健康なうちは(몸이 건강할 때에는))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7359,7 +7359,7 @@
 [참고] &lt;～かぎり + の + 명사&gt; (~하는 한의 ~) (例：持てるかぎりの荷物(들 수 있는 한의 짐))
 [참고2] ～かぎりでは (~하는 바로는) (例：君がここにいるかぎりでは(네가 여기 있는 한))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7387,7 +7387,7 @@
       </rPr>
       <t>みかけの本(읽다 만 책)、食べかけのパン(먹다 만 빵)、夕飯を作りかけて(저녁밥을 만들다 말고)、彼は何か言いかけて(그는 뭔가 말하려다 말고)、前の人にぶつかりかけた(앞사람과 부딪칠 뻔했다))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7415,7 +7415,7 @@
       </rPr>
       <t>(자주 흐린 날씨)、忘れがちになる(자주 잊게 되다))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7463,7 +7463,7 @@
       </rPr>
       <t>社は社長からして(이 회사는 사장부터가)、あの店のパンはにおいからして(그 가게의 빵은 냄새부터가))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7512,7 +7512,7 @@
       </rPr>
       <t>～うえは (~한 이상에는)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7540,7 +7540,7 @@
       </rPr>
       <t>ったきりだ(졸업한 이듬해에 한 번 만났을 뿐이다)、10年前に習ったきりだ(10년 전에 배웠을 뿐이다))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7569,7 +7569,7 @@
       <t>面目なあの人のことだから(성실한 그 사람이니))
 ≒ ～ものだから (~이기 때문에)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7617,7 +7617,7 @@
       </rPr>
       <t>討している最中だ(지금 한창 검토하고 있는 중이다))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7705,7 +7705,7 @@
       </rPr>
       <t>みさえすれ(약을 먹기만 하면)、だまってさえいれば(잠자코 있기만 하면)、新聞に名前さえ出なければ(신문에 이름만 나오지 않으면)、安くさえあれば(싸기만 하면)、ひまさえあれば(틈만 있으면)、衣類は丈夫でさえあれば(옷은 튼튼하기만 하면))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7733,7 +7733,7 @@
       </rPr>
       <t>えざるをえない(한자를 외워야만 한다)、行くのをあきらめざるをえない(가는 것을 단념할 수밖에 없다)、値下げせざるをえない(가격을 내릴 수밖에 없다))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7781,7 +7781,7 @@
       </rPr>
       <t>査の結果次第では(검사 결과에 따라서는))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7808,7 +7808,7 @@
       </rPr>
       <t>た次第です(제가 대신 온 것입니다))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7836,7 +7836,7 @@
       </rPr>
       <t>だっただけのことはある(과연 아나운서 출신은 다르다)、チャンピオンだけのことはある(과연 챔피언이라 할 만하다))</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7865,7 +7865,7 @@
       <t>場の問い合わせをしたところ(모임 장소를 문의했더니)、電話帳で調べたところ(전화번호부에서 찾아봤더니)、先生のお宅へうかがったところ(선생님 댁으로 찾아뵈었더니))
 ≒ ～たところで (~해본들, ~해봤자)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7894,7 +7894,7 @@
       <t>を見たとたん(사진을 보자마자)、椅子から立ったとたん(의자에서 일어난 순간)、窓を開けたとたんに(창문을 연 순간에)、家を出たとたんに(집을 나서자마자))
 ≒ ～か～ないかのうちに (~하자마자)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7923,7 +7923,7 @@
       <t>まで行ったついでに(역까지 간 김에)、夕飯を作るついでに(저녁밥을 만드는 김에)、出張のついでに(출장 가는 김에)
 ≒ ついでで (~하는 김으로)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7952,7 +7952,7 @@
       <t>まで行ったついでに(역까지 간 김에)、夕飯を作るついでに(저녁밥을 만드는 김에)、出張のついでに(출장 가는 김에)
 ≒ ついでで (~하는 김으로)</t>
     </r>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -7998,7 +7998,7 @@
     <rPh sb="64" eb="68">
       <t>しじょうちょうさ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8067,7 +8067,7 @@
     <rPh sb="67" eb="71">
       <t>ちょうさりょこう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8174,7 +8174,7 @@
     <rPh sb="95" eb="97">
       <t>こいびと</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8213,7 +8213,7 @@
     <rPh sb="40" eb="41">
       <t>かんが</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8255,7 +8255,7 @@
     <rPh sb="91" eb="93">
       <t>ふうけい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8299,7 +8299,7 @@
     <rPh sb="133" eb="135">
       <t>しんぱい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8338,7 +8338,7 @@
     <rPh sb="67" eb="69">
       <t>びょうき</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8386,7 +8386,7 @@
     <rPh sb="73" eb="75">
       <t>ともだち</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8428,7 +8428,7 @@
     <rPh sb="59" eb="60">
       <t>はじ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8484,7 +8484,7 @@
     <rPh sb="42" eb="44">
       <t>きゅうよう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8541,7 +8541,7 @@
     <rPh sb="107" eb="109">
       <t>びょうき</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8633,7 +8633,7 @@
     <rPh sb="138" eb="140">
       <t>はなみ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8682,7 +8682,7 @@
     <rPh sb="107" eb="108">
       <t>はじ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8722,7 +8722,7 @@
     <rPh sb="113" eb="114">
       <t>やぶ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8782,7 +8782,7 @@
     <rPh sb="92" eb="95">
       <t>じっさいあ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8872,7 +8872,7 @@
     <rPh sb="169" eb="170">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8933,7 +8933,7 @@
     <rPh sb="34" eb="35">
       <t>かぎ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -8997,15 +8997,15 @@
     <rPh sb="201" eb="202">
       <t>み</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이제 두 번 다시 사랑 따위 할까 보냐</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>3년 동안 혹독한 연습을 견뎌냈어. 내일 시합, 질까 보냐.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>もう二度と恋などするものか</t>
@@ -9015,7 +9015,7 @@
     <rPh sb="5" eb="6">
       <t>こい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>3年間、厳しい練習に耐えたんだ。明日の試合、負けてなるものか。</t>
@@ -9040,7 +9040,7 @@
     <rPh sb="22" eb="23">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ものか (~할까 보냐, ~하나 봐라)
@@ -9064,19 +9064,19 @@
     <rPh sb="75" eb="76">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>입을 옷을 고를 때에도, 휴일의 계획을 세울 때에도 날씨는 신경이 쓰이는 법</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>놀고만 있어서는 안 된다. 학생은 공부를 해야 한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>밤늦게 전화하는 거 아니야.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>着る服を選ぶ時も、休日の予定を立てる時も、天気は気になるもの</t>
@@ -9110,7 +9110,7 @@
     <rPh sb="24" eb="25">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>遊んでばかりではだめだ。学生は勉強するものだ。</t>
@@ -9123,7 +9123,7 @@
     <rPh sb="15" eb="17">
       <t>べんきょう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>夜遅く電話をかけるものではないよ。</t>
@@ -9133,7 +9133,7 @@
     <rPh sb="3" eb="5">
       <t>でんわ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9228,7 +9228,7 @@
     <rPh sb="272" eb="273">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ものだから (~이기 때문에, ~해서) [개인적인 이유로 변명]
@@ -9265,11 +9265,11 @@
     <rPh sb="129" eb="130">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>갑자기 추워져서 감기에 걸리고 말았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>急に寒くなったものだから、風邪をひいてしまった。</t>
@@ -9282,7 +9282,7 @@
     <rPh sb="13" eb="15">
       <t>かぜ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9411,7 +9411,7 @@
     <rPh sb="106" eb="107">
       <t>かえ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9457,23 +9457,23 @@
     <rPh sb="131" eb="134">
       <t>いちどみ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그때로 돌아갈 수 있다면 돌아가고 싶다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>갈 수 있다면 가고 싶다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>같이 갈 수 있다면 가 주고 싶지만, 일의 형편상 그렇게 할 수 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>금방 퇴원은 할 수 있었지만 불행히도 후유증이 남아 생각대로 일을 할 수 없게 되었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>あのころに戻れるものなら戻りたい</t>
@@ -9483,7 +9483,7 @@
     <rPh sb="12" eb="13">
       <t>もど</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>行けるものなら行きたい</t>
@@ -9493,7 +9493,7 @@
     <rPh sb="7" eb="8">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>一緒に行けるものなら行ってあげたいが、仕事の都合上、そうもいかない。</t>
@@ -9512,7 +9512,7 @@
     <rPh sb="22" eb="25">
       <t>つごうじょう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>すぐ退院はできたものの、不幸にも後遺症が残り、思うように仕事をすることができなくなった。</t>
@@ -9534,22 +9534,22 @@
     <rPh sb="28" eb="30">
       <t>しごと</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>주머니에는 손수건이며 껌 등이 들어 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>어제는 술을 너무 많이 마신 탓에 두통이며 구토로 힘들었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ポケットにはハンカチやらガムやらが入っている。</t>
     <rPh sb="17" eb="18">
       <t>はい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>昨日は酒を飲みすぎたせいで、頭が痛いやら、吐き気がするやらで大変だった。</t>
@@ -9577,23 +9577,23 @@
     <rPh sb="30" eb="32">
       <t>たいへん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그것을 무시하고 회의를 추진할 수는 없다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>중요한 회의가 있어서 쉴 수는 없다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>앞으로 3일 기다려 주실 수 없습니까?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>내일은 시험이 있어서 오늘은 놀고 있을 수는 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>そのことを無視して進めるわけれはならない</t>
@@ -9603,7 +9603,7 @@
     <rPh sb="9" eb="10">
       <t>すす</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>大事な会議があるから休むわけにはいかない</t>
@@ -9616,7 +9616,7 @@
     <rPh sb="10" eb="11">
       <t>やす</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>あと3日待っていただくわけにはいきませんか。</t>
@@ -9626,7 +9626,7 @@
     <rPh sb="4" eb="5">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>明日は試験があるから、今日は遊んでいるわけにはいかない。</t>
@@ -9642,7 +9642,7 @@
     <rPh sb="14" eb="15">
       <t>あそ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9682,7 +9682,7 @@
     <rPh sb="63" eb="64">
       <t>かな</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9757,11 +9757,11 @@
     <rPh sb="105" eb="106">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그 영화는 유명한 스타가 많이 출연한 데 비해서는 재미없었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>その映画は有名なスターがたくさん出演しているわりにはつまらなかった。</t>
@@ -9774,15 +9774,15 @@
     <rPh sb="16" eb="18">
       <t>しゅつえん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그는 취업을 계기로 생활 방식을 확 바꿨다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>나카시마 씨는 정년 퇴직을 계기로 그림을 배우기 시작했다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼は就職を機会として生活スタイルをガラリと変えた。</t>
@@ -9801,7 +9801,7 @@
     <rPh sb="21" eb="22">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>中島さんは定年退職を会議に絵を習い始めた。</t>
@@ -9823,7 +9823,7 @@
     <rPh sb="17" eb="18">
       <t>はじ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -9901,7 +9901,7 @@
     <rPh sb="131" eb="132">
       <t>わか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10012,11 +10012,11 @@
     <rPh sb="113" eb="115">
       <t>けいき</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 케이크는 제가 마음을 담아 만든 것입니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>このケーキは私が心を込めて作ったものです。</t>
@@ -10032,7 +10032,7 @@
     <rPh sb="13" eb="14">
       <t>つく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10187,11 +10187,11 @@
     <rPh sb="79" eb="80">
       <t>こ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그 강의를 통해서 점점 정치에 흥미가 생겼다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>藤田さんご夫妻とは鈴木さんを通じて知り合いました。</t>
@@ -10213,11 +10213,11 @@
     <rPh sb="19" eb="20">
       <t>あ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>후지타 씨 부부와는 스즈키 씨를 통해서 알게 되었습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>その講義を通して、政治にどんどん興味がわいできた。</t>
@@ -10233,7 +10233,7 @@
     <rPh sb="16" eb="18">
       <t>きょうみ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10337,15 +10337,15 @@
     <rPh sb="152" eb="153">
       <t>とお</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>학교는 그 학생을 퇴학 처분한다는 결론을 낸 듯 하다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그는 돈벌이를 목적으로서 살고 있는 듯한 남자다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>学校はこの学生を退学処分とするという結論を出したようだ。</t>
@@ -10367,7 +10367,7 @@
     <rPh sb="21" eb="22">
       <t>だ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼は金もうけを目的として生きているような男だ。</t>
@@ -10386,7 +10386,7 @@
     <rPh sb="20" eb="21">
       <t>おとこ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10537,15 +10537,15 @@
     <rPh sb="154" eb="155">
       <t>わか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>초보자, 경험자를 불문하고</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>나이, 경험을 불문하고 누구나 투어에 참가할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>初心者、経験者を問わず</t>
@@ -10558,7 +10558,7 @@
     <rPh sb="8" eb="9">
       <t>と</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>年齢、経験を問わず、誰れもツアーに参加できます。</t>
@@ -10577,7 +10577,7 @@
     <rPh sb="17" eb="19">
       <t>さんか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10652,7 +10652,7 @@
     <rPh sb="79" eb="80">
       <t>と</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10771,11 +10771,11 @@
     <rPh sb="168" eb="170">
       <t>ぜんいん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 대학에는 중국을 비롯하여 아시아에서 온 유학생이 많다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この大学には中国をはじめ、アジアからの留学生が多い。</t>
@@ -10785,11 +10785,11 @@
     <rPh sb="6" eb="8">
       <t>ちゅうごく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>대기 오염의 해결책을 둘러싸고 활발한 논의가 계속되고 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>大気汚染の解決策をめぐって活発な議論が続いている。</t>
@@ -10808,7 +10808,7 @@
     <rPh sb="19" eb="20">
       <t>つづ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -10924,11 +10924,11 @@
     <rPh sb="121" eb="124">
       <t>かいけつさく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>2시간 기다린 보람이 있어 비가 그치고 아름다운 경치를 볼 수 있었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>二時間待ったかいがあって、雨がやみ、美しい景色を見ることができた。</t>
@@ -10947,23 +10947,23 @@
     <rPh sb="24" eb="25">
       <t>み</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>처음부터 우주비행사가 될 생각이었는가 하면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>어머니가 아니면 안 되는가 하면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>문장에 능하면 누구나 작가가 될 수 있는가 하면 그렇지는 않다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>부장님과 과장님은 툭하면 의견이 대립한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>初めから宇宙飛行士になるつもりだったかというと</t>
@@ -10973,14 +10973,14 @@
     <rPh sb="4" eb="9">
       <t>うちゅうひこうし</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>母親でなくてはならないかというと</t>
     <rPh sb="0" eb="2">
       <t>ははおや</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>文章がうまければ誰でも作家になれるかというと、そんなことはない。</t>
@@ -10993,7 +10993,7 @@
     <rPh sb="11" eb="13">
       <t>さっか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>部長と課長は何かといえば意見が対立する。</t>
@@ -11012,11 +11012,11 @@
     <rPh sb="15" eb="17">
       <t>たいりつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>등록자는 2021년 8월 현재 144명입니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>登録者は2021年8月現在で144名です。</t>
@@ -11035,7 +11035,7 @@
     <rPh sb="17" eb="18">
       <t>めい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～かいがあって (~한 보람이 있어)
@@ -11053,7 +11053,7 @@
     <rPh sb="94" eb="96">
       <t>かんご</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -11135,7 +11135,7 @@
     <rPh sb="90" eb="91">
       <t>なに</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -11196,11 +11196,11 @@
     <rPh sb="118" eb="120">
       <t>げんざい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그는 나이는 젊지만 상당히 유능하다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼は年こそ若いが非常に有能だ。</t>
@@ -11219,15 +11219,15 @@
     <rPh sb="11" eb="13">
       <t>ゆうのう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>민폐를 끼치는 경우도 있기 때문에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일기예보는 빗나가는 경우가 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>問題を解いてみるとできないということがよくある</t>
@@ -11237,25 +11237,25 @@
     <rPh sb="3" eb="4">
       <t>と</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>문제를 풀어보면 불가능하다는 경우가 자주 있다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>迷惑をかけることもあるので</t>
     <rPh sb="0" eb="2">
       <t>めいわく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>天気予報ははずれることがある。</t>
     <rPh sb="0" eb="4">
       <t>てんきよほう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -11335,7 +11335,7 @@
     <rPh sb="70" eb="72">
       <t>じかん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -11427,11 +11427,11 @@
     <rPh sb="105" eb="107">
       <t>さんぽ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>새삼 그에게 그런 편지 따위 쓸 필요는 없어.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今さら彼にそんな手紙など書くことはないよ。</t>
@@ -11447,19 +11447,19 @@
     <rPh sb="12" eb="13">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>지금까지 뭔가에 열중한 적이 있었던가?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그 책이라면 어렸을 적에 읽은 적이 있습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그런 얘기는 들은 적이 없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>これまで何かに夢中になったことがあっただろうか</t>
@@ -11469,7 +11469,7 @@
     <rPh sb="7" eb="9">
       <t>むちゅう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>その本なら子どものころ読んだことがあります。</t>
@@ -11482,7 +11482,7 @@
     <rPh sb="11" eb="12">
       <t>よ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>そんな話は聞いたことがない。</t>
@@ -11492,7 +11492,7 @@
     <rPh sb="5" eb="6">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ことはない (~할 필요는 없다)
@@ -11510,7 +11510,7 @@
     <rPh sb="86" eb="87">
       <t>いそ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -11562,7 +11562,7 @@
     <rPh sb="178" eb="179">
       <t>み</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -11625,7 +11625,7 @@
     <rPh sb="178" eb="179">
       <t>み</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -11688,15 +11688,15 @@
     <rPh sb="178" eb="179">
       <t>み</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>동일본 지도 작성도 명을 받게 된다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>집세는 한 달에 6만 엔이니까, 1년에 72만 엔이나 지불하는 셈이 된다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>東日本の地図作成も命じられることとなる</t>
@@ -11709,7 +11709,7 @@
     <rPh sb="9" eb="10">
       <t>めい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>家賃は1か月6万円だから、1年で72万円も支払うことになる。</t>
@@ -11731,7 +11731,7 @@
     <rPh sb="21" eb="23">
       <t>しはら</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -11816,7 +11816,7 @@
     <rPh sb="141" eb="142">
       <t>あ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -11912,11 +11912,11 @@
     <rPh sb="141" eb="142">
       <t>あ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>책이나 인터넷 자료를 베낀 것만으로는 리포트를 쓴 것이 되지는 않는다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>本やインターネットの資料を写しただけではレポートを書いたことにはならない。</t>
@@ -11932,27 +11932,27 @@
     <rPh sb="25" eb="26">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>못 들은 걸로 해주지 않을래?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>상사로서는 못 본 걸로 하고</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>A : 전철과 버스 중 어느 쪽이 좋아요?
 B : 글쎄요, 버스는 늘 붐비니까 오늘은 전철로 가기로 합시다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>聞かないことにしてくれない？</t>
     <rPh sb="0" eb="1">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>上司としては見なかったことにして</t>
@@ -11962,7 +11962,7 @@
     <rPh sb="6" eb="7">
       <t>み</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>A：電車とバスとどちらがいいですか。
@@ -11979,7 +11979,7 @@
     <rPh sb="46" eb="47">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -12039,7 +12039,7 @@
     <rPh sb="135" eb="137">
       <t>にゅうかい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -12087,11 +12087,11 @@
     <rPh sb="80" eb="82">
       <t>しよう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>리포트는 마지막까지 쓰기는 썼습니다만 아직 부족한 부분이 있습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>レポートは最後まで書いたことは書いたんですが、まだ足りない部分があります。</t>
@@ -12110,7 +12110,7 @@
     <rPh sb="29" eb="31">
       <t>ぶぶん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -12174,19 +12174,19 @@
     <rPh sb="75" eb="76">
       <t>むずか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>친구가 남은 콘서트 티켓을 한 장 주어서 나는 표를 사지 않아도 되었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>우산을 가지고 갔기 때문에 갑자기 비가 와도 젖지 않았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>다행히 친구가 냉장고를 줘서 새 것을 사지 않아도 되었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>友達が、余っていたコンサートのチケットを1枚くれたので、私はチケットを買わずにすんだ。</t>
@@ -12205,7 +12205,7 @@
     <rPh sb="35" eb="36">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>かさを持って行ったので、突然雨に降られてもぬれないですんだ。</t>
@@ -12224,7 +12224,7 @@
     <rPh sb="16" eb="17">
       <t>ふ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>幸い友達が冷蔵庫をくれたので、新しいのを買わなくて済んだ。</t>
@@ -12246,7 +12246,7 @@
     <rPh sb="25" eb="26">
       <t>す</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -12375,35 +12375,35 @@
     <rPh sb="206" eb="207">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>앞으로 보다 큰 성과를 기대할 수 있을 것 같다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>당장에라도 뛰쳐나올 것 같다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 의자, 아주 튼튼해 보이네요.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>100년 이상 사는 것도 있다고 한다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이벤트를 기획하는 자치단체 등이 늘어나고 있다고 합니다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>히로시 군이 아들과 놀아줬다고 해서</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>딸이 미국에 유학하고 있었을 때는 대단히 신세를 졌다고 하던데, 고마웠습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -12443,7 +12443,7 @@
     <rPh sb="129" eb="130">
       <t>おこ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -12552,7 +12552,7 @@
     <rPh sb="122" eb="123">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今後、より大きな成果が期待できそうだ</t>
@@ -12568,7 +12568,7 @@
     <rPh sb="11" eb="13">
       <t>きたい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今にも走り出しそうだ</t>
@@ -12581,7 +12581,7 @@
     <rPh sb="5" eb="6">
       <t>だ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この椅子、とても丈夫そうですね。</t>
@@ -12591,7 +12591,7 @@
     <rPh sb="8" eb="10">
       <t>じょうぶ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>100年以上生きるものもいるそうだ</t>
@@ -12601,7 +12601,7 @@
     <rPh sb="6" eb="7">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>イベントを企画する自治体など、増えているそうです</t>
@@ -12614,7 +12614,7 @@
     <rPh sb="15" eb="16">
       <t>ふ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>息子さんがひろし君に遊んでもらったそうで</t>
@@ -12627,7 +12627,7 @@
     <rPh sb="10" eb="11">
       <t>あそ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>娘がアメリカに留学していた時はたいへんお世話になったそうで、ありがとうございました。</t>
@@ -12643,15 +12643,15 @@
     <rPh sb="20" eb="22">
       <t>せわ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>몇 년 동안 일해도 내 집은 살 수 없을 것 같다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이런 정체로는 약속 시간에 맞출 수 없을 것 같다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>何年働いても自分の家は買えそうもない</t>
@@ -12667,7 +12667,7 @@
     <rPh sb="11" eb="12">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この渋滞では約束の時刻に間に合いそうにもない。</t>
@@ -12680,7 +12680,7 @@
     <rPh sb="9" eb="11">
       <t>じこく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -12740,19 +12740,19 @@
     <rPh sb="116" eb="118">
       <t>たっせい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>좀 조심하는 것이 어떨까요?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그렇게 몸상태가 안 좋으면 무리하지 말고 쉬면 되잖아.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>먼저 숙제를 해치우는 게 어때?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -12795,7 +12795,7 @@
     <rPh sb="164" eb="165">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>少し気をつけてみたらどうでしょうか</t>
@@ -12805,7 +12805,7 @@
     <rPh sb="2" eb="3">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>そんなに体の具合が悪いなら、無理をしないで休んたらいいじゃないか。</t>
@@ -12824,7 +12824,7 @@
     <rPh sb="21" eb="22">
       <t>やす</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>まず宿題を片付けてしまったらどうか？</t>
@@ -12834,31 +12834,31 @@
     <rPh sb="5" eb="7">
       <t>かたづ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>지금까지 뭔가에 열중한 적이 있었던가?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>우리가 살고 있는 지구는 도대체 어떻게 해서 생겨난 것일까요?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>하와이까지 비행기로 시간이 얼마나 걸릴까?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>단 4종류로 나뉘어진다고는 말할 수 없는 것이 아닐까요?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>맥주를 마셔버린 것은 누구일까?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>와타나베 선수는 다음 시즌에 홈런왕이 될 것인가?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -12904,7 +12904,7 @@
     <rPh sb="81" eb="83">
       <t>むしば</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>これまで何かに夢中になったことがあっただろうか</t>
@@ -12914,7 +12914,7 @@
     <rPh sb="7" eb="9">
       <t>むちゅう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>私たちが住んでいる地球は、いったいどうやってできたのでしょうか</t>
@@ -12927,7 +12927,7 @@
     <rPh sb="9" eb="11">
       <t>ちきゅう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ハワイまで飛行機でどれぐらい時間がかかるのだろうか</t>
@@ -12937,7 +12937,7 @@
     <rPh sb="14" eb="16">
       <t>じかん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>たった4種類に分けられるとは言えないのではないでしょうか</t>
@@ -12950,7 +12950,7 @@
     <rPh sb="14" eb="15">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ビールを飲んでしまったのは誰だろうか。</t>
@@ -12960,7 +12960,7 @@
     <rPh sb="13" eb="14">
       <t>だれ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>渡辺選手は来シーズン、ホームラン王になるだろうか。</t>
@@ -12973,19 +12973,19 @@
     <rPh sb="16" eb="17">
       <t>おう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>완벽하게 이해했다고 생각하더라도</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>여행한 셈치고 돈은 저금하기로 했다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>하지만 자기는 아직도 젊은 줄 알고 있어.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>完璧に理解したつもりでも</t>
@@ -12995,7 +12995,7 @@
     <rPh sb="3" eb="5">
       <t>りかい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>旅行したつもりで、お金は貯金することにした。</t>
@@ -13008,7 +13008,7 @@
     <rPh sb="12" eb="14">
       <t>ちょきん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>でも、自分じゃまだまだ若いつもりでいるよ。</t>
@@ -13018,7 +13018,7 @@
     <rPh sb="11" eb="12">
       <t>わか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -13069,11 +13069,11 @@
     <rPh sb="110" eb="111">
       <t>ただ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>틀릴 것을 겁내서는 일본어가 늘지 않습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>間違いを恐れていては、日本語が上手になりません。</t>
@@ -13089,7 +13089,7 @@
     <rPh sb="15" eb="17">
       <t>じょうず</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -13136,39 +13136,39 @@
     <rPh sb="107" eb="108">
       <t>す</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이벤트를 기획하는 자치단체 등도 늘어나고 있다고 합니다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>3년 전에 한 번 오른 적이 있기 때문에</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>사고가 난 것은 길이 크게 오른쪽으로 굽어 있는 곳이었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>홋카이도에는 몇 번이나 갔으니까 다음에는 오키나와에 가고 싶어.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>레시피에 적혀 있는 대로</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>책에 적혀 있는 대로</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>딸 방을 청소하려고 했더니 이미 정리되어 있었다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>우유는 매일 꼭 마시고 있습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -13206,7 +13206,7 @@
     <rPh sb="59" eb="61">
       <t>ようい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>イベントを企画する自治体なども増えているそうです</t>
@@ -13219,7 +13219,7 @@
     <rPh sb="15" eb="16">
       <t>ふ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>3年前に一度登っているから</t>
@@ -13232,7 +13232,7 @@
     <rPh sb="6" eb="7">
       <t>のぼ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -13318,7 +13318,7 @@
     <rPh sb="157" eb="158">
       <t>お</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -13404,7 +13404,7 @@
     <rPh sb="157" eb="158">
       <t>お</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -13501,7 +13501,7 @@
     <rPh sb="157" eb="158">
       <t>お</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -13598,7 +13598,7 @@
     <rPh sb="157" eb="158">
       <t>お</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -13695,7 +13695,7 @@
     <rPh sb="157" eb="158">
       <t>お</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>事故があったのは道が大きく右に曲がっているところだった。</t>
@@ -13714,7 +13714,7 @@
     <rPh sb="15" eb="16">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>北海道には何回も行っているから次は沖縄に行きたい。</t>
@@ -13736,7 +13736,7 @@
     <rPh sb="20" eb="21">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>牛乳は毎日必ず飲んでいます。</t>
@@ -13749,14 +13749,14 @@
     <rPh sb="7" eb="8">
       <t>の</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>レシピに書いてあるとおりに</t>
     <rPh sb="4" eb="5">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>本に書いてあるとおりに</t>
@@ -13766,7 +13766,7 @@
     <rPh sb="2" eb="3">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>娘の部屋を掃除しようとしたら、もうかたづけてあった。</t>
@@ -13779,7 +13779,7 @@
     <rPh sb="5" eb="7">
       <t>そうじ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ておく (~해 두다) [준비, 상태 유지]
@@ -13793,7 +13793,7 @@
     <rPh sb="68" eb="69">
       <t>まど</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -13841,7 +13841,7 @@
     <rPh sb="68" eb="69">
       <t>つく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -13900,54 +13900,54 @@
     <rPh sb="64" eb="65">
       <t>たい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>알 수 있게 해 두면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>내일 준비를 해 둬</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>문제를 풀어보면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이런 과학 이야기를 해 보는 것도</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>새로 생긴 레스토랑에 가 봤어? 맛있어.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>정원의 꽃이 시들어버리지 않을까 하고</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>쓰러지지 않도록 해</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그만 텔레비전을 계속 보고 말아서</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>버려 버릴까 생각했지만</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>가족처럼 생각하고 있던 개가 죽고 말았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>分かるようにしておくと</t>
     <rPh sb="0" eb="1">
       <t>わ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>明日の準備をしておきなさいよ</t>
@@ -13957,7 +13957,7 @@
     <rPh sb="3" eb="5">
       <t>じゅんび</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>A：ワインを何本ぐらい買っておきましょうか。
@@ -13974,7 +13974,7 @@
     <rPh sb="37" eb="38">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>問題を解いてみると</t>
@@ -13984,23 +13984,23 @@
     <rPh sb="3" eb="4">
       <t>と</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>スケジュールを確認してみないと</t>
     <rPh sb="7" eb="9">
       <t>かくにん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>A : 와인을 몇 병 정도 사둘까요?
 B : 글쎄요, 세 병 정도 사 두면 되지 않을까?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>스케줄을 확인해 보지 않으면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>このような科学の話をしてみるのも</t>
@@ -14010,7 +14010,7 @@
     <rPh sb="8" eb="9">
       <t>はなし</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>新しくできたレストランに行ってみた？おいしいよ。</t>
@@ -14020,7 +14020,7 @@
     <rPh sb="12" eb="13">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>庭の花が枯れてしまわないか</t>
@@ -14033,21 +14033,21 @@
     <rPh sb="4" eb="5">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>倒れてしまわないようにね</t>
     <rPh sb="0" eb="1">
       <t>たお</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ついテレビを見続けてしまい</t>
     <rPh sb="6" eb="8">
       <t>みつづ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>捨ててしまうかと思ったが</t>
@@ -14057,7 +14057,7 @@
     <rPh sb="8" eb="9">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>家族のように思っていた犬が死んでしまった。</t>
@@ -14073,11 +14073,11 @@
     <rPh sb="13" eb="14">
       <t>し</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>오늘 회합에는 어떤 수단을 써서라도 시간대로 도착해야 한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今日の会合には、どんな手段を使ってでも時間通りに到着しなければならない。</t>
@@ -14099,27 +14099,27 @@
     <rPh sb="24" eb="26">
       <t>とうちゃく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>한 번 사내에서 검토한 다음이 아니면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>철학 I 의 학점을 취득한 다음이 아니면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그는 어딘가 순진하지 않은 데가 있다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>아르바이트가 있어서 아무래도 그 날이 아니면 올 수 없어.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>번거롭지 않으시다면 꼭 부탁드리겠습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>一度社内で検討してからでないと</t>
@@ -14129,7 +14129,7 @@
     <rPh sb="5" eb="7">
       <t>けんとう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>哲学Ⅰの単位を取得してからでないと</t>
@@ -14142,7 +14142,7 @@
     <rPh sb="7" eb="9">
       <t>しゅとく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼はどこか素直でないところがある。</t>
@@ -14152,7 +14152,7 @@
     <rPh sb="5" eb="7">
       <t>すなお</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>バイトがあって、どうしてもその日でないと来られない。</t>
@@ -14162,7 +14162,7 @@
     <rPh sb="20" eb="21">
       <t>こ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ご面倒でなければ、ぜひお願いします。</t>
@@ -14172,7 +14172,7 @@
     <rPh sb="12" eb="13">
       <t>ねが</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -14224,7 +14224,7 @@
     <rPh sb="104" eb="105">
       <t>で</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -14332,15 +14332,15 @@
     <rPh sb="89" eb="90">
       <t>ゆた</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>부모가 다른 사람을 늘 원망하기만 하면 자식도 다른 사람을 원망하게 된다고 한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>취직이 정해졌다고 해서 기뻐하고만 있을 수는 없습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>親が他人をいつもうらんでばかりいると子ども人をうらむようになるという。</t>
@@ -14356,7 +14356,7 @@
     <rPh sb="21" eb="22">
       <t>ひと</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>就職が決まったからといって、喜んでばかりはいられません。</t>
@@ -14369,7 +14369,7 @@
     <rPh sb="14" eb="15">
       <t>よろこ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -14426,7 +14426,7 @@
     <rPh sb="69" eb="70">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～てばかりはいられない (~하고만 있을 수는 없다)
@@ -14444,19 +14444,19 @@
     <rPh sb="111" eb="112">
       <t>ま</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>자기 나라에 대해 질문을 받고서야 비로소</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>정치에 대한 신뢰가 있어야 비로소</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>아버지가 돌아가시고 나서야 비로소 그 고마움을 알았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>自分の国のことを聞かれてはじめて</t>
@@ -14469,7 +14469,7 @@
     <rPh sb="8" eb="9">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>政治に対する信頼があって初めて</t>
@@ -14485,7 +14485,7 @@
     <rPh sb="12" eb="13">
       <t>はじ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>父が亡くなってはじめて、そのありがたさがわかった。</t>
@@ -14495,11 +14495,11 @@
     <rPh sb="2" eb="3">
       <t>な</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>자신의 이익을 위해서 법률을 바꾸는 일이 있어서는 안 된다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -14617,7 +14617,7 @@
     <rPh sb="164" eb="165">
       <t>く</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>自分の利益のために法律を変えることがあってはならない。</t>
@@ -14633,15 +14633,15 @@
     <rPh sb="12" eb="13">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>완전히 잃어버리는 일은 없다고 해도</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일본의 6월은 1년 중 해가 지는 게 가장 늦어서 7시가 되어도 어두워지지 않습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -14705,7 +14705,7 @@
     <rPh sb="102" eb="103">
       <t>ゆる</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -14749,7 +14749,7 @@
     <rPh sb="63" eb="65">
       <t>しっぱい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>完全に失われることはないにしても</t>
@@ -14759,7 +14759,7 @@
     <rPh sb="3" eb="4">
       <t>うしな</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>日本の6月は1年でいちばん日が暮れるのが遅くて、7時になっても暗くなりません。</t>
@@ -14787,11 +14787,11 @@
     <rPh sb="31" eb="32">
       <t>くら</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>전문적인 사항에 대해서는 하야시 선생님을 빼고 논의해도 소용없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>専門的なことについては、林先生をぬきにして議論しても仕方がない。</t>
@@ -14807,7 +14807,7 @@
     <rPh sb="26" eb="28">
       <t>しかた</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ても仕方がない (~해도 어쩔 수 없다, ~해도 소용없다)
@@ -14840,31 +14840,31 @@
     <rPh sb="125" eb="127">
       <t>しかた</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>맛있다고 해 줘서 다행이다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>나도 일본어 교육에 무척 관심이 있어서 이번 이야기를 들을 수 있어서 좋았다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그 영화, 보러 가지 않길 잘했어. 하나도 재미없었대.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>A : 이렇게 맛있는 스테이크는 먹어 본 적이 없어요.
 B : 고마워. 입맛에 맞아서 다행이다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>おいしいと言ってもらえてよかった</t>
     <rPh sb="5" eb="6">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>私も日本語教育にとても関心があるので、今回の話が聞けてよかった。</t>
@@ -14886,7 +14886,7 @@
     <rPh sb="24" eb="25">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>あの映画、見て行かなくてよかったよ。ぜんぜんおもしろくなかったんだって。</t>
@@ -14899,7 +14899,7 @@
     <rPh sb="7" eb="8">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>A：こんなにおいしいステーキ、食べたことがありません。
@@ -14913,7 +14913,7 @@
     <rPh sb="39" eb="40">
       <t>め</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～てよかった (~해서 다행이다, ~해서 좋았다) / ～なくてよかった (~하지 않아서 다행이다, ~하지 않길 잘했다)
@@ -14937,67 +14937,67 @@
     <rPh sb="140" eb="141">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>스케줄을 확인해보지 않으면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>내용물을 알 수 있도록 해 두면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그곳을 오른쪽으로 돌면 우체국이 있습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>싫으면 거절하면 될 뿐이잖아?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>물론 다나카 씨가 좋다면 말이지만</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>할 마음이 있으면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>비가 오면 가지 않겠습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>한 번 하겠다고 결정했으면 끝까지 하는 것이 중요하다고 생각한다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>적어도 3년은 계속 할 수 없다면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>차라면 10분이면 갈 수 있지만 걸으면 1시간 걸린다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>커피숍에 들어갔더니 좋은 음악이 흐르고 있었습니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그녀에 관해서라면 아무리 사소한 것이라도</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>팜플렛이라면</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>갖고 싶으면 그 포스터 줄게.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그 이야기라면 내게 맡겨.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15042,7 +15042,7 @@
     <rPh sb="90" eb="91">
       <t>ぬ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15068,7 +15068,7 @@
     <rPh sb="50" eb="51">
       <t>がつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15105,7 +15105,7 @@
     <rPh sb="50" eb="51">
       <t>がつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15142,7 +15142,7 @@
     <rPh sb="50" eb="51">
       <t>がつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15179,7 +15179,7 @@
     <rPh sb="50" eb="51">
       <t>がつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15297,21 +15297,21 @@
     <rPh sb="135" eb="136">
       <t>かれ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>スケジュールを確認してみないと</t>
     <rPh sb="7" eb="9">
       <t>かくにん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>中身がわかるようにしておくと</t>
     <rPh sb="0" eb="2">
       <t>なかみ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>そこを右に曲がると郵便局があります。</t>
@@ -15324,7 +15324,7 @@
     <rPh sb="9" eb="12">
       <t>ゆうびんきょく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>嫌なら断ればいいだけでしょう？</t>
@@ -15334,21 +15334,21 @@
     <rPh sb="3" eb="4">
       <t>ことわ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>もちろん田中さんがよければだけど</t>
     <rPh sb="4" eb="6">
       <t>たなか</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>やる気があれば</t>
     <rPh sb="2" eb="3">
       <t>き</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>雨が降れば行きません。</t>
@@ -15361,7 +15361,7 @@
     <rPh sb="5" eb="6">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>一度やると決めったら、最後までやり抜くことが大事だっと思う。</t>
@@ -15383,7 +15383,7 @@
     <rPh sb="27" eb="28">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>少なくとも3年はやり続けられなかったら</t>
@@ -15396,7 +15396,7 @@
     <rPh sb="10" eb="11">
       <t>つづ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>車だったら10分で行けるが、歩いたら1時間かかる。</t>
@@ -15415,7 +15415,7 @@
     <rPh sb="19" eb="21">
       <t>じかん</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15493,7 +15493,7 @@
     <rPh sb="83" eb="84">
       <t>の</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>喫茶店に入ったらいい音楽が流れていました。</t>
@@ -15503,7 +15503,7 @@
     <rPh sb="4" eb="5">
       <t>はい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼女のことならどんなに小さなことでも</t>
@@ -15513,26 +15513,26 @@
     <rPh sb="11" eb="12">
       <t>ちい</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>パンプレットなら</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>欲しいならそのポスターあげるよ。</t>
     <rPh sb="0" eb="1">
       <t>ほ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>その話なら、僕にまかせて。</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>어두워지면 안 되니까 이제 돌아갑시다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>暗くなるといけないので、もう帰りましょう。</t>
@@ -15542,7 +15542,7 @@
     <rPh sb="14" eb="15">
       <t>かえ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15645,22 +15645,22 @@
     <rPh sb="135" eb="136">
       <t>ふ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>된장이나 간장과 같은 조미료</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 인형은 '안녕하세요' '안녕히 가세요'와 같은 간단한 말을 합니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>みそやしょうゆといった調味料</t>
     <rPh sb="11" eb="14">
       <t>ちょうみりょう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この人形は、「こんにちは」「さようなら」といった簡単な言葉を話します。</t>
@@ -15676,7 +15676,7 @@
     <rPh sb="30" eb="31">
       <t>はな</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15725,23 +15725,23 @@
     <rPh sb="108" eb="110">
       <t>はいりょ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>단지 기분 문제가 아닐까라고도 생각합니다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>일본문화의 하나로 소개하려고 한다</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>이 문제, 시험에 나올 것 같아?</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>오늘 저녁은 카레를 먹으려고 합니다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>ただ、気分の問題ではないかと思います。</t>
@@ -15754,7 +15754,7 @@
     <rPh sb="14" eb="15">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>この問題、テストに出ると思う？</t>
@@ -15767,7 +15767,7 @@
     <rPh sb="12" eb="13">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>日本文化の一つとして紹介しようと思う</t>
@@ -15783,7 +15783,7 @@
     <rPh sb="16" eb="17">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>今夜はカレーにしようと思います。</t>
@@ -15793,7 +15793,7 @@
     <rPh sb="11" eb="12">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15841,7 +15841,7 @@
     <rPh sb="75" eb="76">
       <t>おも</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <r>
@@ -15905,15 +15905,15 @@
     <rPh sb="97" eb="99">
       <t>けいかく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>그가 웃고 있는 것을 보면 합격했음이 틀림없다.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>좀처럼 집에 들어오지 않는 것을 보면 남동생은 야근이라도 하고 있는 것이겠지.</t>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>彼が笑っているところをみると、合格したにちがいない。</t>
@@ -15926,7 +15926,7 @@
     <rPh sb="15" eb="17">
       <t>ごうかく</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>なかなか帰ってこないところをみると、弟は残業でもしているのだろう。</t>
@@ -15939,7 +15939,7 @@
     <rPh sb="20" eb="22">
       <t>ざんぎょう</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>～ところをみると (~하는 것을 보면)
@@ -15956,7 +15956,942 @@
     <rPh sb="88" eb="89">
       <t>あつ</t>
     </rPh>
-    <phoneticPr fontId="2" type="Hiragana"/>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>샐러리맨에서 농부가 되다니</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그 이후로 그 사람을 두 번 다시 만날 수 없을 거라고는 상상도 못했다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～とは (~(이)란) [정의, 명제]
+&lt;명사 + とは (+ ～(の)ことだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ということだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～といういみだ)&gt;
+例：親切とは(친절이라는 것은)
+≒ ～というのは (~(이)란) [덜 딱딱한 표현] / ～って (~(이)란) [회화체]</t>
+    </r>
+    <rPh sb="59" eb="60">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>しんせつ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～とは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> (~라고는, ~하다니, ~일/할 줄이야) [놀람, 감탄, 강조]
+例：こんなに寂しいとは(이렇게 쓸쓸하리라고는)、あの人が犯人だったとは(저 사람이 범인일 줄이야)</t>
+    </r>
+    <rPh sb="40" eb="41">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>さび</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>はんにん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>하수라는 것은 부엌 등에서 사용한 더러워진 물을 말한다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>「下水」とは、台所などで使った汚れた水のことである。</t>
+    <rPh sb="1" eb="3">
+      <t>げすい</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>だいどころ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>つか</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>よご</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>みず</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>サラリーマンから農家になるとは</t>
+    <rPh sb="8" eb="10">
+      <t>のうか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>あれ以来あの人を二度と会えないとは、想像もできなかった。</t>
+    <rPh sb="2" eb="4">
+      <t>いらい</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>にど</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>あ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>そうぞう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>실력 있는 팀이 항상 이긴다고는 할 수 없다. 시합은 해보지 않으면 모르는 것이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>부모의 머리가 좋다고 해서 자식도 반드시 머리가 좋다고는 할 수 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>室力のあるチームがいつも勝つとは限らない。試合はやってみなければわからないのだ。</t>
+    <rPh sb="0" eb="2">
+      <t>しつりょく</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>か</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>かぎ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>しあい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>親の頭がいいからといって、子供も必ず頭がいいとは限らない。</t>
+    <rPh sb="0" eb="1">
+      <t>おや</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>あたま</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>こども</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>かなら</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>あたま</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>かぎ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～とは限らない (~하다고는 할 수 없다)
+例：勝つとは限らない(이긴다고는 할 수 없다)、同一の結果が得られるとは限らない(동일한 결과를 얻을 수 있다고는 할 수 없다)、音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>楽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>のセンスがいいとは限らない(음악적 감각이 좋다고는 할 수 없다)</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>かぎ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>か</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>かぎ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>どういつ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>けっか</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>え</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>かぎ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>おんがく</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>かぎ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>비가 내렸는지 길이 젖어 있습니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>雨が降ったとみえて、道がぬれています。</t>
+    <rPh sb="0" eb="1">
+      <t>あめ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ふ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>みち</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>혼자일 때는 누가 오더라도 현관문을 열어서는 안 돼.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>어머니는 아무리 괴로워도 결코 푸념을 하지 않았다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>一人の時は誰が来ようとも玄関の戸を開けてはいけないよ。</t>
+    <rPh sb="0" eb="2">
+      <t>ひとり</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>とき</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>だれ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>く</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>げんかん</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>と</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>あ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>母はどんなに辛くとも、決してぐちを言わなかった。</t>
+    <rPh sb="0" eb="1">
+      <t>はは</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>つら</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>けっ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～とみえて (~인 듯이, ~했는지) [어떤 사실을 근거로 추측]
+&lt;동사 과거형(～た) + とみえて&gt;
+例：雨が降ったとみえて(비가 내렸는지)、何かいいことがあったとみえて(뭔가 좋은 일이 있었는지)、よほど疲れていたとみえて(어지간히 피곤했는지)、とてもおなかがすいていたとみえて(배가 무척 고팠는지)</t>
+    <rPh sb="56" eb="57">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>あめ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ふ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>なに</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>つか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～とも (~하더라도, ~하려 해도)
+例：何をしようとも(무엇을 하더라도)、誰が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ようとも(누가 오더라도)、つらくとも(괴롭더라도)、いくら高くとも(아무리 비싸더라도)
+≒ ～ても (~해도)</t>
+    </r>
+    <rPh sb="20" eb="21">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>なに</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>だれ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>く</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>たか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>야채 카레가 몇 개 있는 것 중에서</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>내가 들은 것 중에서는 지금까지 최고의 연주였다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>폭풍 속을 무릅쓰고 나아갔다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>あらしの中を突き進んでいった。</t>
+    <rPh sb="4" eb="5">
+      <t>なか</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>つ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>すす</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>野菜のカレーがいくつかある中で</t>
+    <rPh sb="0" eb="2">
+      <t>やさい</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>なか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>私が聞いた中では、今までで最高の演奏だった。</t>
+    <rPh sb="0" eb="1">
+      <t>わたし</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>き</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>なか</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>いま</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>さいこう</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>えんそう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～中を (~속을) [도중]
+例：雨の中を(빗속을)、人ごみの中を(인파 속을)</t>
+    <rPh sb="1" eb="2">
+      <t>なか</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>あめ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>なか</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>なか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>中で(は) (~(한 것) 중에서(는))
+例：クラスの中で(학급 중에서)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>担当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>したものの中では(담당한 것 중에서는)</t>
+    </r>
+    <rPh sb="23" eb="24">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>なか</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>たんとう</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>なか</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>아직 조금 문제가 있는 느낌이 들지 않는 것도 아니지만</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그 사람의 성격을 생각하면 이해할 수 없는 것은 아니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>동창회에 가고 싶지 않은 것은 아니지만 회비를 내는 것은 싫다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>まだ少し問題がある気がしないでもないが</t>
+    <rPh sb="2" eb="3">
+      <t>すこ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>もんだい</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>き</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>その人の性格を考えると、理解できなくはない。</t>
+    <rPh sb="2" eb="3">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>せいかく</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>かんが</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>りかい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>銅像会に行きたくないではないが、会費を払うのは嫌だ。</t>
+    <rPh sb="0" eb="3">
+      <t>どうぞうかい</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>い</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>かいひ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>はら</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>いや</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～なくはない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ないではない (~하지 않는 것은 아니다, ~하지 못할 것은 없다)
+例：わからなくはない(모르는 것은 아니다)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>がしなくもない(생각이 들지 않는 것도 아니다)、ぜひと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>頼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>まれれば引き受けないではない(꼭이요라고 부탁하면 받아들이지 못할 것은 없다)、あなたの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>持ちがわからないでもないが(당신의 기분을 모르는 것도 아니지만)
+≒ ～なくもない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ないでもない</t>
+    </r>
+    <rPh sb="45" eb="46">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>き</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>たの</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ひ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>う</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>きも</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>교육을 보급시키기 위해서는 모든 아이에게 배울 권리가 주어져야 한다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>아직 10시지만 아침 5시에 일어나야 하니까 슬슬 자야겠다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>教育を普及させるためには、すべての子どもに学ぶ権利が与えられなければならない。</t>
+    <rPh sb="0" eb="2">
+      <t>きょういく</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ふきゅう</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>こ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>まな</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>けんり</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>あた</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>まだ10時だけど、朝5時に起きなくてはならないから、そろそろ寝よう。</t>
+    <rPh sb="4" eb="5">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>あさ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>お</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ね</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～なければならない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～なくてはならない (~하지 않으면 안 된다, ~해야 한다)
+例：マスタ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>しなければならない、料金を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>払</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>わなくてはならない
+≒ ～なくてはだめだ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ねばならない (~하지 않으면 안 된다, ~해야 한다)</t>
+    </r>
+    <rPh sb="43" eb="44">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>りょうきん</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>はら</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>스즈키 씨는 노구치 선생님의 먼 친척에 해당합니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>鈴木さんは野口先生の遠い親戚にあたります。</t>
+    <rPh sb="0" eb="2">
+      <t>すずき</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>のぐちせんせい</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>とお</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>しんせき</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">～にあたる (~에 해당한다)
+&lt;명사 + にあたる&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="3"/>
+      </rPr>
+      <t>例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>：遠い親戚にあたる(먼 친척에 해당한다)、2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="3"/>
+      </rPr>
+      <t>倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>にあたる(2배에 해당한다)、ひとつ20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="3"/>
+      </rPr>
+      <t>円</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>にあたる(한 개 20엔에 해당한다)</t>
+    </r>
+    <rPh sb="28" eb="29">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>とお</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>しんせき</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ばい</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>えん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
 </sst>
 </file>
@@ -15964,14 +16899,6 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16036,6 +16963,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Gulim"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -16063,19 +16996,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16412,10 +17345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE3EC4-AD3B-4030-96E8-1E76FF9B4BDB}">
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B355" sqref="B355"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -20309,9 +21242,196 @@
         <v>887</v>
       </c>
     </row>
+    <row r="354" spans="1:3" ht="63">
+      <c r="A354" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="31.5">
+      <c r="A355" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="31.5">
+      <c r="A356" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="47.25">
+      <c r="A357" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="47.25">
+      <c r="A358" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="63">
+      <c r="A359" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="63">
+      <c r="A360" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="63">
+      <c r="A361" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="31.5">
+      <c r="A362" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="31.5">
+      <c r="A363" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="31.5">
+      <c r="A364" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="78.75">
+      <c r="A365" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="78.75">
+      <c r="A366" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="78.75">
+      <c r="A367" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="47.25">
+      <c r="A368" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="47.25">
+      <c r="A369" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="63">
+      <c r="A370" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>931</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <phoneticPr fontId="2" type="Hiragana"/>
+  <phoneticPr fontId="1" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/anki_deque/darakwon_n2_grammar.xlsx
+++ b/anki_deque/darakwon_n2_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nihongo\anki_deque\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CABDE7-9B8D-4E35-97E9-051EEE25B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6A454E-7B03-4752-A059-691ADB3D97DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A380882-C05E-4D89-B8F9-54DD6F3A4B12}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="1028">
   <si>
     <t>あれこれ質問にこたえさせられたあげく</t>
     <rPh sb="4" eb="6">
@@ -16814,68 +16814,49 @@
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">～にあたる (~에 해당한다)
+    <t>감기에 걸렸을 때는 따뜻하게 하고 일찍 자는 것이 제일이다</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>수상한 메일은 무시하는 것이 제일이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>風邪の時は暖かくして早くなるに限る</t>
+    <rPh sb="0" eb="2">
+      <t>かぜ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>とき</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>あたた</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>はや</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>かぎ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>怪しいメールは無視するに限ります。</t>
+    <rPh sb="0" eb="1">
+      <t>あや</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>むし</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>かぎ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～にあたる (~에 해당한다)
 &lt;명사 + にあたる&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Gulim"/>
-        <family val="3"/>
-      </rPr>
-      <t>例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft GothicNeo Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>：遠い親戚にあたる(먼 친척에 해당한다)、2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Gulim"/>
-        <family val="3"/>
-      </rPr>
-      <t>倍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft GothicNeo Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>にあたる(2배에 해당한다)、ひとつ20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Gulim"/>
-        <family val="3"/>
-      </rPr>
-      <t>円</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft GothicNeo Light"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>にあたる(한 개 20엔에 해당한다)</t>
-    </r>
+例：遠い親戚にあたる(먼 친척에 해당한다)、2倍にあたる(2배에 해당한다)、ひとつ20円にあたる(한 개 20엔에 해당한다)</t>
     <rPh sb="28" eb="29">
       <t>れい</t>
     </rPh>
@@ -16890,6 +16871,1886 @@
     </rPh>
     <rPh sb="73" eb="74">
       <t>えん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～に限る (~하는 것이 제일이다, ~이/가 최고다)
+&lt;명사 / 동사 사전형 + にかぎる&gt;
+例：疲れたときは、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>寝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>るに限る(피곤할 때는 자는 게 상책이다)、やっぱり夏は冷たいビ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ルに限る(역시 여름에는 차가운 맥주가 최고다)、外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>語を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>覚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>えるには、その</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>の友人を作るに限る(외국어를 익히려면 그 나라의 친구를 만드는 것이 제일이다)</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>かぎ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>つか</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ね</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>かぎ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>なつ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>つめ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>かぎ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>がいこくご</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>おぼ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>くに</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ゆうじん</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>つく</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>かぎ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>인생의 짧음을 꽃에 비유하면 벚꽃이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>人生の短さを花にたとえると、さくらの花だ。</t>
+    <rPh sb="0" eb="2">
+      <t>じんせい</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>みじか</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>はな</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>はな</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 부근의 아파트를 빌리려면</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 계획을 실현하려면 정부의 원조가 필요합니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>このあたりでアパートを借りるには</t>
+    <rPh sb="11" eb="12">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この計画を実現するには政府の援助が必要です。</t>
+    <rPh sb="2" eb="4">
+      <t>けいかく</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>じつげん</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>せいふ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>えんじょ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ひつよう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>내일 파티에 가기는 하는데, 몇 시에 갈 수 있을지 잘 모르겠습니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>明日のパーティーへ行くには行くが、何時に行けるかちょっとわかりません。</t>
+    <rPh sb="0" eb="2">
+      <t>あした</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>い</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>い</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>なんじ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>강한 바람을 맞으며 걷는 것은 힘들다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>다음 올림픽을 목표로 준비는 이미 척척 진행되고 있다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>強い風に向かって歩くのはきつい。</t>
+    <rPh sb="0" eb="1">
+      <t>つよ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>かぜ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>む</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ある</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>次のオリンピックに向けて準備はすでに着々と進んでいる。</t>
+    <rPh sb="0" eb="1">
+      <t>つぎ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>む</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>じゅんび</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ちゃくちゃくとすす</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～にたとえると (~에 비유하면)
+&lt;명사 + にたとえると&gt;
+例：人にたとえると(사람에 비유하면)、病</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>気</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>にたとえると(질병에 비유하면)</t>
+    </r>
+    <rPh sb="32" eb="33">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ひと</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>びょうき</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～には (~하려면)
+&lt;동사 사전형 + には&gt;
+例：東京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>駅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>に行くには(도쿄역에 가려면)、この計</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>実</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>現するには(이 계획을 실현하려면)、これを修理するには(이것을 수리하려면)</t>
+    </r>
+    <rPh sb="25" eb="26">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>とうきょうえき</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>い</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>けいかく</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>じつげん</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>しゅうり</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～には～が (~하기는 ~지만)
+&lt;동사 사전형 + には + 동사 사전/과거형 + が&gt;
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>説</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>明するにはしたが(설명하기는 했지만)、心配の点もあるにはあるが(걱정되는 점도 있긴 하지만)、見に行くには行ったが(보러 가기는 했지만)
+≒ ～ことは～が (~하기는 ~지만)</t>
+    </r>
+    <rPh sb="47" eb="48">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>せつめい</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>しんぱい</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>てん</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>み</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>い</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～に向かって (~을 향해, ~에게) / ～に向け(て) (~을 향해(서), ~을 목표로) [목표, 목적지를 위해 어떤 일을 하고 있음]
+&lt;명사 + に向かって / ～に向け(て)&gt;
+例：親に向かって(부모에게)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>い風に向かって(강한 바람을 맞으며)、アメリカに向けて(미국을 향해)、次のオリンピックに向けて(다음 올림픽을 목표로)</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>む</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>む</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>おや</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>む</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>つよ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>かぜ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>む</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>む</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>つぎ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>む</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>오후 4시 이전에 주문해주시면 수량이나 합계 금액에 관계없이</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>우리 회사는 신입 사원을 학력에 관계없이 채용하고 있습니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>午後4時以前にご注文いただければ数量や合計金額によらず</t>
+    <rPh sb="0" eb="2">
+      <t>ごご</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>じいぜん</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ちゅうもん</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>すうりょう</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ごうけいきんがく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>わが社は新入社員を学歴によらず採用しています。</t>
+    <rPh sb="2" eb="3">
+      <t>しゃ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>しんにゅうしゃいん</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>がくれき</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>さいよう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～によらず (~에 관계없이)
+例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学歴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>によらず(학력에 관계없이)、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>量によらず(수량에 관계없이)、何事によらず(무슨 일이든)</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>がくれき</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>すうりょう</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>なにごと</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>3주나 물을 주지 않았기 때문에 꽃이 시들어 버리는 것도 당연하다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>친구에게 배신당했으니, 그가 침몰한 것도 당연하다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>3週間も水をやらなかったのだから、花が枯れてしまうのも当然だ。</t>
+    <rPh sb="1" eb="3">
+      <t>しゅうかん</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>みず</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>はな</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>か</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>とうぜん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>信用に裏切られたんだから、彼が落ち込むのももっともだ。</t>
+    <rPh sb="0" eb="2">
+      <t>しんよう</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>うらぎ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>かれ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>お</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>こ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>일기예보를 확인했으면 좋았을 걸.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>사기 전에 잘 알아볼 걸 그랬다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>天気予報を確認すればよかったのに。</t>
+    <rPh sb="0" eb="4">
+      <t>てんきよほう</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>かくにん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>買う前にちゃんと調べておけばよかった。</t>
+    <rPh sb="0" eb="1">
+      <t>か</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>まえ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>しら</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～のも</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>然だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～のも最もだ (~하는 것도 당연하다)
+例：成果がシビアに問われるのも</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>然だ(성과를 엄격하게 문제 삼는 것도 당연하다)、非難が起きるのも</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>然だ(비난이 이는 것도 당연하다)、意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>気込</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>むのも最もだ(분발하는 것도 당연하다)、驚くのも最もだ(놀라는 것도 당연하다)</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>とうぜん</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>もっと</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>せいか</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>と</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>とうぜん</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ひなん</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>お</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>とうぜん</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>いきご</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>もっと</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>おどろ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>もっと</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ばよかった (~하면 좋았겠다) [아쉬움]
+&lt;동사 가정형 + よかった&gt;
+例：ジャケットを持ってくればよかった(재킷을 들고 올 걸 그랬다)、もっと早く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ればよかった(좀 더 빨리 왔으면 좋았겠다)</t>
+    </r>
+    <rPh sb="40" eb="41">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>も</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>태풍으로 전철이 불통이 됐었는데 10시간 만에 운행을 시작했다고 한다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>台風で電車が不通になっていたが、10時間ぶりに運転を始めたそうだ。</t>
+    <rPh sb="0" eb="2">
+      <t>たいふう</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>でんしゃ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ふつう</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>うんてん</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>はじ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>벌써 9시를 지니고 있지만 이 일을 마칠 때까지는 돌아갈 수 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 지경까지 병이 심해지면 의사에게 가야 해.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>もう9時を過ぎているが、この仕事を終える時までは、帰るわけにはいかない。</t>
+    <rPh sb="3" eb="4">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>す</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>しごと</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>お</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>とき</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>かえ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ここまで病気がひどくなったら、医者に行かなければだめだよ。</t>
+    <rPh sb="4" eb="6">
+      <t>びょうき</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>いしゃ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ぶりに (~만에) [시간 경과]
+&lt;명사 + ぶりに&gt;
+例：10時間ぶりに(10시간 만에)、三日ぶりに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>校へ行った(사흘 만에 학교에 갔다)、今日は久しぶりにゆっくり過ごした(오늘은 오랜만에 여유롭게 지냈다)</t>
+    </r>
+    <rPh sb="30" eb="31">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>みっか</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>がっこう</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>い</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>きょう</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ひさ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>す</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>～まで (~까지, ~할 때까지)
+例：もうこれまでだ(이젠 끝장이다)、書類にサインをもらうまで(서류에 사인을 받을 때까지)</t>
+    <rPh sb="18" eb="19">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>しょるい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이번 조사로 사고 원인이 명백해지리라 여거진다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>今回の調査で事故の原因が明らかになるものと思われる。</t>
+    <rPh sb="0" eb="2">
+      <t>こんかい</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ちょうさ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>じこ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>げんいん</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>あき</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그 이야기는 반드시 실제 체험을 그대로 전했다고는 여겨지지 않는다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>その話は必ずしも実際の体験をそのまま伝えたものとは思えなかった</t>
+    <rPh sb="2" eb="3">
+      <t>はなし</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>かなら</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>じっさい</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>たいけん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ものと思われる (~라고 여겨지다, ~라고 볼 수 있다) / ～ものとは思えない (~라고는 여겨지지 않는다, ~라고는 볼 수 없다) [문어체]
+&lt;思える</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>思われる (여겨지다, 생각되다) 의 문법화&gt;
+例：この窓から入ったものと思われます(이 창문으로 들어왔으리라 여겨집니다)、そのまま</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>伝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>えたものとは思えなかった(그대로 전했다고는 여겨지지 않았다)</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>おも</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>おも</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>おも</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>おも</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>まど</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>はい</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>おも</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>つた</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>울음을 참으려고 하면 할수록</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>버려 버릴까 하고 생각했지만</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>한 예를 들어보자</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그렇게 무리하게 잊으려고 하지 않아도 된다</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>내가 사러 갈까?</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>투수가 던지려고 할 때 주자는 3루로 달렸다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>泣くのを我慢しようとすればするほど</t>
+    <rPh sb="0" eb="1">
+      <t>な</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>がまん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>捨ててしまおうと思ったが</t>
+    <rPh sb="0" eb="1">
+      <t>す</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>おも</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>一例を挙げよう</t>
+    <rPh sb="0" eb="2">
+      <t>いちれい</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>あ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>そんなに無理に忘れようとしなくてもいい</t>
+    <rPh sb="4" eb="6">
+      <t>むり</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>わす</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>私が買い物に行こうか。</t>
+    <rPh sb="0" eb="1">
+      <t>わたし</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ピッチャーが投げようとした時、ランナーは三塁へ走った。</t>
+    <rPh sb="6" eb="7">
+      <t>な</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>とき</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>さんるい</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>はし</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～(よ)う (~해야지, ~하자) / ～(よ)うとする (~하려고 하다)
+&lt;동사 의지형&gt;
+例：早く行こう(빨리 가자)、手紙の返事を書こう(편지 답장을 써야지)、新聞を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>読</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>もうとしたら(신문을 읽으려고 했더니)、玄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>関</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>を入ろうとしたが(현관으로 들어가려고 했지만)、勉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>しようとしているのに(공부하려고 하고 있는데)</t>
+    </r>
+    <rPh sb="48" eb="49">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>はや</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>い</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>てがみ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>へんじ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>か</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>しんぶん</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>よ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>げんかん</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>はい</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>べんきょう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>매일 일기를 계속해서 쓰는 것은 간단한 것 같지만</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그는 침착할 것 같지만 사실은 덜렁이입니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>마감 직전이 되어 주제를 바꿔서는 좋은 논문을 쓸 수 없을 것이다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>물주기는 간단한 것 같지만 심오한 작업입니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>毎日日記を書きつづけることは、簡単なようでいて</t>
+    <rPh sb="0" eb="4">
+      <t>まいにちにっき</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>か</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>かんたん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼は冷静なようで、本当はあわてものなんです。</t>
+    <rPh sb="0" eb="1">
+      <t>かれ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>れいせい</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ほんとう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>締め切り直前になってテーマを変えるようでは、いい論文はかけないだろう。</t>
+    <rPh sb="0" eb="1">
+      <t>し</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>き</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ちょくぜん</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>か</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ろんぶん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>水やりは、簡単なようでいて奥の深い作業なんです。</t>
+    <rPh sb="0" eb="1">
+      <t>みず</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>かんたん</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>おく</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ふか</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>さぎょう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>쓰러지지 않도록 해</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>부디 내일은 비가 오지 않기를</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>피곤한 얼굴을 보이지 않도록</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>그는 모두에게 잘 들리도록 큰 소리로 말했다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>두 번 다시 같은 잘못을 하지 않도록 조심해라.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>멋진 만남이 있기를.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>倒れてしまわないようにね</t>
+    <rPh sb="0" eb="1">
+      <t>たお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>どうか明日は雨が降りませんように</t>
+    <rPh sb="3" eb="5">
+      <t>あした</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>あめ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ふ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>疲れている顔を見せないように</t>
+    <rPh sb="0" eb="1">
+      <t>つか</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>かお</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>み</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>彼はみんなによく聞こえるように大声で話した。</t>
+    <rPh sb="0" eb="1">
+      <t>かれ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>き</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>おお</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>こえ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>はな</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>二度と同じ誤りをしないように注意しなさい。</t>
+    <rPh sb="0" eb="2">
+      <t>にど</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>おな</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>あやま</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ちゅうい</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>素敵な出会いがありますように。</t>
+    <rPh sb="0" eb="2">
+      <t>すてき</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>であ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ようで(は)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～ようでいて (~할 것 같아서, ~해서(는))
+例：簡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>単</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>なようで難しい(간단할 것 같은데 어렵다)、この程度の練習で文句を言うようでは(이 정도의 연습에 불평을 해서는)、主張をコロコロ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>変</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>えるようでは(주장을 계속 바꿔서는)</t>
+    </r>
+    <rPh sb="34" eb="35">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>かんたん</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>むずか</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ていど</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>れんしゅう</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>もんく</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>い</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>しゅちょう</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ように (~하도록) / ～ないように (~하지 않도록) [목적, 어말에 위치하면 기원, 바람]
+例：みんなに聞こえるように(모두에게 들리도록)、始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>発</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>列車に間に合うように(첫 열차에 늦지 않도록)、家族を悲しませないように(가족을 슬프게 하지 않도록)、新年がよい年でありますように。(새해가 좋은 해가 되기를.)、どうか合格できますよう。(부디 합격할 수 있기를.)</t>
+    </r>
+    <rPh sb="53" eb="54">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>き</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>しはつ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>れっしゃ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ま</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>あ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>かぞく</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>かな</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>しんねん</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>とし</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ごうかく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>알 수 있게 해 두면</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>나이가 들수록 짧게 느껴지게 되는 것은</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>빨리 퇴원할 수 있게 되었으면 좋겠습니다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이젠 만나지 않도록 해야지.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>이 일은 편하고 보수도 좋고, 통근 시간이 긴 것을 빼고는 불만 없다.</t>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>分かるようにしておくと</t>
+    <rPh sb="0" eb="1">
+      <t>わ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>年をとるにつれて短く感じるようになるのは</t>
+    <rPh sb="0" eb="1">
+      <t>とし</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>みじか</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>かん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>早く退院できるようになりたいです。</t>
+    <rPh sb="0" eb="1">
+      <t>はや</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>たいいん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>もう会わないようにしよう。</t>
+    <rPh sb="2" eb="3">
+      <t>あ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>この仕事は楽だし、給料もいいし、通勤時間が長いことをのぞいては文句ない。</t>
+    <rPh sb="2" eb="4">
+      <t>しごと</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>らく</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>きゅうりょう</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>つうきん</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>じかん</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>なが</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>もんく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～ようになる (~하게 되다) [상태 변화] / ～ようにする (~하도록 하다) [변화를 위한 행동]
+例：新聞も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>読</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>めるようになりました(신문도 읽을 수 있게 되었습니다)、オ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>トバイに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>乗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>れるようになった(오토바이를 탈 수 있게 되었다)、誰でも入れるようにしました(누구라도 들어올 수 있도록 했습니다)、約束に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>遅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>れないようにしなさい(약속에 늦지 않도록 해라)</t>
+    </r>
+    <rPh sb="55" eb="56">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>しんぶん</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>よ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>の</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>だれ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>はい</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>やくそく</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>おく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>～をのぞいて(は) (~을 제외하고(는), ~을 빼고(는)) [除く의 문법화]
+&lt;명사 + をのぞいて(は)&gt;
+例：日曜日をのぞいて(일요일을 제외하고)、宿泊料をのぞいて(숙박료를 제외하고)、一部の地域をのぞいては(일부 지역을 제외하고는)
+≒ ～をのぞけば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft GothicNeo Light"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>～のほかは</t>
+    </r>
+    <rPh sb="34" eb="35">
+      <t>のぞ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>れい</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>にちようび</t>
+    </rPh>
+    <rPh sb="81" eb="84">
+      <t>しゅくはくりょう</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>いちぶ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ちいき</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
   </si>
@@ -16898,7 +18759,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16962,12 +18823,6 @@
       <name val="Noto Sans JP Light"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Gulim"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -17345,10 +19200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AE3EC4-AD3B-4030-96E8-1E76FF9B4BDB}">
-  <dimension ref="A1:D370"/>
+  <dimension ref="A1:D410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C378" sqref="C378"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -21426,7 +23281,447 @@
         <v>929</v>
       </c>
       <c r="C370" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="78.75">
+      <c r="A371" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B371" s="3" t="s">
         <v>931</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="78.75">
+      <c r="A372" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="47.25">
+      <c r="A373" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="63">
+      <c r="A374" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="63">
+      <c r="A375" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="78.75">
+      <c r="A376" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="63">
+      <c r="A377" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="63">
+      <c r="A378" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="31.5">
+      <c r="A379" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="31.5">
+      <c r="A380" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="47.25">
+      <c r="A381" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="47.25">
+      <c r="A382" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="63">
+      <c r="A383" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="63">
+      <c r="A384" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="63">
+      <c r="A385" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="42">
+      <c r="A386" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="31.5">
+      <c r="A387" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="78.75">
+      <c r="A388" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="78.75">
+      <c r="A389" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="63">
+      <c r="A390" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="63">
+      <c r="A391" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="63">
+      <c r="A392" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="63">
+      <c r="A393" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="63">
+      <c r="A394" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="63">
+      <c r="A395" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="47.25">
+      <c r="A396" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="47.25">
+      <c r="A397" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="47.25">
+      <c r="A398" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="47.25">
+      <c r="A399" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="63">
+      <c r="A400" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="63">
+      <c r="A401" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="63">
+      <c r="A402" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="63">
+      <c r="A403" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="63">
+      <c r="A404" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="63">
+      <c r="A405" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="63">
+      <c r="A406" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="63">
+      <c r="A407" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="63">
+      <c r="A408" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="63">
+      <c r="A409" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="78.75">
+      <c r="A410" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
